--- a/SU - Suspension/08 - CAS DE CHARGES/Cas de charde Optimus/Cas de charges Optimus.xlsx
+++ b/SU - Suspension/08 - CAS DE CHARGES/Cas de charde Optimus/Cas de charges Optimus.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="238">
   <si>
     <t xml:space="preserve">IMPORTANT TOUTES LES FORCES SONT POUR LE RIGHT SIDE DU VÉHICULE </t>
   </si>
@@ -548,151 +548,205 @@
     <t>X négatif</t>
   </si>
   <si>
-    <t>107.066</t>
-  </si>
-  <si>
-    <t>40.387</t>
-  </si>
-  <si>
-    <t>33.382</t>
-  </si>
-  <si>
-    <t>-69.077</t>
-  </si>
-  <si>
-    <t>-118.596</t>
-  </si>
-  <si>
-    <t>-98.028</t>
-  </si>
-  <si>
-    <t>-76.289</t>
-  </si>
-  <si>
-    <t>-306.059</t>
-  </si>
-  <si>
-    <t>-89.664</t>
-  </si>
-  <si>
-    <t>73.284</t>
-  </si>
-  <si>
-    <t>55.282</t>
-  </si>
-  <si>
-    <t>16.196</t>
-  </si>
-  <si>
     <t>.000</t>
   </si>
   <si>
-    <t>-77.961</t>
-  </si>
-  <si>
-    <t>-621.365</t>
-  </si>
-  <si>
-    <t>504.971</t>
-  </si>
-  <si>
-    <t>216.085</t>
-  </si>
-  <si>
-    <t>427.010</t>
-  </si>
-  <si>
-    <t>-405.280</t>
-  </si>
-  <si>
-    <t>-34.984</t>
-  </si>
-  <si>
-    <t>-98.023</t>
-  </si>
-  <si>
-    <t>-28.717</t>
-  </si>
-  <si>
-    <t>-572.112</t>
-  </si>
-  <si>
-    <t>148.284</t>
-  </si>
-  <si>
-    <t>-1555.892</t>
-  </si>
-  <si>
-    <t>-94.249</t>
-  </si>
-  <si>
-    <t>988.926</t>
-  </si>
-  <si>
-    <t>-54.035</t>
-  </si>
-  <si>
-    <t>-5.150</t>
-  </si>
-  <si>
-    <t>-85.266</t>
-  </si>
-  <si>
-    <t>-132.746</t>
-  </si>
-  <si>
-    <t>-40.982</t>
-  </si>
-  <si>
-    <t>102.168</t>
-  </si>
-  <si>
-    <t>-158.975</t>
-  </si>
-  <si>
-    <t>-49.080</t>
-  </si>
-  <si>
-    <t>37.289</t>
-  </si>
-  <si>
-    <t>-92.617</t>
-  </si>
-  <si>
-    <t>-8.733</t>
-  </si>
-  <si>
-    <t>-55.691</t>
-  </si>
-  <si>
-    <t>-144.161</t>
-  </si>
-  <si>
-    <t>-13.594</t>
-  </si>
-  <si>
-    <t>617.179</t>
-  </si>
-  <si>
-    <t>63.346</t>
-  </si>
-  <si>
-    <t>506.193</t>
-  </si>
-  <si>
-    <t>-468.260</t>
-  </si>
-  <si>
-    <t>1.500</t>
-  </si>
-  <si>
-    <t>22.305</t>
-  </si>
-  <si>
-    <t>2.771</t>
-  </si>
-  <si>
-    <t>-577.879</t>
+    <t>-1095.387</t>
+  </si>
+  <si>
+    <t>-1705.352</t>
+  </si>
+  <si>
+    <t>-526.489</t>
+  </si>
+  <si>
+    <t>-918.078</t>
+  </si>
+  <si>
+    <t>1428.546</t>
+  </si>
+  <si>
+    <t>441.031</t>
+  </si>
+  <si>
+    <t>2878.704</t>
+  </si>
+  <si>
+    <t>-7149.941</t>
+  </si>
+  <si>
+    <t>-674.216</t>
+  </si>
+  <si>
+    <t>2100.571</t>
+  </si>
+  <si>
+    <t>5437.461</t>
+  </si>
+  <si>
+    <t>512.735</t>
+  </si>
+  <si>
+    <t>-.946</t>
+  </si>
+  <si>
+    <t>-.097</t>
+  </si>
+  <si>
+    <t>-.776</t>
+  </si>
+  <si>
+    <t>.718</t>
+  </si>
+  <si>
+    <t>133.809</t>
+  </si>
+  <si>
+    <t>1990.061</t>
+  </si>
+  <si>
+    <t>247.221</t>
+  </si>
+  <si>
+    <t>.170</t>
+  </si>
+  <si>
+    <t>.815</t>
+  </si>
+  <si>
+    <t>-502.920</t>
+  </si>
+  <si>
+    <t>-63.432</t>
+  </si>
+  <si>
+    <t>1357.915</t>
+  </si>
+  <si>
+    <t>3602.540</t>
+  </si>
+  <si>
+    <t>454.486</t>
+  </si>
+  <si>
+    <t>-9729.413</t>
+  </si>
+  <si>
+    <t>-.219</t>
+  </si>
+  <si>
+    <t>-.010</t>
+  </si>
+  <si>
+    <t>-390.835</t>
+  </si>
+  <si>
+    <t>8372.509</t>
+  </si>
+  <si>
+    <t>-306.441</t>
+  </si>
+  <si>
+    <t>-115.593</t>
+  </si>
+  <si>
+    <t>-95.546</t>
+  </si>
+  <si>
+    <t>197.709</t>
+  </si>
+  <si>
+    <t>339.443</t>
+  </si>
+  <si>
+    <t>280.572</t>
+  </si>
+  <si>
+    <t>218.354</t>
+  </si>
+  <si>
+    <t>875.997</t>
+  </si>
+  <si>
+    <t>256.636</t>
+  </si>
+  <si>
+    <t>-209.751</t>
+  </si>
+  <si>
+    <t>-158.226</t>
+  </si>
+  <si>
+    <t>-46.355</t>
+  </si>
+  <si>
+    <t>223.139</t>
+  </si>
+  <si>
+    <t>1778.457</t>
+  </si>
+  <si>
+    <t>-1445.318</t>
+  </si>
+  <si>
+    <t>-618.473</t>
+  </si>
+  <si>
+    <t>-1222.179</t>
+  </si>
+  <si>
+    <t>1159.984</t>
+  </si>
+  <si>
+    <t>100.129</t>
+  </si>
+  <si>
+    <t>280.559</t>
+  </si>
+  <si>
+    <t>82.194</t>
+  </si>
+  <si>
+    <t>1637.485</t>
+  </si>
+  <si>
+    <t>.003</t>
+  </si>
+  <si>
+    <t>-244.473</t>
+  </si>
+  <si>
+    <t>2565.167</t>
+  </si>
+  <si>
+    <t>-.003</t>
+  </si>
+  <si>
+    <t>89.816</t>
+  </si>
+  <si>
+    <t>-942.405</t>
+  </si>
+  <si>
+    <t>154.656</t>
+  </si>
+  <si>
+    <t>14.739</t>
+  </si>
+  <si>
+    <t>.002</t>
+  </si>
+  <si>
+    <t>-.017</t>
+  </si>
+  <si>
+    <t>3099.620</t>
+  </si>
+  <si>
+    <t>-1452.614</t>
+  </si>
+  <si>
+    <t>2914.129</t>
   </si>
 </sst>
 </file>
@@ -1120,10 +1174,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1139,13 +1189,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4232,19 +4286,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="44" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -4255,19 +4309,19 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4307,7 +4361,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -4333,7 +4387,7 @@
       <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="22" t="s">
         <v>27</v>
       </c>
@@ -4357,7 +4411,7 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
@@ -4381,7 +4435,7 @@
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="22" t="s">
         <v>34</v>
       </c>
@@ -4405,7 +4459,7 @@
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="20" t="s">
         <v>37</v>
       </c>
@@ -4429,7 +4483,7 @@
       <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="20" t="s">
         <v>42</v>
       </c>
@@ -4453,7 +4507,7 @@
       <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
       </c>
@@ -4477,7 +4531,7 @@
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
       </c>
@@ -4501,7 +4555,7 @@
       <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="22" t="s">
         <v>52</v>
       </c>
@@ -4525,7 +4579,7 @@
       <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
       </c>
@@ -4549,7 +4603,7 @@
       <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="24" t="s">
         <v>59</v>
       </c>
@@ -4573,7 +4627,7 @@
       <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="25" t="s">
         <v>62</v>
       </c>
@@ -4597,7 +4651,7 @@
       <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="25" t="s">
         <v>66</v>
       </c>
@@ -4621,7 +4675,7 @@
       <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="22" t="s">
         <v>71</v>
       </c>
@@ -4645,7 +4699,7 @@
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="22" t="s">
         <v>77</v>
       </c>
@@ -4669,7 +4723,7 @@
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>81</v>
       </c>
@@ -4693,7 +4747,7 @@
       <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="24" t="s">
         <v>86</v>
       </c>
@@ -4717,7 +4771,7 @@
       <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="24" t="s">
         <v>91</v>
       </c>
@@ -4741,7 +4795,7 @@
       <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="24" t="s">
         <v>95</v>
       </c>
@@ -4765,7 +4819,7 @@
       <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="24" t="s">
         <v>97</v>
       </c>
@@ -4789,7 +4843,7 @@
       <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="25" t="s">
         <v>158</v>
       </c>
@@ -4813,7 +4867,7 @@
       <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="27" t="s">
         <v>160</v>
       </c>
@@ -4837,7 +4891,7 @@
       <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="22" t="s">
         <v>161</v>
       </c>
@@ -4875,7 +4929,7 @@
       <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -4901,7 +4955,7 @@
       <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="22" t="s">
         <v>102</v>
       </c>
@@ -4925,7 +4979,7 @@
       <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="22" t="s">
         <v>104</v>
       </c>
@@ -4949,7 +5003,7 @@
       <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="22" t="s">
         <v>106</v>
       </c>
@@ -4973,7 +5027,7 @@
       <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="20" t="s">
         <v>108</v>
       </c>
@@ -4997,7 +5051,7 @@
       <c r="L34" s="23"/>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="20" t="s">
         <v>111</v>
       </c>
@@ -5021,7 +5075,7 @@
       <c r="L35" s="23"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="20" t="s">
         <v>113</v>
       </c>
@@ -5045,7 +5099,7 @@
       <c r="L36" s="23"/>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="20" t="s">
         <v>115</v>
       </c>
@@ -5069,7 +5123,7 @@
       <c r="L37" s="23"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="24" t="s">
         <v>117</v>
       </c>
@@ -5093,7 +5147,7 @@
       <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="25" t="s">
         <v>120</v>
       </c>
@@ -5117,7 +5171,7 @@
       <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="25" t="s">
         <v>124</v>
       </c>
@@ -5141,7 +5195,7 @@
       <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="22" t="s">
         <v>127</v>
       </c>
@@ -5165,7 +5219,7 @@
       <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="24" t="s">
         <v>129</v>
       </c>
@@ -5189,7 +5243,7 @@
       <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="22" t="s">
         <v>131</v>
       </c>
@@ -5213,7 +5267,7 @@
       <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="20" t="s">
         <v>134</v>
       </c>
@@ -5237,7 +5291,7 @@
       <c r="L44" s="23"/>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="20" t="s">
         <v>136</v>
       </c>
@@ -5261,7 +5315,7 @@
       <c r="L45" s="23"/>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="20" t="s">
         <v>139</v>
       </c>
@@ -5285,7 +5339,7 @@
       <c r="L46" s="23"/>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="24" t="s">
         <v>141</v>
       </c>
@@ -5309,7 +5363,7 @@
       <c r="L47" s="23"/>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="24" t="s">
         <v>144</v>
       </c>
@@ -5333,7 +5387,7 @@
       <c r="L48" s="23"/>
     </row>
     <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="24" t="s">
         <v>145</v>
       </c>
@@ -5357,7 +5411,7 @@
       <c r="L49" s="23"/>
     </row>
     <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="24" t="s">
         <v>147</v>
       </c>
@@ -5381,7 +5435,7 @@
       <c r="L50" s="23"/>
     </row>
     <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="22" t="s">
         <v>149</v>
       </c>
@@ -5405,7 +5459,7 @@
       <c r="L51" s="23"/>
     </row>
     <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="25" t="s">
         <v>165</v>
       </c>
@@ -5429,7 +5483,7 @@
       <c r="L52" s="23"/>
     </row>
     <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="27" t="s">
         <v>166</v>
       </c>
@@ -5453,7 +5507,7 @@
       <c r="L53" s="23"/>
     </row>
     <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="22" t="s">
         <v>167</v>
       </c>
@@ -5478,7 +5532,7 @@
     </row>
     <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="39" t="s">
         <v>156</v>
       </c>
       <c r="B56" s="32" t="s">
@@ -5504,7 +5558,7 @@
       <c r="L56" s="31"/>
     </row>
     <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="32" t="s">
         <v>155</v>
       </c>
@@ -6523,18 +6577,19 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="9" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="12" width="15.42578125" customWidth="1"/>
     <col min="13" max="26" width="10.7109375" customWidth="1"/>
@@ -6593,7 +6648,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -6612,20 +6667,26 @@
         <v>26</v>
       </c>
       <c r="G6" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="H6" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="K6" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="22" t="s">
         <v>27</v>
       </c>
@@ -6642,20 +6703,26 @@
         <v>26</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+        <v>208</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
@@ -6672,20 +6739,26 @@
         <v>26</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+        <v>211</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="22" t="s">
         <v>34</v>
       </c>
@@ -6702,20 +6775,26 @@
         <v>26</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+        <v>214</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="20" t="s">
         <v>37</v>
       </c>
@@ -6732,20 +6811,26 @@
         <v>41</v>
       </c>
       <c r="G10" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="H10" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="20" t="s">
         <v>42</v>
       </c>
@@ -6762,20 +6847,26 @@
         <v>44</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+        <v>208</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
       </c>
@@ -6792,20 +6883,26 @@
         <v>46</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+        <v>211</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
       </c>
@@ -6822,20 +6919,26 @@
         <v>49</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+        <v>214</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="22" t="s">
         <v>52</v>
       </c>
@@ -6852,20 +6955,26 @@
         <v>26</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+        <v>223</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
       </c>
@@ -6882,20 +6991,26 @@
         <v>57</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+        <v>223</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="24" t="s">
         <v>59</v>
       </c>
@@ -6912,20 +7027,26 @@
         <v>61</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
+        <v>220</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="25" t="s">
         <v>62</v>
       </c>
@@ -6942,20 +7063,26 @@
         <v>65</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
+        <v>220</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="25" t="s">
         <v>66</v>
       </c>
@@ -6972,20 +7099,26 @@
         <v>70</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
+        <v>218</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="22" t="s">
         <v>71</v>
       </c>
@@ -7002,20 +7135,26 @@
         <v>26</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H19" s="48" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+        <v>218</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="22" t="s">
         <v>77</v>
       </c>
@@ -7032,20 +7171,26 @@
         <v>26</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+        <v>216</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>81</v>
       </c>
@@ -7062,20 +7207,26 @@
         <v>85</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+        <v>224</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="24" t="s">
         <v>86</v>
       </c>
@@ -7092,20 +7243,26 @@
         <v>89</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+        <v>227</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="24" t="s">
         <v>91</v>
       </c>
@@ -7122,20 +7279,26 @@
         <v>89</v>
       </c>
       <c r="G23" s="48" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="I23" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+        <v>230</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="24" t="s">
         <v>95</v>
       </c>
@@ -7152,20 +7315,26 @@
         <v>89</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="I24" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+        <v>232</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="24" t="s">
         <v>97</v>
       </c>
@@ -7181,15 +7350,27 @@
       <c r="F25" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="G25" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="25" t="s">
         <v>158</v>
       </c>
@@ -7213,7 +7394,7 @@
       <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="27" t="s">
         <v>160</v>
       </c>
@@ -7237,7 +7418,7 @@
       <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="22" t="s">
         <v>161</v>
       </c>
@@ -7275,7 +7456,7 @@
       <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -7294,20 +7475,26 @@
         <v>26</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="H30" s="48" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="I30" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
+        <v>174</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="22" t="s">
         <v>102</v>
       </c>
@@ -7324,20 +7511,26 @@
         <v>26</v>
       </c>
       <c r="G31" s="48" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="H31" s="48" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="I31" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
+        <v>177</v>
+      </c>
+      <c r="J31" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L31" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="22" t="s">
         <v>104</v>
       </c>
@@ -7354,20 +7547,26 @@
         <v>26</v>
       </c>
       <c r="G32" s="48" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="H32" s="48" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="I32" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
+        <v>180</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L32" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="22" t="s">
         <v>106</v>
       </c>
@@ -7384,20 +7583,26 @@
         <v>26</v>
       </c>
       <c r="G33" s="48" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="H33" s="48" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="I33" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
+        <v>183</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L33" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="20" t="s">
         <v>108</v>
       </c>
@@ -7414,20 +7619,26 @@
         <v>110</v>
       </c>
       <c r="G34" s="48" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="H34" s="48" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="I34" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
+        <v>183</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L34" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="20" t="s">
         <v>111</v>
       </c>
@@ -7444,20 +7655,26 @@
         <v>112</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="H35" s="48" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="I35" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
+        <v>180</v>
+      </c>
+      <c r="J35" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L35" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="20" t="s">
         <v>113</v>
       </c>
@@ -7474,20 +7691,26 @@
         <v>114</v>
       </c>
       <c r="G36" s="48" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="H36" s="48" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="I36" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
+        <v>177</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L36" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="20" t="s">
         <v>115</v>
       </c>
@@ -7504,20 +7727,26 @@
         <v>116</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="H37" s="48" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="I37" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
+        <v>174</v>
+      </c>
+      <c r="J37" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L37" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="24" t="s">
         <v>117</v>
       </c>
@@ -7534,20 +7763,26 @@
         <v>119</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H38" s="48" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="I38" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
+        <v>187</v>
+      </c>
+      <c r="J38" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L38" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="25" t="s">
         <v>120</v>
       </c>
@@ -7564,20 +7799,26 @@
         <v>123</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H39" s="48" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="I39" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
+        <v>187</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L39" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="25" t="s">
         <v>124</v>
       </c>
@@ -7594,20 +7835,26 @@
         <v>126</v>
       </c>
       <c r="G40" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H40" s="48" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="I40" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
+        <v>185</v>
+      </c>
+      <c r="J40" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L40" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="22" t="s">
         <v>127</v>
       </c>
@@ -7624,20 +7871,26 @@
         <v>26</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H41" s="48" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="I41" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
+        <v>185</v>
+      </c>
+      <c r="J41" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L41" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="24" t="s">
         <v>129</v>
       </c>
@@ -7654,20 +7907,26 @@
         <v>130</v>
       </c>
       <c r="G42" s="48" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="H42" s="48" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="I42" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
+        <v>190</v>
+      </c>
+      <c r="J42" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L42" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="22" t="s">
         <v>131</v>
       </c>
@@ -7684,20 +7943,26 @@
         <v>26</v>
       </c>
       <c r="G43" s="48" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="H43" s="48" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="I43" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
+        <v>190</v>
+      </c>
+      <c r="J43" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L43" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="20" t="s">
         <v>134</v>
       </c>
@@ -7714,20 +7979,26 @@
         <v>26</v>
       </c>
       <c r="G44" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H44" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I44" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
+        <v>236</v>
+      </c>
+      <c r="J44" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L44" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="20" t="s">
         <v>136</v>
       </c>
@@ -7744,20 +8015,26 @@
         <v>138</v>
       </c>
       <c r="G45" s="48" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="H45" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I45" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
+        <v>171</v>
+      </c>
+      <c r="J45" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L45" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="20" t="s">
         <v>139</v>
       </c>
@@ -7774,20 +8051,26 @@
         <v>26</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H46" s="48" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I46" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
+        <v>237</v>
+      </c>
+      <c r="J46" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L46" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="24" t="s">
         <v>141</v>
       </c>
@@ -7803,15 +8086,27 @@
       <c r="F47" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
+      <c r="G47" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I47" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="J47" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K47" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L47" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="24" t="s">
         <v>144</v>
       </c>
@@ -7827,15 +8122,27 @@
       <c r="F48" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
+      <c r="G48" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="I48" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="J48" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K48" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L48" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="24" t="s">
         <v>145</v>
       </c>
@@ -7851,15 +8158,27 @@
       <c r="F49" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
+      <c r="G49" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="H49" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="I49" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="J49" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L49" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="24" t="s">
         <v>147</v>
       </c>
@@ -7875,15 +8194,27 @@
       <c r="F50" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
+      <c r="G50" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="H50" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="I50" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="J50" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L50" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="22" t="s">
         <v>149</v>
       </c>
@@ -7899,15 +8230,27 @@
       <c r="F51" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
+      <c r="G51" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="H51" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="I51" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="J51" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="L51" s="48" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="25" t="s">
         <v>165</v>
       </c>
@@ -7931,7 +8274,7 @@
       <c r="L52" s="23"/>
     </row>
     <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="27" t="s">
         <v>166</v>
       </c>
@@ -7955,7 +8298,7 @@
       <c r="L53" s="23"/>
     </row>
     <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="22" t="s">
         <v>167</v>
       </c>
@@ -7980,54 +8323,12 @@
     </row>
     <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="B56" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
     </row>
     <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
+      <c r="A57" s="40"/>
     </row>
     <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8978,18 +9279,6 @@
     <mergeCell ref="A6:A28"/>
     <mergeCell ref="A30:A54"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:G45 G56:G57 G47:G51">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G52:G54">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -9004,6 +9293,18 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:G51 G10:G45">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9098,7 +9399,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -9124,7 +9425,7 @@
       <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="22" t="s">
         <v>27</v>
       </c>
@@ -9148,7 +9449,7 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
@@ -9172,7 +9473,7 @@
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="22" t="s">
         <v>34</v>
       </c>
@@ -9196,7 +9497,7 @@
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="20" t="s">
         <v>37</v>
       </c>
@@ -9220,7 +9521,7 @@
       <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="20" t="s">
         <v>42</v>
       </c>
@@ -9244,7 +9545,7 @@
       <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
       </c>
@@ -9268,7 +9569,7 @@
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
       </c>
@@ -9292,7 +9593,7 @@
       <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="22" t="s">
         <v>52</v>
       </c>
@@ -9316,7 +9617,7 @@
       <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
       </c>
@@ -9340,7 +9641,7 @@
       <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="24" t="s">
         <v>59</v>
       </c>
@@ -9364,7 +9665,7 @@
       <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="25" t="s">
         <v>62</v>
       </c>
@@ -9388,7 +9689,7 @@
       <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="25" t="s">
         <v>66</v>
       </c>
@@ -9412,7 +9713,7 @@
       <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="22" t="s">
         <v>71</v>
       </c>
@@ -9436,7 +9737,7 @@
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="22" t="s">
         <v>77</v>
       </c>
@@ -9460,7 +9761,7 @@
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>81</v>
       </c>
@@ -9484,7 +9785,7 @@
       <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="24" t="s">
         <v>86</v>
       </c>
@@ -9508,7 +9809,7 @@
       <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="24" t="s">
         <v>91</v>
       </c>
@@ -9532,7 +9833,7 @@
       <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="24" t="s">
         <v>95</v>
       </c>
@@ -9556,7 +9857,7 @@
       <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="24" t="s">
         <v>97</v>
       </c>
@@ -9580,7 +9881,7 @@
       <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="25" t="s">
         <v>158</v>
       </c>
@@ -9604,7 +9905,7 @@
       <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="27" t="s">
         <v>160</v>
       </c>
@@ -9628,7 +9929,7 @@
       <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="22" t="s">
         <v>161</v>
       </c>
@@ -9666,7 +9967,7 @@
       <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -9692,7 +9993,7 @@
       <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="22" t="s">
         <v>102</v>
       </c>
@@ -9716,7 +10017,7 @@
       <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="22" t="s">
         <v>104</v>
       </c>
@@ -9740,7 +10041,7 @@
       <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="22" t="s">
         <v>106</v>
       </c>
@@ -9764,7 +10065,7 @@
       <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="20" t="s">
         <v>108</v>
       </c>
@@ -9788,7 +10089,7 @@
       <c r="L34" s="23"/>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="20" t="s">
         <v>111</v>
       </c>
@@ -9812,7 +10113,7 @@
       <c r="L35" s="23"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="20" t="s">
         <v>113</v>
       </c>
@@ -9836,7 +10137,7 @@
       <c r="L36" s="23"/>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="20" t="s">
         <v>115</v>
       </c>
@@ -9860,7 +10161,7 @@
       <c r="L37" s="23"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="24" t="s">
         <v>117</v>
       </c>
@@ -9884,7 +10185,7 @@
       <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="25" t="s">
         <v>120</v>
       </c>
@@ -9908,7 +10209,7 @@
       <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="25" t="s">
         <v>124</v>
       </c>
@@ -9932,7 +10233,7 @@
       <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="22" t="s">
         <v>127</v>
       </c>
@@ -9956,7 +10257,7 @@
       <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="24" t="s">
         <v>129</v>
       </c>
@@ -9980,7 +10281,7 @@
       <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="22" t="s">
         <v>131</v>
       </c>
@@ -10004,7 +10305,7 @@
       <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="20" t="s">
         <v>134</v>
       </c>
@@ -10028,7 +10329,7 @@
       <c r="L44" s="23"/>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="20" t="s">
         <v>136</v>
       </c>
@@ -10052,7 +10353,7 @@
       <c r="L45" s="23"/>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="20" t="s">
         <v>139</v>
       </c>
@@ -10076,7 +10377,7 @@
       <c r="L46" s="23"/>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="24" t="s">
         <v>141</v>
       </c>
@@ -10100,7 +10401,7 @@
       <c r="L47" s="23"/>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="24" t="s">
         <v>144</v>
       </c>
@@ -10124,7 +10425,7 @@
       <c r="L48" s="23"/>
     </row>
     <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="24" t="s">
         <v>145</v>
       </c>
@@ -10148,7 +10449,7 @@
       <c r="L49" s="23"/>
     </row>
     <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="24" t="s">
         <v>147</v>
       </c>
@@ -10172,7 +10473,7 @@
       <c r="L50" s="23"/>
     </row>
     <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="22" t="s">
         <v>149</v>
       </c>
@@ -10196,7 +10497,7 @@
       <c r="L51" s="23"/>
     </row>
     <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="25" t="s">
         <v>165</v>
       </c>
@@ -10220,7 +10521,7 @@
       <c r="L52" s="23"/>
     </row>
     <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="27" t="s">
         <v>166</v>
       </c>
@@ -10244,7 +10545,7 @@
       <c r="L53" s="23"/>
     </row>
     <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="22" t="s">
         <v>167</v>
       </c>
@@ -10269,7 +10570,7 @@
     </row>
     <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="39" t="s">
         <v>156</v>
       </c>
       <c r="B56" s="32" t="s">
@@ -10295,7 +10596,7 @@
       <c r="L56" s="31"/>
     </row>
     <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="32" t="s">
         <v>155</v>
       </c>
@@ -11394,7 +11695,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -11420,7 +11721,7 @@
       <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="22" t="s">
         <v>27</v>
       </c>
@@ -11444,7 +11745,7 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
@@ -11468,7 +11769,7 @@
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="22" t="s">
         <v>34</v>
       </c>
@@ -11492,7 +11793,7 @@
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="20" t="s">
         <v>37</v>
       </c>
@@ -11516,7 +11817,7 @@
       <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="20" t="s">
         <v>42</v>
       </c>
@@ -11540,7 +11841,7 @@
       <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
       </c>
@@ -11564,7 +11865,7 @@
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
       </c>
@@ -11588,7 +11889,7 @@
       <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="22" t="s">
         <v>52</v>
       </c>
@@ -11612,7 +11913,7 @@
       <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
       </c>
@@ -11636,7 +11937,7 @@
       <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="24" t="s">
         <v>59</v>
       </c>
@@ -11660,7 +11961,7 @@
       <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="25" t="s">
         <v>62</v>
       </c>
@@ -11684,7 +11985,7 @@
       <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="25" t="s">
         <v>66</v>
       </c>
@@ -11708,7 +12009,7 @@
       <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="22" t="s">
         <v>71</v>
       </c>
@@ -11732,7 +12033,7 @@
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="22" t="s">
         <v>77</v>
       </c>
@@ -11756,7 +12057,7 @@
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>81</v>
       </c>
@@ -11780,7 +12081,7 @@
       <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="24" t="s">
         <v>86</v>
       </c>
@@ -11804,7 +12105,7 @@
       <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="24" t="s">
         <v>91</v>
       </c>
@@ -11828,7 +12129,7 @@
       <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="24" t="s">
         <v>95</v>
       </c>
@@ -11852,7 +12153,7 @@
       <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="24" t="s">
         <v>97</v>
       </c>
@@ -11876,7 +12177,7 @@
       <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="25" t="s">
         <v>158</v>
       </c>
@@ -11900,7 +12201,7 @@
       <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="27" t="s">
         <v>160</v>
       </c>
@@ -11924,7 +12225,7 @@
       <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="22" t="s">
         <v>161</v>
       </c>
@@ -11962,7 +12263,7 @@
       <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -11988,7 +12289,7 @@
       <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="22" t="s">
         <v>102</v>
       </c>
@@ -12012,7 +12313,7 @@
       <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="22" t="s">
         <v>104</v>
       </c>
@@ -12036,7 +12337,7 @@
       <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="22" t="s">
         <v>106</v>
       </c>
@@ -12060,7 +12361,7 @@
       <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="20" t="s">
         <v>108</v>
       </c>
@@ -12084,7 +12385,7 @@
       <c r="L34" s="23"/>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="20" t="s">
         <v>111</v>
       </c>
@@ -12108,7 +12409,7 @@
       <c r="L35" s="23"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="20" t="s">
         <v>113</v>
       </c>
@@ -12132,7 +12433,7 @@
       <c r="L36" s="23"/>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="20" t="s">
         <v>115</v>
       </c>
@@ -12156,7 +12457,7 @@
       <c r="L37" s="23"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="24" t="s">
         <v>117</v>
       </c>
@@ -12180,7 +12481,7 @@
       <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="25" t="s">
         <v>120</v>
       </c>
@@ -12204,7 +12505,7 @@
       <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="25" t="s">
         <v>124</v>
       </c>
@@ -12228,7 +12529,7 @@
       <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="22" t="s">
         <v>127</v>
       </c>
@@ -12252,7 +12553,7 @@
       <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="24" t="s">
         <v>129</v>
       </c>
@@ -12276,7 +12577,7 @@
       <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="22" t="s">
         <v>131</v>
       </c>
@@ -12300,7 +12601,7 @@
       <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="20" t="s">
         <v>134</v>
       </c>
@@ -12324,7 +12625,7 @@
       <c r="L44" s="23"/>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="20" t="s">
         <v>136</v>
       </c>
@@ -12348,7 +12649,7 @@
       <c r="L45" s="23"/>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="20" t="s">
         <v>139</v>
       </c>
@@ -12372,7 +12673,7 @@
       <c r="L46" s="23"/>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="24" t="s">
         <v>141</v>
       </c>
@@ -12396,7 +12697,7 @@
       <c r="L47" s="23"/>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="24" t="s">
         <v>144</v>
       </c>
@@ -12420,7 +12721,7 @@
       <c r="L48" s="23"/>
     </row>
     <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="24" t="s">
         <v>145</v>
       </c>
@@ -12444,7 +12745,7 @@
       <c r="L49" s="23"/>
     </row>
     <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="24" t="s">
         <v>147</v>
       </c>
@@ -12468,7 +12769,7 @@
       <c r="L50" s="23"/>
     </row>
     <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="22" t="s">
         <v>149</v>
       </c>
@@ -12492,7 +12793,7 @@
       <c r="L51" s="23"/>
     </row>
     <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="25" t="s">
         <v>165</v>
       </c>
@@ -12516,7 +12817,7 @@
       <c r="L52" s="23"/>
     </row>
     <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="27" t="s">
         <v>166</v>
       </c>
@@ -12540,7 +12841,7 @@
       <c r="L53" s="23"/>
     </row>
     <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="22" t="s">
         <v>167</v>
       </c>
@@ -12565,7 +12866,7 @@
     </row>
     <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="39" t="s">
         <v>156</v>
       </c>
       <c r="B56" s="32" t="s">
@@ -12591,7 +12892,7 @@
       <c r="L56" s="31"/>
     </row>
     <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="32" t="s">
         <v>155</v>
       </c>
@@ -13628,19 +13929,19 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="44" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="46" t="s">
@@ -13651,19 +13952,19 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="46"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="47"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13703,7 +14004,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -13729,7 +14030,7 @@
       <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="22" t="s">
         <v>27</v>
       </c>
@@ -13753,7 +14054,7 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
@@ -13777,7 +14078,7 @@
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="22" t="s">
         <v>34</v>
       </c>
@@ -13801,7 +14102,7 @@
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="20" t="s">
         <v>37</v>
       </c>
@@ -13825,7 +14126,7 @@
       <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="20" t="s">
         <v>42</v>
       </c>
@@ -13849,7 +14150,7 @@
       <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
       </c>
@@ -13873,7 +14174,7 @@
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
       </c>
@@ -13897,7 +14198,7 @@
       <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="22" t="s">
         <v>52</v>
       </c>
@@ -13921,7 +14222,7 @@
       <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
       </c>
@@ -13945,7 +14246,7 @@
       <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="24" t="s">
         <v>59</v>
       </c>
@@ -13969,7 +14270,7 @@
       <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="25" t="s">
         <v>62</v>
       </c>
@@ -13993,7 +14294,7 @@
       <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="25" t="s">
         <v>66</v>
       </c>
@@ -14017,7 +14318,7 @@
       <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="22" t="s">
         <v>71</v>
       </c>
@@ -14041,7 +14342,7 @@
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="22" t="s">
         <v>77</v>
       </c>
@@ -14065,7 +14366,7 @@
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>81</v>
       </c>
@@ -14089,7 +14390,7 @@
       <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="24" t="s">
         <v>86</v>
       </c>
@@ -14113,7 +14414,7 @@
       <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="24" t="s">
         <v>91</v>
       </c>
@@ -14137,7 +14438,7 @@
       <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="24" t="s">
         <v>95</v>
       </c>
@@ -14161,7 +14462,7 @@
       <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="24" t="s">
         <v>97</v>
       </c>
@@ -14185,7 +14486,7 @@
       <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="25" t="s">
         <v>158</v>
       </c>
@@ -14209,7 +14510,7 @@
       <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="27" t="s">
         <v>160</v>
       </c>
@@ -14233,7 +14534,7 @@
       <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="22" t="s">
         <v>161</v>
       </c>
@@ -14271,7 +14572,7 @@
       <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -14297,7 +14598,7 @@
       <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="22" t="s">
         <v>102</v>
       </c>
@@ -14321,7 +14622,7 @@
       <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="22" t="s">
         <v>104</v>
       </c>
@@ -14345,7 +14646,7 @@
       <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="22" t="s">
         <v>106</v>
       </c>
@@ -14369,7 +14670,7 @@
       <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="20" t="s">
         <v>108</v>
       </c>
@@ -14393,7 +14694,7 @@
       <c r="L34" s="23"/>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="20" t="s">
         <v>111</v>
       </c>
@@ -14417,7 +14718,7 @@
       <c r="L35" s="23"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="20" t="s">
         <v>113</v>
       </c>
@@ -14441,7 +14742,7 @@
       <c r="L36" s="23"/>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="20" t="s">
         <v>115</v>
       </c>
@@ -14465,7 +14766,7 @@
       <c r="L37" s="23"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="24" t="s">
         <v>117</v>
       </c>
@@ -14489,7 +14790,7 @@
       <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="25" t="s">
         <v>120</v>
       </c>
@@ -14513,7 +14814,7 @@
       <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="25" t="s">
         <v>124</v>
       </c>
@@ -14537,7 +14838,7 @@
       <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="22" t="s">
         <v>127</v>
       </c>
@@ -14561,7 +14862,7 @@
       <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="24" t="s">
         <v>129</v>
       </c>
@@ -14585,7 +14886,7 @@
       <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="22" t="s">
         <v>131</v>
       </c>
@@ -14609,7 +14910,7 @@
       <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="20" t="s">
         <v>134</v>
       </c>
@@ -14633,7 +14934,7 @@
       <c r="L44" s="23"/>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="20" t="s">
         <v>136</v>
       </c>
@@ -14657,7 +14958,7 @@
       <c r="L45" s="23"/>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="20" t="s">
         <v>139</v>
       </c>
@@ -14681,7 +14982,7 @@
       <c r="L46" s="23"/>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="24" t="s">
         <v>141</v>
       </c>
@@ -14705,7 +15006,7 @@
       <c r="L47" s="23"/>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="24" t="s">
         <v>144</v>
       </c>
@@ -14729,7 +15030,7 @@
       <c r="L48" s="23"/>
     </row>
     <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="24" t="s">
         <v>145</v>
       </c>
@@ -14753,7 +15054,7 @@
       <c r="L49" s="23"/>
     </row>
     <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="24" t="s">
         <v>147</v>
       </c>
@@ -14777,7 +15078,7 @@
       <c r="L50" s="23"/>
     </row>
     <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="22" t="s">
         <v>149</v>
       </c>
@@ -14801,7 +15102,7 @@
       <c r="L51" s="23"/>
     </row>
     <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="25" t="s">
         <v>165</v>
       </c>
@@ -14825,7 +15126,7 @@
       <c r="L52" s="23"/>
     </row>
     <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="27" t="s">
         <v>166</v>
       </c>
@@ -14849,7 +15150,7 @@
       <c r="L53" s="23"/>
     </row>
     <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="22" t="s">
         <v>167</v>
       </c>
@@ -14874,7 +15175,7 @@
     </row>
     <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="39" t="s">
         <v>156</v>
       </c>
       <c r="B56" s="32" t="s">
@@ -14900,7 +15201,7 @@
       <c r="L56" s="31"/>
     </row>
     <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="32" t="s">
         <v>155</v>
       </c>
@@ -15943,19 +16244,19 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="44" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -15966,19 +16267,19 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16018,7 +16319,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -16044,7 +16345,7 @@
       <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="22" t="s">
         <v>27</v>
       </c>
@@ -16068,7 +16369,7 @@
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
@@ -16092,7 +16393,7 @@
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="22" t="s">
         <v>34</v>
       </c>
@@ -16116,7 +16417,7 @@
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="20" t="s">
         <v>37</v>
       </c>
@@ -16140,7 +16441,7 @@
       <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="20" t="s">
         <v>42</v>
       </c>
@@ -16164,7 +16465,7 @@
       <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
       </c>
@@ -16188,7 +16489,7 @@
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
       </c>
@@ -16212,7 +16513,7 @@
       <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="22" t="s">
         <v>52</v>
       </c>
@@ -16236,7 +16537,7 @@
       <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
       </c>
@@ -16260,7 +16561,7 @@
       <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="24" t="s">
         <v>59</v>
       </c>
@@ -16284,7 +16585,7 @@
       <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="25" t="s">
         <v>62</v>
       </c>
@@ -16308,7 +16609,7 @@
       <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="25" t="s">
         <v>66</v>
       </c>
@@ -16332,7 +16633,7 @@
       <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="22" t="s">
         <v>71</v>
       </c>
@@ -16356,7 +16657,7 @@
       <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="22" t="s">
         <v>77</v>
       </c>
@@ -16380,7 +16681,7 @@
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>81</v>
       </c>
@@ -16404,7 +16705,7 @@
       <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="24" t="s">
         <v>86</v>
       </c>
@@ -16428,7 +16729,7 @@
       <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="24" t="s">
         <v>91</v>
       </c>
@@ -16452,7 +16753,7 @@
       <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="24" t="s">
         <v>95</v>
       </c>
@@ -16476,7 +16777,7 @@
       <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="24" t="s">
         <v>97</v>
       </c>
@@ -16500,7 +16801,7 @@
       <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="25" t="s">
         <v>158</v>
       </c>
@@ -16524,7 +16825,7 @@
       <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="27" t="s">
         <v>160</v>
       </c>
@@ -16548,7 +16849,7 @@
       <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="22" t="s">
         <v>161</v>
       </c>
@@ -16586,7 +16887,7 @@
       <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -16612,7 +16913,7 @@
       <c r="L30" s="23"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="22" t="s">
         <v>102</v>
       </c>
@@ -16636,7 +16937,7 @@
       <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="22" t="s">
         <v>104</v>
       </c>
@@ -16660,7 +16961,7 @@
       <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="22" t="s">
         <v>106</v>
       </c>
@@ -16684,7 +16985,7 @@
       <c r="L33" s="23"/>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="20" t="s">
         <v>108</v>
       </c>
@@ -16708,7 +17009,7 @@
       <c r="L34" s="23"/>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="20" t="s">
         <v>111</v>
       </c>
@@ -16732,7 +17033,7 @@
       <c r="L35" s="23"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="20" t="s">
         <v>113</v>
       </c>
@@ -16756,7 +17057,7 @@
       <c r="L36" s="23"/>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="20" t="s">
         <v>115</v>
       </c>
@@ -16780,7 +17081,7 @@
       <c r="L37" s="23"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="24" t="s">
         <v>117</v>
       </c>
@@ -16804,7 +17105,7 @@
       <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="25" t="s">
         <v>120</v>
       </c>
@@ -16828,7 +17129,7 @@
       <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="25" t="s">
         <v>124</v>
       </c>
@@ -16852,7 +17153,7 @@
       <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="22" t="s">
         <v>127</v>
       </c>
@@ -16876,7 +17177,7 @@
       <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="24" t="s">
         <v>129</v>
       </c>
@@ -16900,7 +17201,7 @@
       <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="22" t="s">
         <v>131</v>
       </c>
@@ -16924,7 +17225,7 @@
       <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="20" t="s">
         <v>134</v>
       </c>
@@ -16948,7 +17249,7 @@
       <c r="L44" s="23"/>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="20" t="s">
         <v>136</v>
       </c>
@@ -16972,7 +17273,7 @@
       <c r="L45" s="23"/>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="20" t="s">
         <v>139</v>
       </c>
@@ -16996,7 +17297,7 @@
       <c r="L46" s="23"/>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="24" t="s">
         <v>141</v>
       </c>
@@ -17020,7 +17321,7 @@
       <c r="L47" s="23"/>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="24" t="s">
         <v>144</v>
       </c>
@@ -17044,7 +17345,7 @@
       <c r="L48" s="23"/>
     </row>
     <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="24" t="s">
         <v>145</v>
       </c>
@@ -17068,7 +17369,7 @@
       <c r="L49" s="23"/>
     </row>
     <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="24" t="s">
         <v>147</v>
       </c>
@@ -17092,7 +17393,7 @@
       <c r="L50" s="23"/>
     </row>
     <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="22" t="s">
         <v>149</v>
       </c>
@@ -17116,7 +17417,7 @@
       <c r="L51" s="23"/>
     </row>
     <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="25" t="s">
         <v>165</v>
       </c>
@@ -17140,7 +17441,7 @@
       <c r="L52" s="23"/>
     </row>
     <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="27" t="s">
         <v>166</v>
       </c>
@@ -17164,7 +17465,7 @@
       <c r="L53" s="23"/>
     </row>
     <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="22" t="s">
         <v>167</v>
       </c>
@@ -17189,7 +17490,7 @@
     </row>
     <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="39" t="s">
         <v>156</v>
       </c>
       <c r="B56" s="32" t="s">
@@ -17215,7 +17516,7 @@
       <c r="L56" s="31"/>
     </row>
     <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="32" t="s">
         <v>155</v>
       </c>

--- a/SU - Suspension/08 - CAS DE CHARGES/Cas de charde Optimus/Cas de charges Optimus.xlsx
+++ b/SU - Suspension/08 - CAS DE CHARGES/Cas de charde Optimus/Cas de charges Optimus.xlsx
@@ -13,28 +13,28 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Left Turn 1G + Freinage 1" sheetId="2" r:id="rId2"/>
-    <sheet name="BRAKING 2G" sheetId="3" r:id="rId3"/>
-    <sheet name="RIGHT TURN 2G" sheetId="8" r:id="rId4"/>
-    <sheet name="LEFT TURN 2G" sheetId="4" r:id="rId5"/>
-    <sheet name="Bump 3G" sheetId="5" r:id="rId6"/>
-    <sheet name="INVERSE BRAKING 0.5G" sheetId="6" r:id="rId7"/>
+    <sheet name="BRAKING 2G" sheetId="3" r:id="rId2"/>
+    <sheet name="RIGHT TURN 2G" sheetId="8" r:id="rId3"/>
+    <sheet name="LEFT TURN 2G" sheetId="4" r:id="rId4"/>
+    <sheet name="Bump 3G" sheetId="5" r:id="rId5"/>
+    <sheet name="INVERSE BRAKING 0.5G" sheetId="6" r:id="rId6"/>
+    <sheet name="Left Turn 1G + Freinage 1" sheetId="2" r:id="rId7"/>
     <sheet name="Right Turn 1G + Freinage 1G" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="2">'BRAKING 2G'!$D$5:$L$49</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="1">'BRAKING 2G'!$D$5:$L$49</definedName>
     <definedName name="DonnéesExternes_1" localSheetId="7">'Right Turn 1G + Freinage 1G'!$D$5:$L$49</definedName>
-    <definedName name="DonnéesExternes_2" localSheetId="1">'Left Turn 1G + Freinage 1'!$D$5:$L$55</definedName>
-    <definedName name="DonnéesExternes_3" localSheetId="6">'INVERSE BRAKING 0.5G'!$D$5:$L$49</definedName>
-    <definedName name="DonnéesExternes_4" localSheetId="5">'Bump 3G'!$D$5:$L$49</definedName>
-    <definedName name="DonnéesExternes_5" localSheetId="4">'LEFT TURN 2G'!$D$5:$L$49</definedName>
+    <definedName name="DonnéesExternes_2" localSheetId="6">'Left Turn 1G + Freinage 1'!$D$5:$L$55</definedName>
+    <definedName name="DonnéesExternes_3" localSheetId="5">'INVERSE BRAKING 0.5G'!$D$5:$L$49</definedName>
+    <definedName name="DonnéesExternes_4" localSheetId="4">'Bump 3G'!$D$5:$L$49</definedName>
+    <definedName name="DonnéesExternes_5" localSheetId="3">'LEFT TURN 2G'!$D$5:$L$49</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="466">
   <si>
     <t xml:space="preserve">IMPORTANT TOUTES LES FORCES SONT POUR LE RIGHT SIDE DU VÉHICULE </t>
   </si>
@@ -1066,6 +1066,372 @@
   </si>
   <si>
     <t>-1629.840</t>
+  </si>
+  <si>
+    <t>-296.747</t>
+  </si>
+  <si>
+    <t>-111.937</t>
+  </si>
+  <si>
+    <t>-92.523</t>
+  </si>
+  <si>
+    <t>191.455</t>
+  </si>
+  <si>
+    <t>328.704</t>
+  </si>
+  <si>
+    <t>271.697</t>
+  </si>
+  <si>
+    <t>211.446</t>
+  </si>
+  <si>
+    <t>848.281</t>
+  </si>
+  <si>
+    <t>248.516</t>
+  </si>
+  <si>
+    <t>-203.114</t>
+  </si>
+  <si>
+    <t>-153.220</t>
+  </si>
+  <si>
+    <t>-44.888</t>
+  </si>
+  <si>
+    <t>96.961</t>
+  </si>
+  <si>
+    <t>271.683</t>
+  </si>
+  <si>
+    <t>79.593</t>
+  </si>
+  <si>
+    <t>-1183.512</t>
+  </si>
+  <si>
+    <t>1123.284</t>
+  </si>
+  <si>
+    <t>-1399.592</t>
+  </si>
+  <si>
+    <t>-598.905</t>
+  </si>
+  <si>
+    <t>216.079</t>
+  </si>
+  <si>
+    <t>1722.190</t>
+  </si>
+  <si>
+    <t>-236.738</t>
+  </si>
+  <si>
+    <t>2484.011</t>
+  </si>
+  <si>
+    <t>86.974</t>
+  </si>
+  <si>
+    <t>-912.589</t>
+  </si>
+  <si>
+    <t>149.763</t>
+  </si>
+  <si>
+    <t>14.273</t>
+  </si>
+  <si>
+    <t>1585.679</t>
+  </si>
+  <si>
+    <t>304.770</t>
+  </si>
+  <si>
+    <t>274.178</t>
+  </si>
+  <si>
+    <t>426.854</t>
+  </si>
+  <si>
+    <t>131.782</t>
+  </si>
+  <si>
+    <t>229.422</t>
+  </si>
+  <si>
+    <t>-356.984</t>
+  </si>
+  <si>
+    <t>-110.211</t>
+  </si>
+  <si>
+    <t>-720.143</t>
+  </si>
+  <si>
+    <t>1788.646</t>
+  </si>
+  <si>
+    <t>168.663</t>
+  </si>
+  <si>
+    <t>-525.304</t>
+  </si>
+  <si>
+    <t>-1359.784</t>
+  </si>
+  <si>
+    <t>-128.223</t>
+  </si>
+  <si>
+    <t>-.901</t>
+  </si>
+  <si>
+    <t>.833</t>
+  </si>
+  <si>
+    <t>-1.099</t>
+  </si>
+  <si>
+    <t>-33.473</t>
+  </si>
+  <si>
+    <t>-497.830</t>
+  </si>
+  <si>
+    <t>-61.844</t>
+  </si>
+  <si>
+    <t>125.798</t>
+  </si>
+  <si>
+    <t>15.889</t>
+  </si>
+  <si>
+    <t>-340.136</t>
+  </si>
+  <si>
+    <t>-901.120</t>
+  </si>
+  <si>
+    <t>-113.763</t>
+  </si>
+  <si>
+    <t>2435.382</t>
+  </si>
+  <si>
+    <t>.113</t>
+  </si>
+  <si>
+    <t>.005</t>
+  </si>
+  <si>
+    <t>97.761</t>
+  </si>
+  <si>
+    <t>-2094.251</t>
+  </si>
+  <si>
+    <t>.198</t>
+  </si>
+  <si>
+    <t>.946</t>
+  </si>
+  <si>
+    <t>1208.551</t>
+  </si>
+  <si>
+    <t>-775.321</t>
+  </si>
+  <si>
+    <t>-432.919</t>
+  </si>
+  <si>
+    <t>-163.302</t>
+  </si>
+  <si>
+    <t>-134.980</t>
+  </si>
+  <si>
+    <t>279.310</t>
+  </si>
+  <si>
+    <t>479.541</t>
+  </si>
+  <si>
+    <t>396.373</t>
+  </si>
+  <si>
+    <t>308.474</t>
+  </si>
+  <si>
+    <t>1237.543</t>
+  </si>
+  <si>
+    <t>362.556</t>
+  </si>
+  <si>
+    <t>-296.321</t>
+  </si>
+  <si>
+    <t>-223.530</t>
+  </si>
+  <si>
+    <t>-65.486</t>
+  </si>
+  <si>
+    <t>141.455</t>
+  </si>
+  <si>
+    <t>396.355</t>
+  </si>
+  <si>
+    <t>116.118</t>
+  </si>
+  <si>
+    <t>-1726.607</t>
+  </si>
+  <si>
+    <t>1638.741</t>
+  </si>
+  <si>
+    <t>-2041.841</t>
+  </si>
+  <si>
+    <t>-873.733</t>
+  </si>
+  <si>
+    <t>315.235</t>
+  </si>
+  <si>
+    <t>2512.475</t>
+  </si>
+  <si>
+    <t>-.022</t>
+  </si>
+  <si>
+    <t>-345.374</t>
+  </si>
+  <si>
+    <t>3623.884</t>
+  </si>
+  <si>
+    <t>-.004</t>
+  </si>
+  <si>
+    <t>126.885</t>
+  </si>
+  <si>
+    <t>-1331.364</t>
+  </si>
+  <si>
+    <t>218.486</t>
+  </si>
+  <si>
+    <t>20.823</t>
+  </si>
+  <si>
+    <t>2313.321</t>
+  </si>
+  <si>
+    <t>2313.396</t>
+  </si>
+  <si>
+    <t>344.770</t>
+  </si>
+  <si>
+    <t>536.754</t>
+  </si>
+  <si>
+    <t>165.711</t>
+  </si>
+  <si>
+    <t>-413.115</t>
+  </si>
+  <si>
+    <t>642.814</t>
+  </si>
+  <si>
+    <t>198.454</t>
+  </si>
+  <si>
+    <t>-150.778</t>
+  </si>
+  <si>
+    <t>374.493</t>
+  </si>
+  <si>
+    <t>35.313</t>
+  </si>
+  <si>
+    <t>225.187</t>
+  </si>
+  <si>
+    <t>582.911</t>
+  </si>
+  <si>
+    <t>54.967</t>
+  </si>
+  <si>
+    <t>-2046.782</t>
+  </si>
+  <si>
+    <t>1893.401</t>
+  </si>
+  <si>
+    <t>-2495.547</t>
+  </si>
+  <si>
+    <t>-256.140</t>
+  </si>
+  <si>
+    <t>-6.064</t>
+  </si>
+  <si>
+    <t>-90.190</t>
+  </si>
+  <si>
+    <t>-11.204</t>
+  </si>
+  <si>
+    <t>41.463</t>
+  </si>
+  <si>
+    <t>-887.878</t>
+  </si>
+  <si>
+    <t>-150.342</t>
+  </si>
+  <si>
+    <t>3219.404</t>
+  </si>
+  <si>
+    <t>108.881</t>
+  </si>
+  <si>
+    <t>5.085</t>
+  </si>
+  <si>
+    <t>-.001</t>
+  </si>
+  <si>
+    <t>.031</t>
+  </si>
+  <si>
+    <t>448.766</t>
+  </si>
+  <si>
+    <t>2149.540</t>
+  </si>
+  <si>
+    <t>2336.642</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1495,7 +1861,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3303,2272 +3668,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:L1004"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="26" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="44"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="45"/>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-    </row>
-    <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-    </row>
-    <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-    </row>
-    <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-    </row>
-    <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-    </row>
-    <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-    </row>
-    <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-    </row>
-    <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-    </row>
-    <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-    </row>
-    <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-    </row>
-    <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-    </row>
-    <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-    </row>
-    <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-    </row>
-    <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="D46" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-    </row>
-    <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-    </row>
-    <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-    </row>
-    <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-    </row>
-    <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-    </row>
-    <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-    </row>
-    <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-    </row>
-    <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-    </row>
-    <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-    </row>
-    <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-    </row>
-    <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-    </row>
-    <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-    </row>
-    <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-    </row>
-    <row r="59" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A6:A26"/>
-    <mergeCell ref="A27:A47"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G27:G45 G6:G25">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46:G47 G52">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8378,12 +6477,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8524,22 +6623,22 @@
       <c r="F6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="J6" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K6" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L6" s="53" t="s">
+      <c r="J6" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8560,22 +6659,22 @@
       <c r="F7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="J7" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="53" t="s">
+      <c r="J7" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8596,22 +6695,22 @@
       <c r="F8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="J8" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K8" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L8" s="53" t="s">
+      <c r="J8" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8632,22 +6731,22 @@
       <c r="F9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="J9" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K9" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L9" s="53" t="s">
+      <c r="J9" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8668,22 +6767,22 @@
       <c r="F10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="J10" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K10" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L10" s="53" t="s">
+      <c r="J10" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8704,22 +6803,22 @@
       <c r="F11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="J11" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K11" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L11" s="53" t="s">
+      <c r="J11" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8740,22 +6839,22 @@
       <c r="F12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="I12" s="53" t="s">
+      <c r="I12" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="J12" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L12" s="53" t="s">
+      <c r="J12" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8776,22 +6875,22 @@
       <c r="F13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="J13" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K13" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="53" t="s">
+      <c r="J13" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8812,22 +6911,22 @@
       <c r="F14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I14" s="53" t="s">
+      <c r="I14" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J14" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L14" s="53" t="s">
+      <c r="J14" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8848,22 +6947,22 @@
       <c r="F15" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J15" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K15" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L15" s="53" t="s">
+      <c r="J15" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8884,22 +6983,22 @@
       <c r="F16" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="J16" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L16" s="53" t="s">
+      <c r="J16" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8920,22 +7019,22 @@
       <c r="F17" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="J17" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K17" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L17" s="53" t="s">
+      <c r="J17" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8956,22 +7055,22 @@
       <c r="F18" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="53" t="s">
+      <c r="G18" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="J18" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K18" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L18" s="53" t="s">
+      <c r="J18" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8992,22 +7091,22 @@
       <c r="F19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="53" t="s">
+      <c r="G19" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="I19" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="J19" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K19" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" s="53" t="s">
+      <c r="J19" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9028,22 +7127,22 @@
       <c r="F20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="H20" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="53" t="s">
+      <c r="H20" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="J20" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K20" s="53" t="s">
+      <c r="J20" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="L20" s="53" t="s">
+      <c r="L20" s="30" t="s">
         <v>252</v>
       </c>
     </row>
@@ -9064,22 +7163,22 @@
       <c r="F21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="I21" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K21" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L21" s="53" t="s">
+      <c r="G21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9100,22 +7199,22 @@
       <c r="F22" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="53" t="s">
+      <c r="G22" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="J22" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K22" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L22" s="53" t="s">
+      <c r="J22" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9136,22 +7235,22 @@
       <c r="F23" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="53" t="s">
+      <c r="G23" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="I23" s="53" t="s">
+      <c r="I23" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="J23" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K23" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L23" s="53" t="s">
+      <c r="J23" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9172,22 +7271,22 @@
       <c r="F24" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" s="53" t="s">
+      <c r="G24" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="I24" s="53" t="s">
+      <c r="I24" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="J24" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K24" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L24" s="53" t="s">
+      <c r="J24" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L24" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9258,22 +7357,22 @@
       <c r="F27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="J27" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K27" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L27" s="53" t="s">
+      <c r="J27" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9294,22 +7393,22 @@
       <c r="F28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="H28" s="53" t="s">
+      <c r="H28" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="I28" s="53" t="s">
+      <c r="I28" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="J28" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K28" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L28" s="53" t="s">
+      <c r="J28" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L28" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9330,22 +7429,22 @@
       <c r="F29" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="I29" s="53" t="s">
+      <c r="I29" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="J29" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K29" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L29" s="53" t="s">
+      <c r="J29" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9366,22 +7465,22 @@
       <c r="F30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="I30" s="53" t="s">
+      <c r="I30" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="J30" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K30" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L30" s="53" t="s">
+      <c r="J30" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9402,22 +7501,22 @@
       <c r="F31" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="H31" s="53" t="s">
+      <c r="H31" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="I31" s="53" t="s">
+      <c r="I31" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="J31" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K31" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L31" s="53" t="s">
+      <c r="J31" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L31" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9438,22 +7537,22 @@
       <c r="F32" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="H32" s="53" t="s">
+      <c r="H32" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="I32" s="53" t="s">
+      <c r="I32" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="J32" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K32" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L32" s="53" t="s">
+      <c r="J32" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L32" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9474,22 +7573,22 @@
       <c r="F33" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="I33" s="53" t="s">
+      <c r="I33" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="J33" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K33" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" s="53" t="s">
+      <c r="J33" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L33" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9510,22 +7609,22 @@
       <c r="F34" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="53" t="s">
+      <c r="G34" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="I34" s="53" t="s">
+      <c r="I34" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="J34" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K34" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L34" s="53" t="s">
+      <c r="J34" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L34" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9546,22 +7645,22 @@
       <c r="F35" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H35" s="53" t="s">
+      <c r="G35" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="I35" s="53" t="s">
+      <c r="I35" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="J35" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K35" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L35" s="53" t="s">
+      <c r="J35" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L35" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9582,22 +7681,22 @@
       <c r="F36" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H36" s="53" t="s">
+      <c r="G36" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="I36" s="53" t="s">
+      <c r="I36" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="J36" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K36" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L36" s="53" t="s">
+      <c r="J36" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L36" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9618,22 +7717,22 @@
       <c r="F37" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H37" s="53" t="s">
+      <c r="G37" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="I37" s="53" t="s">
+      <c r="I37" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="J37" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K37" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L37" s="53" t="s">
+      <c r="J37" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L37" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9654,22 +7753,22 @@
       <c r="F38" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="53" t="s">
+      <c r="G38" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="I38" s="53" t="s">
+      <c r="I38" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="J38" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K38" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L38" s="53" t="s">
+      <c r="J38" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L38" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9690,22 +7789,22 @@
       <c r="F39" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="H39" s="53" t="s">
+      <c r="H39" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="I39" s="53" t="s">
+      <c r="I39" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="J39" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K39" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L39" s="53" t="s">
+      <c r="J39" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K39" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L39" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9726,22 +7825,22 @@
       <c r="F40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="53" t="s">
+      <c r="G40" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="H40" s="53" t="s">
+      <c r="H40" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="I40" s="53" t="s">
+      <c r="I40" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="J40" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K40" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L40" s="53" t="s">
+      <c r="J40" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K40" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L40" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9762,22 +7861,22 @@
       <c r="F41" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="53" t="s">
+      <c r="G41" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="H41" s="53" t="s">
+      <c r="H41" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="I41" s="53" t="s">
+      <c r="I41" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="J41" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K41" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L41" s="53" t="s">
+      <c r="J41" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K41" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L41" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9798,22 +7897,22 @@
       <c r="F42" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="53" t="s">
+      <c r="G42" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="H42" s="53" t="s">
+      <c r="H42" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="I42" s="53" t="s">
+      <c r="I42" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="J42" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K42" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L42" s="53" t="s">
+      <c r="J42" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L42" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9834,22 +7933,22 @@
       <c r="F43" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="53" t="s">
+      <c r="G43" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="H43" s="53" t="s">
+      <c r="H43" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="I43" s="53" t="s">
+      <c r="I43" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="J43" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K43" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L43" s="53" t="s">
+      <c r="J43" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K43" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L43" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9870,22 +7969,22 @@
       <c r="F44" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H44" s="53" t="s">
+      <c r="G44" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="I44" s="53" t="s">
+      <c r="I44" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="J44" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K44" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L44" s="53" t="s">
+      <c r="J44" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L44" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9906,22 +8005,22 @@
       <c r="F45" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H45" s="53" t="s">
+      <c r="G45" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="I45" s="53" t="s">
+      <c r="I45" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="J45" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K45" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="L45" s="53" t="s">
+      <c r="J45" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L45" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9975,14 +8074,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
     <mergeCell ref="A6:A26"/>
     <mergeCell ref="A27:A47"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="G27:G45 G6:G25">
     <cfRule type="colorScale" priority="2">
@@ -10024,14 +8123,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -12847,14 +10946,14 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
     <mergeCell ref="A27:A47"/>
     <mergeCell ref="A6:A26"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="G48:G51 G56:G57">
     <cfRule type="colorScale" priority="5">
@@ -12920,15 +11019,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:L47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12938,7 +11037,8 @@
     <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="9" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="26" width="10.7109375" customWidth="1"/>
@@ -13073,12 +11173,24 @@
       <c r="F6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+      <c r="G6" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
@@ -13097,12 +11209,24 @@
       <c r="F7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="G7" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
@@ -13121,12 +11245,24 @@
       <c r="F8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
+      <c r="G8" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46"/>
@@ -13145,12 +11281,24 @@
       <c r="F9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="G9" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
@@ -13169,12 +11317,24 @@
       <c r="F10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+      <c r="G10" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
@@ -13193,12 +11353,24 @@
       <c r="F11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="G11" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
@@ -13217,12 +11389,24 @@
       <c r="F12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="G12" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
@@ -13241,12 +11425,24 @@
       <c r="F13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="G13" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
@@ -13265,12 +11461,24 @@
       <c r="F14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="G14" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
@@ -13289,12 +11497,24 @@
       <c r="F15" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="G15" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46"/>
@@ -13313,12 +11533,24 @@
       <c r="F16" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="G16" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
@@ -13337,12 +11569,24 @@
       <c r="F17" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="G17" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
@@ -13361,12 +11605,24 @@
       <c r="F18" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="G18" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46"/>
@@ -13385,12 +11641,24 @@
       <c r="F19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="G19" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
@@ -13409,12 +11677,24 @@
       <c r="F20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="G20" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
@@ -13433,12 +11713,24 @@
       <c r="F21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+      <c r="G21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46"/>
@@ -13457,12 +11749,24 @@
       <c r="F22" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+      <c r="G22" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
@@ -13481,12 +11785,24 @@
       <c r="F23" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+      <c r="G23" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
@@ -13505,12 +11821,24 @@
       <c r="F24" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
+      <c r="G24" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
@@ -13529,12 +11857,24 @@
       <c r="F25" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
+      <c r="G25" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
@@ -13553,12 +11893,24 @@
       <c r="F26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
+      <c r="G26" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
@@ -13579,12 +11931,24 @@
       <c r="F27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+      <c r="G27" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
@@ -13603,12 +11967,24 @@
       <c r="F28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+      <c r="G28" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
@@ -13627,12 +12003,24 @@
       <c r="F29" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+      <c r="G29" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
@@ -13651,12 +12039,24 @@
       <c r="F30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+      <c r="G30" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
@@ -13675,12 +12075,24 @@
       <c r="F31" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
+      <c r="G31" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L31" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
@@ -13699,12 +12111,24 @@
       <c r="F32" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
+      <c r="G32" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L32" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
@@ -13723,12 +12147,24 @@
       <c r="F33" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+      <c r="G33" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L33" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
@@ -13747,12 +12183,24 @@
       <c r="F34" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
+      <c r="G34" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L34" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
@@ -13771,12 +12219,24 @@
       <c r="F35" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
+      <c r="G35" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L35" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
@@ -13795,12 +12255,24 @@
       <c r="F36" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="G36" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L36" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
@@ -13819,12 +12291,24 @@
       <c r="F37" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
+      <c r="G37" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L37" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
@@ -13843,12 +12327,24 @@
       <c r="F38" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
+      <c r="G38" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L38" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
@@ -13867,12 +12363,24 @@
       <c r="F39" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
+      <c r="G39" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K39" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L39" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
@@ -13891,12 +12399,24 @@
       <c r="F40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
+      <c r="G40" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K40" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L40" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48"/>
@@ -13915,12 +12435,24 @@
       <c r="F41" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
+      <c r="G41" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="J41" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K41" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L41" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48"/>
@@ -13939,12 +12471,24 @@
       <c r="F42" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
+      <c r="G42" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="J42" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L42" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48"/>
@@ -13963,12 +12507,24 @@
       <c r="F43" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
+      <c r="G43" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="J43" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K43" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L43" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48"/>
@@ -13987,12 +12543,24 @@
       <c r="F44" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
+      <c r="G44" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L44" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
@@ -14011,12 +12579,24 @@
       <c r="F45" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
+      <c r="G45" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="J45" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L45" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48"/>
@@ -14035,12 +12615,24 @@
       <c r="F46" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
+      <c r="G46" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="J46" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K46" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L46" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="49"/>
@@ -14059,12 +12651,24 @@
       <c r="F47" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
+      <c r="G47" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K47" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L47" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
@@ -15250,15 +13854,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L47" sqref="A1:L47"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15409,12 +14013,24 @@
       <c r="F6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+      <c r="G6" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15434,12 +14050,24 @@
       <c r="F7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="G7" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15459,12 +14087,24 @@
       <c r="F8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
+      <c r="G8" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15484,12 +14124,24 @@
       <c r="F9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="G9" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15509,12 +14161,24 @@
       <c r="F10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+      <c r="G10" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15534,12 +14198,24 @@
       <c r="F11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="G11" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15559,12 +14235,24 @@
       <c r="F12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="G12" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15584,12 +14272,24 @@
       <c r="F13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="G13" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15609,12 +14309,24 @@
       <c r="F14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="G14" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15634,12 +14346,24 @@
       <c r="F15" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="G15" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15659,12 +14383,24 @@
       <c r="F16" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="G16" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15684,12 +14420,24 @@
       <c r="F17" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="G17" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15709,12 +14457,24 @@
       <c r="F18" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="G18" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15734,12 +14494,24 @@
       <c r="F19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="G19" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15759,12 +14531,24 @@
       <c r="F20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="G20" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15784,12 +14568,24 @@
       <c r="F21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+      <c r="G21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15809,12 +14605,24 @@
       <c r="F22" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+      <c r="G22" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15834,12 +14642,24 @@
       <c r="F23" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+      <c r="G23" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15859,12 +14679,24 @@
       <c r="F24" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
+      <c r="G24" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15884,12 +14716,24 @@
       <c r="F25" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
+      <c r="G25" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15909,12 +14753,24 @@
       <c r="F26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
+      <c r="G26" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15936,12 +14792,24 @@
       <c r="F27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+      <c r="G27" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15961,12 +14829,24 @@
       <c r="F28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+      <c r="G28" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15986,12 +14866,24 @@
       <c r="F29" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+      <c r="G29" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16011,12 +14903,24 @@
       <c r="F30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+      <c r="G30" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16036,12 +14940,24 @@
       <c r="F31" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
+      <c r="G31" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L31" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16061,12 +14977,24 @@
       <c r="F32" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
+      <c r="G32" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L32" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16086,12 +15014,24 @@
       <c r="F33" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+      <c r="G33" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L33" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16111,12 +15051,24 @@
       <c r="F34" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
+      <c r="G34" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L34" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M34" s="18"/>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16136,12 +15088,24 @@
       <c r="F35" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
+      <c r="G35" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L35" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16161,12 +15125,24 @@
       <c r="F36" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="G36" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L36" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16186,12 +15162,24 @@
       <c r="F37" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
+      <c r="G37" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L37" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16211,12 +15199,24 @@
       <c r="F38" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
+      <c r="G38" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L38" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M38" s="18"/>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16236,12 +15236,24 @@
       <c r="F39" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
+      <c r="G39" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K39" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L39" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M39" s="18"/>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16261,12 +15273,24 @@
       <c r="F40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
+      <c r="G40" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K40" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L40" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16286,12 +15310,24 @@
       <c r="F41" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
+      <c r="G41" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="J41" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K41" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L41" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M41" s="18"/>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16311,12 +15347,24 @@
       <c r="F42" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
+      <c r="G42" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="J42" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L42" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16336,12 +15384,24 @@
       <c r="F43" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
+      <c r="G43" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="J43" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K43" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L43" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M43" s="18"/>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16361,12 +15421,24 @@
       <c r="F44" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
+      <c r="G44" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L44" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16386,12 +15458,24 @@
       <c r="F45" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
+      <c r="G45" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="J45" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L45" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M45" s="18"/>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16411,12 +15495,24 @@
       <c r="F46" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
+      <c r="G46" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="J46" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K46" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L46" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M46" s="18"/>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16436,12 +15532,24 @@
       <c r="F47" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
+      <c r="G47" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K47" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L47" s="30" t="s">
+        <v>143</v>
+      </c>
       <c r="M47" s="18"/>
     </row>
     <row r="48" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17602,6 +16710,2272 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L1004"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="26" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="44"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
+      <c r="B31" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="48"/>
+      <c r="B32" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="48"/>
+      <c r="B33" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+    </row>
+    <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="48"/>
+      <c r="B34" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+    </row>
+    <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+    </row>
+    <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="48"/>
+      <c r="B36" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+    </row>
+    <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="48"/>
+      <c r="B37" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+    </row>
+    <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="48"/>
+      <c r="B38" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+    </row>
+    <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="48"/>
+      <c r="B39" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="48"/>
+      <c r="B40" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+    </row>
+    <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="48"/>
+      <c r="B41" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+    </row>
+    <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="48"/>
+      <c r="B42" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+    </row>
+    <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="48"/>
+      <c r="B43" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+    </row>
+    <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="48"/>
+      <c r="B44" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+    </row>
+    <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="48"/>
+      <c r="B45" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+    </row>
+    <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="48"/>
+      <c r="B46" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+    </row>
+    <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="49"/>
+      <c r="B47" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+    </row>
+    <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+    </row>
+    <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+    </row>
+    <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+    </row>
+    <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+    </row>
+    <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+    </row>
+    <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="32"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+    </row>
+    <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+    </row>
+    <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+    </row>
+    <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+    </row>
+    <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+    </row>
+    <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+    </row>
+    <row r="59" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A6:A26"/>
+    <mergeCell ref="A27:A47"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G27:G45 G6:G25">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46:G47 G52">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>

--- a/SU - Suspension/08 - CAS DE CHARGES/Cas de charde Optimus/Cas de charges Optimus.xlsx
+++ b/SU - Suspension/08 - CAS DE CHARGES/Cas de charde Optimus/Cas de charges Optimus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="9660" tabRatio="857" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="9660" tabRatio="857" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="529">
   <si>
     <t xml:space="preserve">IMPORTANT TOUTES LES FORCES SONT POUR LE RIGHT SIDE DU VÉHICULE </t>
   </si>
@@ -723,24 +723,6 @@
     <t>-.104</t>
   </si>
   <si>
-    <t>-2772.613</t>
-  </si>
-  <si>
-    <t>2564.840</t>
-  </si>
-  <si>
-    <t>55.928</t>
-  </si>
-  <si>
-    <t>-.005</t>
-  </si>
-  <si>
-    <t>146.397</t>
-  </si>
-  <si>
-    <t>6.837</t>
-  </si>
-  <si>
     <t>-.511</t>
   </si>
   <si>
@@ -795,279 +777,15 @@
     <t>-.467</t>
   </si>
   <si>
-    <t>467.227</t>
-  </si>
-  <si>
-    <t>727.401</t>
-  </si>
-  <si>
-    <t>224.569</t>
-  </si>
-  <si>
-    <t>-559.816</t>
-  </si>
-  <si>
-    <t>871.084</t>
-  </si>
-  <si>
-    <t>268.928</t>
-  </si>
-  <si>
-    <t>-203.865</t>
-  </si>
-  <si>
-    <t>506.348</t>
-  </si>
-  <si>
-    <t>47.747</t>
-  </si>
-  <si>
-    <t>304.654</t>
-  </si>
-  <si>
-    <t>788.615</t>
-  </si>
-  <si>
-    <t>74.364</t>
-  </si>
-  <si>
-    <t>-3380.524</t>
-  </si>
-  <si>
-    <t>-346.971</t>
-  </si>
-  <si>
-    <t>-8.199</t>
-  </si>
-  <si>
-    <t>-121.935</t>
-  </si>
-  <si>
-    <t>-15.148</t>
-  </si>
-  <si>
     <t>.001</t>
   </si>
   <si>
-    <t>-1197.623</t>
-  </si>
-  <si>
     <t>.004</t>
   </si>
   <si>
-    <t>-203.422</t>
-  </si>
-  <si>
-    <t>4356.044</t>
-  </si>
-  <si>
-    <t>-.002</t>
-  </si>
-  <si>
-    <t>.042</t>
-  </si>
-  <si>
-    <t>607.911</t>
-  </si>
-  <si>
-    <t>2911.811</t>
-  </si>
-  <si>
-    <t>1109.343</t>
-  </si>
-  <si>
-    <t>418.457</t>
-  </si>
-  <si>
-    <t>345.883</t>
-  </si>
-  <si>
-    <t>-1153.461</t>
-  </si>
-  <si>
-    <t>-1980.350</t>
-  </si>
-  <si>
-    <t>-1636.894</t>
-  </si>
-  <si>
-    <t>1399.010</t>
-  </si>
-  <si>
-    <t>5612.568</t>
-  </si>
-  <si>
-    <t>1644.280</t>
-  </si>
-  <si>
-    <t>-1964.651</t>
-  </si>
-  <si>
-    <t>-1482.040</t>
-  </si>
-  <si>
-    <t>-434.184</t>
-  </si>
-  <si>
-    <t>609.759</t>
-  </si>
-  <si>
-    <t>1708.533</t>
-  </si>
-  <si>
-    <t>500.539</t>
-  </si>
-  <si>
-    <t>-1205.913</t>
-  </si>
-  <si>
-    <t>1144.546</t>
-  </si>
-  <si>
-    <t>-1426.083</t>
-  </si>
-  <si>
-    <t>-610.241</t>
-  </si>
-  <si>
-    <t>220.169</t>
-  </si>
-  <si>
-    <t>1754.786</t>
-  </si>
-  <si>
-    <t>-.012</t>
-  </si>
-  <si>
-    <t>.052</t>
-  </si>
-  <si>
-    <t>-1560.360</t>
-  </si>
-  <si>
-    <t>16372.289</t>
-  </si>
-  <si>
-    <t>-.052</t>
-  </si>
-  <si>
-    <t>1440.272</t>
-  </si>
-  <si>
-    <t>-15112.258</t>
-  </si>
-  <si>
-    <t>3191.342</t>
-  </si>
-  <si>
-    <t>304.151</t>
-  </si>
-  <si>
-    <t>1564.170</t>
-  </si>
-  <si>
-    <t>-778.712</t>
-  </si>
-  <si>
-    <t>-1212.337</t>
-  </si>
-  <si>
-    <t>-374.282</t>
-  </si>
-  <si>
-    <t>846.681</t>
-  </si>
-  <si>
-    <t>-1317.451</t>
-  </si>
-  <si>
-    <t>-406.733</t>
-  </si>
-  <si>
-    <t>-987.596</t>
-  </si>
-  <si>
-    <t>2452.927</t>
-  </si>
-  <si>
-    <t>231.303</t>
-  </si>
-  <si>
-    <t>961.219</t>
-  </si>
-  <si>
-    <t>2488.175</t>
-  </si>
-  <si>
-    <t>234.627</t>
-  </si>
-  <si>
-    <t>1338.194</t>
-  </si>
-  <si>
-    <t>-1237.913</t>
-  </si>
-  <si>
-    <t>1631.599</t>
-  </si>
-  <si>
-    <t>167.465</t>
-  </si>
-  <si>
-    <t>-41.591</t>
-  </si>
-  <si>
-    <t>-618.563</t>
-  </si>
-  <si>
-    <t>-76.843</t>
-  </si>
-  <si>
-    <t>.030</t>
-  </si>
-  <si>
-    <t>653.042</t>
-  </si>
-  <si>
-    <t>-13984.114</t>
-  </si>
-  <si>
-    <t>.083</t>
-  </si>
-  <si>
-    <t>-570.270</t>
-  </si>
-  <si>
-    <t>12211.642</t>
-  </si>
-  <si>
     <t>-.113</t>
   </si>
   <si>
-    <t>3048.186</t>
-  </si>
-  <si>
-    <t>142.347</t>
-  </si>
-  <si>
-    <t>-.013</t>
-  </si>
-  <si>
-    <t>.286</t>
-  </si>
-  <si>
-    <t>-293.405</t>
-  </si>
-  <si>
-    <t>-1405.377</t>
-  </si>
-  <si>
-    <t>3165.671</t>
-  </si>
-  <si>
-    <t>-1629.840</t>
-  </si>
-  <si>
     <t>-296.747</t>
   </si>
   <si>
@@ -1432,6 +1150,477 @@
   </si>
   <si>
     <t>2336.642</t>
+  </si>
+  <si>
+    <t>845.696</t>
+  </si>
+  <si>
+    <t>319.009</t>
+  </si>
+  <si>
+    <t>263.684</t>
+  </si>
+  <si>
+    <t>-940.799</t>
+  </si>
+  <si>
+    <t>-1615.236</t>
+  </si>
+  <si>
+    <t>-1335.103</t>
+  </si>
+  <si>
+    <t>1373.916</t>
+  </si>
+  <si>
+    <t>5511.892</t>
+  </si>
+  <si>
+    <t>1614.786</t>
+  </si>
+  <si>
+    <t>-1880.164</t>
+  </si>
+  <si>
+    <t>-1418.307</t>
+  </si>
+  <si>
+    <t>-415.513</t>
+  </si>
+  <si>
+    <t>319.008</t>
+  </si>
+  <si>
+    <t>263.683</t>
+  </si>
+  <si>
+    <t>601.343</t>
+  </si>
+  <si>
+    <t>1684.952</t>
+  </si>
+  <si>
+    <t>493.630</t>
+  </si>
+  <si>
+    <t>-1709.756</t>
+  </si>
+  <si>
+    <t>1622.752</t>
+  </si>
+  <si>
+    <t>-1709.757</t>
+  </si>
+  <si>
+    <t>1622.753</t>
+  </si>
+  <si>
+    <t>-2021.917</t>
+  </si>
+  <si>
+    <t>-865.207</t>
+  </si>
+  <si>
+    <t>312.160</t>
+  </si>
+  <si>
+    <t>2487.960</t>
+  </si>
+  <si>
+    <t>.046</t>
+  </si>
+  <si>
+    <t>-1532.847</t>
+  </si>
+  <si>
+    <t>16083.604</t>
+  </si>
+  <si>
+    <t>-.046</t>
+  </si>
+  <si>
+    <t>1345.842</t>
+  </si>
+  <si>
+    <t>-14121.429</t>
+  </si>
+  <si>
+    <t>2959.558</t>
+  </si>
+  <si>
+    <t>282.060</t>
+  </si>
+  <si>
+    <t>2244.237</t>
+  </si>
+  <si>
+    <t>-268.128</t>
+  </si>
+  <si>
+    <t>-417.435</t>
+  </si>
+  <si>
+    <t>-128.873</t>
+  </si>
+  <si>
+    <t>312.187</t>
+  </si>
+  <si>
+    <t>-485.768</t>
+  </si>
+  <si>
+    <t>-149.970</t>
+  </si>
+  <si>
+    <t>-22.580</t>
+  </si>
+  <si>
+    <t>56.083</t>
+  </si>
+  <si>
+    <t>5.288</t>
+  </si>
+  <si>
+    <t>-20.378</t>
+  </si>
+  <si>
+    <t>-52.750</t>
+  </si>
+  <si>
+    <t>-4.974</t>
+  </si>
+  <si>
+    <t>1245.953</t>
+  </si>
+  <si>
+    <t>-1152.584</t>
+  </si>
+  <si>
+    <t>1519.134</t>
+  </si>
+  <si>
+    <t>155.922</t>
+  </si>
+  <si>
+    <t>-1.105</t>
+  </si>
+  <si>
+    <t>-16.436</t>
+  </si>
+  <si>
+    <t>-2.042</t>
+  </si>
+  <si>
+    <t>46.371</t>
+  </si>
+  <si>
+    <t>-992.978</t>
+  </si>
+  <si>
+    <t>21.127</t>
+  </si>
+  <si>
+    <t>-452.419</t>
+  </si>
+  <si>
+    <t>262.149</t>
+  </si>
+  <si>
+    <t>12.242</t>
+  </si>
+  <si>
+    <t>-273.181</t>
+  </si>
+  <si>
+    <t>-1308.505</t>
+  </si>
+  <si>
+    <t>2288.918</t>
+  </si>
+  <si>
+    <t>-1434.155</t>
+  </si>
+  <si>
+    <t>-988.726</t>
+  </si>
+  <si>
+    <t>-372.959</t>
+  </si>
+  <si>
+    <t>-308.276</t>
+  </si>
+  <si>
+    <t>856.540</t>
+  </si>
+  <si>
+    <t>1470.573</t>
+  </si>
+  <si>
+    <t>1215.529</t>
+  </si>
+  <si>
+    <t>-389.056</t>
+  </si>
+  <si>
+    <t>-1560.819</t>
+  </si>
+  <si>
+    <t>-457.264</t>
+  </si>
+  <si>
+    <t>683.778</t>
+  </si>
+  <si>
+    <t>515.810</t>
+  </si>
+  <si>
+    <t>151.114</t>
+  </si>
+  <si>
+    <t>-162.536</t>
+  </si>
+  <si>
+    <t>-455.423</t>
+  </si>
+  <si>
+    <t>-133.422</t>
+  </si>
+  <si>
+    <t>-1131.175</t>
+  </si>
+  <si>
+    <t>1073.611</t>
+  </si>
+  <si>
+    <t>-1337.699</t>
+  </si>
+  <si>
+    <t>-572.420</t>
+  </si>
+  <si>
+    <t>206.524</t>
+  </si>
+  <si>
+    <t>1646.031</t>
+  </si>
+  <si>
+    <t>-.023</t>
+  </si>
+  <si>
+    <t>432.599</t>
+  </si>
+  <si>
+    <t>-4539.100</t>
+  </si>
+  <si>
+    <t>.023</t>
+  </si>
+  <si>
+    <t>-591.978</t>
+  </si>
+  <si>
+    <t>6211.414</t>
+  </si>
+  <si>
+    <t>-1374.615</t>
+  </si>
+  <si>
+    <t>-131.008</t>
+  </si>
+  <si>
+    <t>1541.291</t>
+  </si>
+  <si>
+    <t>399.126</t>
+  </si>
+  <si>
+    <t>621.378</t>
+  </si>
+  <si>
+    <t>191.837</t>
+  </si>
+  <si>
+    <t>-435.093</t>
+  </si>
+  <si>
+    <t>677.012</t>
+  </si>
+  <si>
+    <t>209.012</t>
+  </si>
+  <si>
+    <t>488.819</t>
+  </si>
+  <si>
+    <t>-1214.097</t>
+  </si>
+  <si>
+    <t>-114.485</t>
+  </si>
+  <si>
+    <t>-473.446</t>
+  </si>
+  <si>
+    <t>-1225.546</t>
+  </si>
+  <si>
+    <t>-115.565</t>
+  </si>
+  <si>
+    <t>-728.843</t>
+  </si>
+  <si>
+    <t>674.225</t>
+  </si>
+  <si>
+    <t>-888.645</t>
+  </si>
+  <si>
+    <t>-91.209</t>
+  </si>
+  <si>
+    <t>20.594</t>
+  </si>
+  <si>
+    <t>306.289</t>
+  </si>
+  <si>
+    <t>38.050</t>
+  </si>
+  <si>
+    <t>-.015</t>
+  </si>
+  <si>
+    <t>-324.949</t>
+  </si>
+  <si>
+    <t>6958.392</t>
+  </si>
+  <si>
+    <t>-.041</t>
+  </si>
+  <si>
+    <t>280.391</t>
+  </si>
+  <si>
+    <t>-6004.230</t>
+  </si>
+  <si>
+    <t>.056</t>
+  </si>
+  <si>
+    <t>-1519.255</t>
+  </si>
+  <si>
+    <t>-70.947</t>
+  </si>
+  <si>
+    <t>.007</t>
+  </si>
+  <si>
+    <t>-.142</t>
+  </si>
+  <si>
+    <t>159.802</t>
+  </si>
+  <si>
+    <t>765.434</t>
+  </si>
+  <si>
+    <t>675.636</t>
+  </si>
+  <si>
+    <t>883.073</t>
+  </si>
+  <si>
+    <t>99.985</t>
+  </si>
+  <si>
+    <t>155.662</t>
+  </si>
+  <si>
+    <t>48.057</t>
+  </si>
+  <si>
+    <t>-119.775</t>
+  </si>
+  <si>
+    <t>186.372</t>
+  </si>
+  <si>
+    <t>57.538</t>
+  </si>
+  <si>
+    <t>-43.260</t>
+  </si>
+  <si>
+    <t>107.446</t>
+  </si>
+  <si>
+    <t>10.132</t>
+  </si>
+  <si>
+    <t>64.789</t>
+  </si>
+  <si>
+    <t>167.711</t>
+  </si>
+  <si>
+    <t>15.815</t>
+  </si>
+  <si>
+    <t>-592.424</t>
+  </si>
+  <si>
+    <t>548.029</t>
+  </si>
+  <si>
+    <t>-722.317</t>
+  </si>
+  <si>
+    <t>-74.137</t>
+  </si>
+  <si>
+    <t>-1.739</t>
+  </si>
+  <si>
+    <t>-25.867</t>
+  </si>
+  <si>
+    <t>-3.213</t>
+  </si>
+  <si>
+    <t>11.762</t>
+  </si>
+  <si>
+    <t>-251.873</t>
+  </si>
+  <si>
+    <t>-43.281</t>
+  </si>
+  <si>
+    <t>926.801</t>
+  </si>
+  <si>
+    <t>30.419</t>
+  </si>
+  <si>
+    <t>1.421</t>
+  </si>
+  <si>
+    <t>.009</t>
+  </si>
+  <si>
+    <t>129.892</t>
+  </si>
+  <si>
+    <t>622.167</t>
+  </si>
+  <si>
+    <t>880.470</t>
+  </si>
+  <si>
+    <t>676.358</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1825,6 +2014,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1836,10 +2026,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1852,13 +2049,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2595,20 +2785,20 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="43"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
@@ -3717,22 +3907,22 @@
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3745,12 +3935,12 @@
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="44"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
@@ -3759,12 +3949,12 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -3803,7 +3993,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -3841,7 +4031,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -3877,7 +4067,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -3913,7 +4103,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -3949,7 +4139,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -3985,7 +4175,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -4021,7 +4211,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -4057,7 +4247,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -4093,7 +4283,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -4129,7 +4319,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -4165,7 +4355,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -4201,7 +4391,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -4237,7 +4427,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -4273,7 +4463,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -4309,7 +4499,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -4345,7 +4535,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -4381,7 +4571,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -4417,7 +4607,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -4453,7 +4643,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -4489,7 +4679,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -4525,7 +4715,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="19" t="s">
         <v>197</v>
       </c>
@@ -4561,7 +4751,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="51" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -4599,7 +4789,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -4635,7 +4825,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -4671,7 +4861,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -4707,7 +4897,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -4743,7 +4933,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -4779,7 +4969,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -4815,7 +5005,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -4851,7 +5041,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -4887,7 +5077,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -4923,7 +5113,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -4959,7 +5149,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -4995,7 +5185,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -5031,7 +5221,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -5067,7 +5257,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -5103,7 +5293,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -5139,7 +5329,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -5175,7 +5365,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="23" t="s">
         <v>194</v>
       </c>
@@ -5211,7 +5401,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -5247,7 +5437,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="35" t="s">
         <v>195</v>
       </c>
@@ -5283,7 +5473,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="35" t="s">
         <v>133</v>
       </c>
@@ -5431,7 +5621,7 @@
       <c r="L55" s="37"/>
     </row>
     <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="37"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -5445,7 +5635,7 @@
       <c r="L56" s="37"/>
     </row>
     <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -6481,8 +6671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6519,22 +6709,22 @@
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6547,12 +6737,12 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="44"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
@@ -6561,12 +6751,12 @@
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -6605,7 +6795,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -6624,13 +6814,13 @@
         <v>26</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>143</v>
@@ -6643,7 +6833,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -6660,13 +6850,13 @@
         <v>26</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>143</v>
@@ -6679,7 +6869,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -6696,10 +6886,10 @@
         <v>26</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I8" s="30" t="s">
         <v>218</v>
@@ -6715,7 +6905,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -6732,10 +6922,10 @@
         <v>26</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I9" s="30" t="s">
         <v>219</v>
@@ -6751,7 +6941,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -6768,13 +6958,13 @@
         <v>41</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>143</v>
@@ -6787,7 +6977,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -6804,13 +6994,13 @@
         <v>44</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>143</v>
@@ -6823,7 +7013,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -6840,10 +7030,10 @@
         <v>46</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I12" s="30" t="s">
         <v>218</v>
@@ -6859,7 +7049,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -6876,10 +7066,10 @@
         <v>49</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>219</v>
@@ -6895,7 +7085,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -6912,13 +7102,13 @@
         <v>26</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>143</v>
@@ -6931,7 +7121,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -6948,13 +7138,13 @@
         <v>57</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>143</v>
@@ -6967,7 +7157,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -6987,7 +7177,7 @@
         <v>222</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I16" s="30" t="s">
         <v>163</v>
@@ -7003,7 +7193,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -7026,7 +7216,7 @@
         <v>220</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>143</v>
@@ -7039,7 +7229,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -7059,10 +7249,10 @@
         <v>143</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J18" s="30" t="s">
         <v>143</v>
@@ -7075,7 +7265,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -7095,10 +7285,10 @@
         <v>143</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J19" s="30" t="s">
         <v>143</v>
@@ -7111,7 +7301,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -7140,14 +7330,14 @@
         <v>143</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -7183,7 +7373,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -7219,7 +7409,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -7255,7 +7445,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -7291,7 +7481,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -7315,7 +7505,7 @@
       <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="19" t="s">
         <v>197</v>
       </c>
@@ -7339,7 +7529,7 @@
       <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="51" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -7358,13 +7548,13 @@
         <v>26</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>253</v>
+        <v>499</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>254</v>
+        <v>500</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>255</v>
+        <v>501</v>
       </c>
       <c r="J27" s="30" t="s">
         <v>143</v>
@@ -7377,7 +7567,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -7394,13 +7584,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>256</v>
+        <v>502</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>257</v>
+        <v>503</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>258</v>
+        <v>504</v>
       </c>
       <c r="J28" s="30" t="s">
         <v>143</v>
@@ -7413,7 +7603,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -7430,13 +7620,13 @@
         <v>26</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>259</v>
+        <v>505</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>260</v>
+        <v>506</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>261</v>
+        <v>507</v>
       </c>
       <c r="J29" s="30" t="s">
         <v>143</v>
@@ -7449,7 +7639,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -7466,13 +7656,13 @@
         <v>26</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>262</v>
+        <v>508</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>263</v>
+        <v>509</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>264</v>
+        <v>510</v>
       </c>
       <c r="J30" s="30" t="s">
         <v>143</v>
@@ -7485,7 +7675,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -7502,13 +7692,13 @@
         <v>109</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>262</v>
+        <v>508</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>263</v>
+        <v>509</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>264</v>
+        <v>510</v>
       </c>
       <c r="J31" s="30" t="s">
         <v>143</v>
@@ -7521,7 +7711,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -7538,13 +7728,13 @@
         <v>111</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>259</v>
+        <v>505</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>260</v>
+        <v>506</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>261</v>
+        <v>507</v>
       </c>
       <c r="J32" s="30" t="s">
         <v>143</v>
@@ -7557,7 +7747,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -7574,13 +7764,13 @@
         <v>113</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>256</v>
+        <v>502</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>257</v>
+        <v>503</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>258</v>
+        <v>504</v>
       </c>
       <c r="J33" s="30" t="s">
         <v>143</v>
@@ -7593,7 +7783,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -7610,13 +7800,13 @@
         <v>115</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>253</v>
+        <v>499</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>254</v>
+        <v>500</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>255</v>
+        <v>501</v>
       </c>
       <c r="J34" s="30" t="s">
         <v>143</v>
@@ -7629,7 +7819,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -7649,10 +7839,10 @@
         <v>143</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>229</v>
+        <v>511</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>230</v>
+        <v>512</v>
       </c>
       <c r="J35" s="30" t="s">
         <v>143</v>
@@ -7665,7 +7855,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -7685,10 +7875,10 @@
         <v>143</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>229</v>
+        <v>511</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>230</v>
+        <v>512</v>
       </c>
       <c r="J36" s="30" t="s">
         <v>143</v>
@@ -7701,7 +7891,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -7721,10 +7911,10 @@
         <v>143</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>265</v>
+        <v>513</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>266</v>
+        <v>514</v>
       </c>
       <c r="J37" s="30" t="s">
         <v>143</v>
@@ -7737,7 +7927,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -7757,10 +7947,10 @@
         <v>143</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>265</v>
+        <v>513</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>266</v>
+        <v>514</v>
       </c>
       <c r="J38" s="30" t="s">
         <v>143</v>
@@ -7773,7 +7963,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -7790,13 +7980,13 @@
         <v>129</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>267</v>
+        <v>515</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>268</v>
+        <v>516</v>
       </c>
       <c r="I39" s="30" t="s">
-        <v>269</v>
+        <v>517</v>
       </c>
       <c r="J39" s="30" t="s">
         <v>143</v>
@@ -7809,7 +7999,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -7826,13 +8016,13 @@
         <v>26</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>267</v>
+        <v>515</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>268</v>
+        <v>516</v>
       </c>
       <c r="I40" s="30" t="s">
-        <v>269</v>
+        <v>517</v>
       </c>
       <c r="J40" s="30" t="s">
         <v>143</v>
@@ -7845,7 +8035,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -7862,13 +8052,13 @@
         <v>136</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>270</v>
+        <v>143</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>231</v>
+        <v>518</v>
       </c>
       <c r="I41" s="30" t="s">
-        <v>271</v>
+        <v>519</v>
       </c>
       <c r="J41" s="30" t="s">
         <v>143</v>
@@ -7881,7 +8071,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -7898,13 +8088,13 @@
         <v>136</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>273</v>
+        <v>520</v>
       </c>
       <c r="I42" s="30" t="s">
-        <v>274</v>
+        <v>521</v>
       </c>
       <c r="J42" s="30" t="s">
         <v>143</v>
@@ -7917,7 +8107,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -7934,13 +8124,13 @@
         <v>136</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>232</v>
+        <v>367</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>233</v>
+        <v>522</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>234</v>
+        <v>523</v>
       </c>
       <c r="J43" s="30" t="s">
         <v>143</v>
@@ -7953,7 +8143,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="23" t="s">
         <v>194</v>
       </c>
@@ -7973,10 +8163,10 @@
         <v>143</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>275</v>
+        <v>143</v>
       </c>
       <c r="I44" s="30" t="s">
-        <v>276</v>
+        <v>524</v>
       </c>
       <c r="J44" s="30" t="s">
         <v>143</v>
@@ -7989,7 +8179,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -8009,10 +8199,10 @@
         <v>143</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>277</v>
+        <v>525</v>
       </c>
       <c r="I45" s="30" t="s">
-        <v>278</v>
+        <v>526</v>
       </c>
       <c r="J45" s="30" t="s">
         <v>143</v>
@@ -8025,7 +8215,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="35" t="s">
         <v>195</v>
       </c>
@@ -8041,15 +8231,27 @@
       <c r="F46" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
+      <c r="G46" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="J46" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K46" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L46" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="35" t="s">
         <v>133</v>
       </c>
@@ -8065,12 +8267,24 @@
       <c r="F47" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
+      <c r="G47" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="K47" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="L47" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8131,7 +8345,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8174,22 +8388,22 @@
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="47" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="37"/>
@@ -8203,12 +8417,12 @@
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="44"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
       <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8218,12 +8432,12 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="37"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8264,7 +8478,7 @@
       <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -8283,13 +8497,13 @@
         <v>26</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>279</v>
+        <v>435</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>280</v>
+        <v>436</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>281</v>
+        <v>437</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>143</v>
@@ -8303,7 +8517,7 @@
       <c r="M6" s="37"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -8320,13 +8534,13 @@
         <v>26</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>282</v>
+        <v>438</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>283</v>
+        <v>439</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>284</v>
+        <v>440</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>143</v>
@@ -8340,7 +8554,7 @@
       <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -8357,13 +8571,13 @@
         <v>26</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>285</v>
+        <v>441</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>286</v>
+        <v>442</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>287</v>
+        <v>443</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>143</v>
@@ -8377,7 +8591,7 @@
       <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -8394,13 +8608,13 @@
         <v>26</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>288</v>
+        <v>444</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>289</v>
+        <v>445</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>290</v>
+        <v>446</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>143</v>
@@ -8414,7 +8628,7 @@
       <c r="M9" s="37"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -8431,13 +8645,13 @@
         <v>41</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>279</v>
+        <v>435</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>280</v>
+        <v>436</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>281</v>
+        <v>437</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>143</v>
@@ -8451,7 +8665,7 @@
       <c r="M10" s="37"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -8468,13 +8682,13 @@
         <v>44</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>282</v>
+        <v>438</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>283</v>
+        <v>439</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>284</v>
+        <v>440</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>143</v>
@@ -8488,7 +8702,7 @@
       <c r="M11" s="37"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -8505,13 +8719,13 @@
         <v>46</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>285</v>
+        <v>441</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>286</v>
+        <v>442</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>287</v>
+        <v>443</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>143</v>
@@ -8525,7 +8739,7 @@
       <c r="M12" s="37"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -8542,13 +8756,13 @@
         <v>49</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>288</v>
+        <v>444</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>289</v>
+        <v>445</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>290</v>
+        <v>446</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>143</v>
@@ -8562,7 +8776,7 @@
       <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -8579,13 +8793,13 @@
         <v>26</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>291</v>
+        <v>447</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>292</v>
+        <v>448</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>293</v>
+        <v>449</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>143</v>
@@ -8599,7 +8813,7 @@
       <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -8616,13 +8830,13 @@
         <v>57</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>291</v>
+        <v>447</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>292</v>
+        <v>448</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>293</v>
+        <v>449</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>143</v>
@@ -8636,7 +8850,7 @@
       <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -8656,10 +8870,10 @@
         <v>143</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>294</v>
+        <v>450</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>295</v>
+        <v>451</v>
       </c>
       <c r="J16" s="30" t="s">
         <v>143</v>
@@ -8673,7 +8887,7 @@
       <c r="M16" s="37"/>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -8693,10 +8907,10 @@
         <v>143</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>294</v>
+        <v>450</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>295</v>
+        <v>451</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>143</v>
@@ -8710,7 +8924,7 @@
       <c r="M17" s="37"/>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -8730,10 +8944,10 @@
         <v>143</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>296</v>
+        <v>452</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>297</v>
+        <v>453</v>
       </c>
       <c r="J18" s="30" t="s">
         <v>143</v>
@@ -8747,7 +8961,7 @@
       <c r="M18" s="37"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -8767,10 +8981,10 @@
         <v>143</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>296</v>
+        <v>452</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>297</v>
+        <v>453</v>
       </c>
       <c r="J19" s="30" t="s">
         <v>143</v>
@@ -8784,7 +8998,7 @@
       <c r="M19" s="37"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -8804,10 +9018,10 @@
         <v>143</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>298</v>
+        <v>454</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>299</v>
+        <v>455</v>
       </c>
       <c r="J20" s="30" t="s">
         <v>143</v>
@@ -8821,7 +9035,7 @@
       <c r="M20" s="37"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -8841,10 +9055,10 @@
         <v>143</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>143</v>
@@ -8858,7 +9072,7 @@
       <c r="M21" s="37"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -8875,13 +9089,13 @@
         <v>88</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>301</v>
+        <v>456</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>302</v>
+        <v>457</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>303</v>
+        <v>458</v>
       </c>
       <c r="J22" s="30" t="s">
         <v>143</v>
@@ -8895,7 +9109,7 @@
       <c r="M22" s="37"/>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -8912,13 +9126,13 @@
         <v>88</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>304</v>
+        <v>459</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>305</v>
+        <v>460</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>306</v>
+        <v>461</v>
       </c>
       <c r="J23" s="30" t="s">
         <v>143</v>
@@ -8932,7 +9146,7 @@
       <c r="M23" s="37"/>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -8952,10 +9166,10 @@
         <v>143</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>307</v>
+        <v>462</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>308</v>
+        <v>463</v>
       </c>
       <c r="J24" s="30" t="s">
         <v>143</v>
@@ -8969,7 +9183,7 @@
       <c r="M24" s="37"/>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -8992,7 +9206,7 @@
         <v>143</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>309</v>
+        <v>464</v>
       </c>
       <c r="J25" s="30" t="s">
         <v>143</v>
@@ -9006,7 +9220,7 @@
       <c r="M25" s="37"/>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="19" t="s">
         <v>197</v>
       </c>
@@ -9031,7 +9245,7 @@
       <c r="M26" s="37"/>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="51" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -9050,13 +9264,13 @@
         <v>26</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>310</v>
+        <v>465</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>311</v>
+        <v>466</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>312</v>
+        <v>467</v>
       </c>
       <c r="J27" s="30" t="s">
         <v>143</v>
@@ -9070,7 +9284,7 @@
       <c r="M27" s="37"/>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -9087,13 +9301,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>313</v>
+        <v>468</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>314</v>
+        <v>469</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>315</v>
+        <v>470</v>
       </c>
       <c r="J28" s="30" t="s">
         <v>143</v>
@@ -9107,7 +9321,7 @@
       <c r="M28" s="37"/>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -9124,13 +9338,13 @@
         <v>26</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>316</v>
+        <v>471</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>317</v>
+        <v>472</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="J29" s="30" t="s">
         <v>143</v>
@@ -9144,7 +9358,7 @@
       <c r="M29" s="37"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -9161,13 +9375,13 @@
         <v>26</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>319</v>
+        <v>474</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>320</v>
+        <v>475</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>321</v>
+        <v>476</v>
       </c>
       <c r="J30" s="30" t="s">
         <v>143</v>
@@ -9181,7 +9395,7 @@
       <c r="M30" s="37"/>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -9198,13 +9412,13 @@
         <v>109</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>319</v>
+        <v>474</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>320</v>
+        <v>475</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>321</v>
+        <v>476</v>
       </c>
       <c r="J31" s="30" t="s">
         <v>143</v>
@@ -9218,7 +9432,7 @@
       <c r="M31" s="37"/>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -9235,13 +9449,13 @@
         <v>111</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>316</v>
+        <v>471</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>317</v>
+        <v>472</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="J32" s="30" t="s">
         <v>143</v>
@@ -9255,7 +9469,7 @@
       <c r="M32" s="37"/>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -9272,13 +9486,13 @@
         <v>113</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>313</v>
+        <v>468</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>314</v>
+        <v>469</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>315</v>
+        <v>470</v>
       </c>
       <c r="J33" s="30" t="s">
         <v>143</v>
@@ -9292,7 +9506,7 @@
       <c r="M33" s="37"/>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -9309,13 +9523,13 @@
         <v>115</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>310</v>
+        <v>465</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>311</v>
+        <v>466</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>312</v>
+        <v>467</v>
       </c>
       <c r="J34" s="30" t="s">
         <v>143</v>
@@ -9329,7 +9543,7 @@
       <c r="M34" s="37"/>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -9349,10 +9563,10 @@
         <v>143</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>322</v>
+        <v>477</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>323</v>
+        <v>478</v>
       </c>
       <c r="J35" s="30" t="s">
         <v>143</v>
@@ -9366,7 +9580,7 @@
       <c r="M35" s="37"/>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -9386,10 +9600,10 @@
         <v>143</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>322</v>
+        <v>477</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>323</v>
+        <v>478</v>
       </c>
       <c r="J36" s="30" t="s">
         <v>143</v>
@@ -9403,7 +9617,7 @@
       <c r="M36" s="37"/>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -9423,10 +9637,10 @@
         <v>143</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>324</v>
+        <v>479</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>325</v>
+        <v>480</v>
       </c>
       <c r="J37" s="30" t="s">
         <v>143</v>
@@ -9440,7 +9654,7 @@
       <c r="M37" s="37"/>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -9460,10 +9674,10 @@
         <v>143</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>324</v>
+        <v>479</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>325</v>
+        <v>480</v>
       </c>
       <c r="J38" s="30" t="s">
         <v>143</v>
@@ -9477,7 +9691,7 @@
       <c r="M38" s="37"/>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -9494,13 +9708,13 @@
         <v>129</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>326</v>
+        <v>481</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>327</v>
+        <v>482</v>
       </c>
       <c r="I39" s="30" t="s">
-        <v>328</v>
+        <v>483</v>
       </c>
       <c r="J39" s="30" t="s">
         <v>143</v>
@@ -9514,7 +9728,7 @@
       <c r="M39" s="37"/>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -9531,13 +9745,13 @@
         <v>26</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>326</v>
+        <v>481</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>327</v>
+        <v>482</v>
       </c>
       <c r="I40" s="30" t="s">
-        <v>328</v>
+        <v>483</v>
       </c>
       <c r="J40" s="30" t="s">
         <v>143</v>
@@ -9551,7 +9765,7 @@
       <c r="M40" s="37"/>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -9568,13 +9782,13 @@
         <v>136</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>329</v>
+        <v>484</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>330</v>
+        <v>485</v>
       </c>
       <c r="I41" s="30" t="s">
-        <v>331</v>
+        <v>486</v>
       </c>
       <c r="J41" s="30" t="s">
         <v>143</v>
@@ -9588,7 +9802,7 @@
       <c r="M41" s="37"/>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -9605,13 +9819,13 @@
         <v>136</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>332</v>
+        <v>487</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>333</v>
+        <v>488</v>
       </c>
       <c r="I42" s="30" t="s">
-        <v>334</v>
+        <v>489</v>
       </c>
       <c r="J42" s="30" t="s">
         <v>143</v>
@@ -9625,7 +9839,7 @@
       <c r="M42" s="37"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -9642,13 +9856,13 @@
         <v>136</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>335</v>
+        <v>490</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>336</v>
+        <v>491</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>337</v>
+        <v>492</v>
       </c>
       <c r="J43" s="30" t="s">
         <v>143</v>
@@ -9662,7 +9876,7 @@
       <c r="M43" s="37"/>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="23" t="s">
         <v>194</v>
       </c>
@@ -9682,10 +9896,10 @@
         <v>143</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>338</v>
+        <v>493</v>
       </c>
       <c r="I44" s="30" t="s">
-        <v>339</v>
+        <v>494</v>
       </c>
       <c r="J44" s="30" t="s">
         <v>143</v>
@@ -9699,7 +9913,7 @@
       <c r="M44" s="37"/>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -9719,10 +9933,10 @@
         <v>143</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>340</v>
+        <v>495</v>
       </c>
       <c r="I45" s="30" t="s">
-        <v>341</v>
+        <v>496</v>
       </c>
       <c r="J45" s="30" t="s">
         <v>143</v>
@@ -9736,7 +9950,7 @@
       <c r="M45" s="37"/>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="35" t="s">
         <v>195</v>
       </c>
@@ -9759,7 +9973,7 @@
         <v>143</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>342</v>
+        <v>497</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>143</v>
@@ -9773,7 +9987,7 @@
       <c r="M46" s="37"/>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="35" t="s">
         <v>133</v>
       </c>
@@ -9796,7 +10010,7 @@
         <v>143</v>
       </c>
       <c r="I47" s="30" t="s">
-        <v>343</v>
+        <v>498</v>
       </c>
       <c r="J47" s="30" t="s">
         <v>143</v>
@@ -11026,7 +11240,7 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -11069,22 +11283,22 @@
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11097,12 +11311,12 @@
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="44"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
@@ -11111,12 +11325,12 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -11155,7 +11369,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -11174,13 +11388,13 @@
         <v>26</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>405</v>
+        <v>311</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>406</v>
+        <v>312</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>407</v>
+        <v>313</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>143</v>
@@ -11193,7 +11407,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -11210,13 +11424,13 @@
         <v>26</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>408</v>
+        <v>314</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>409</v>
+        <v>315</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>410</v>
+        <v>316</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>143</v>
@@ -11229,7 +11443,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -11246,13 +11460,13 @@
         <v>26</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>411</v>
+        <v>317</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>412</v>
+        <v>318</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>413</v>
+        <v>319</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>143</v>
@@ -11265,7 +11479,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -11282,13 +11496,13 @@
         <v>26</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>414</v>
+        <v>320</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>415</v>
+        <v>321</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>416</v>
+        <v>322</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>143</v>
@@ -11301,7 +11515,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -11318,13 +11532,13 @@
         <v>41</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>405</v>
+        <v>311</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>406</v>
+        <v>312</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>407</v>
+        <v>313</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>143</v>
@@ -11337,7 +11551,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -11354,13 +11568,13 @@
         <v>44</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>408</v>
+        <v>314</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>409</v>
+        <v>315</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>410</v>
+        <v>316</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>143</v>
@@ -11373,7 +11587,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -11390,13 +11604,13 @@
         <v>46</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>411</v>
+        <v>317</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>412</v>
+        <v>318</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>413</v>
+        <v>319</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>143</v>
@@ -11409,7 +11623,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -11426,13 +11640,13 @@
         <v>49</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>414</v>
+        <v>320</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>415</v>
+        <v>321</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>416</v>
+        <v>322</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>143</v>
@@ -11445,7 +11659,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -11462,13 +11676,13 @@
         <v>26</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>417</v>
+        <v>323</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>418</v>
+        <v>324</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>419</v>
+        <v>325</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>143</v>
@@ -11481,7 +11695,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -11498,13 +11712,13 @@
         <v>57</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>417</v>
+        <v>323</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>418</v>
+        <v>324</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>419</v>
+        <v>325</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>143</v>
@@ -11517,7 +11731,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -11537,10 +11751,10 @@
         <v>143</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>421</v>
+        <v>327</v>
       </c>
       <c r="J16" s="30" t="s">
         <v>143</v>
@@ -11553,7 +11767,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -11573,10 +11787,10 @@
         <v>143</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>421</v>
+        <v>327</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>143</v>
@@ -11589,7 +11803,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -11609,10 +11823,10 @@
         <v>143</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>422</v>
+        <v>328</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>423</v>
+        <v>329</v>
       </c>
       <c r="J18" s="30" t="s">
         <v>143</v>
@@ -11625,7 +11839,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -11645,10 +11859,10 @@
         <v>143</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>422</v>
+        <v>328</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>423</v>
+        <v>329</v>
       </c>
       <c r="J19" s="30" t="s">
         <v>143</v>
@@ -11661,7 +11875,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -11681,10 +11895,10 @@
         <v>143</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>424</v>
+        <v>330</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>425</v>
+        <v>331</v>
       </c>
       <c r="J20" s="30" t="s">
         <v>143</v>
@@ -11697,7 +11911,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -11720,7 +11934,7 @@
         <v>189</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>426</v>
+        <v>332</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>143</v>
@@ -11733,7 +11947,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -11750,13 +11964,13 @@
         <v>88</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>427</v>
+        <v>333</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>428</v>
+        <v>334</v>
       </c>
       <c r="J22" s="30" t="s">
         <v>143</v>
@@ -11769,7 +11983,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -11786,13 +12000,13 @@
         <v>88</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>429</v>
+        <v>335</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>430</v>
+        <v>336</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>431</v>
+        <v>337</v>
       </c>
       <c r="J23" s="30" t="s">
         <v>143</v>
@@ -11805,7 +12019,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -11825,10 +12039,10 @@
         <v>143</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>432</v>
+        <v>338</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>433</v>
+        <v>339</v>
       </c>
       <c r="J24" s="30" t="s">
         <v>143</v>
@@ -11841,7 +12055,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -11864,7 +12078,7 @@
         <v>143</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>434</v>
+        <v>340</v>
       </c>
       <c r="J25" s="30" t="s">
         <v>143</v>
@@ -11877,7 +12091,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="19" t="s">
         <v>197</v>
       </c>
@@ -11900,7 +12114,7 @@
         <v>143</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>435</v>
+        <v>341</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>143</v>
@@ -11913,7 +12127,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="51" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -11932,13 +12146,13 @@
         <v>26</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>436</v>
+        <v>342</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>438</v>
+        <v>344</v>
       </c>
       <c r="J27" s="30" t="s">
         <v>143</v>
@@ -11951,7 +12165,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -11968,13 +12182,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>439</v>
+        <v>345</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>440</v>
+        <v>346</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>441</v>
+        <v>347</v>
       </c>
       <c r="J28" s="30" t="s">
         <v>143</v>
@@ -11987,7 +12201,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -12004,13 +12218,13 @@
         <v>26</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>442</v>
+        <v>348</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>443</v>
+        <v>349</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
       <c r="J29" s="30" t="s">
         <v>143</v>
@@ -12023,7 +12237,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -12040,13 +12254,13 @@
         <v>26</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>445</v>
+        <v>351</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>446</v>
+        <v>352</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>447</v>
+        <v>353</v>
       </c>
       <c r="J30" s="30" t="s">
         <v>143</v>
@@ -12059,7 +12273,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -12076,13 +12290,13 @@
         <v>109</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>445</v>
+        <v>351</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>446</v>
+        <v>352</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>447</v>
+        <v>353</v>
       </c>
       <c r="J31" s="30" t="s">
         <v>143</v>
@@ -12095,7 +12309,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -12112,13 +12326,13 @@
         <v>111</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>442</v>
+        <v>348</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>443</v>
+        <v>349</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
       <c r="J32" s="30" t="s">
         <v>143</v>
@@ -12131,7 +12345,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -12148,13 +12362,13 @@
         <v>113</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>439</v>
+        <v>345</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>440</v>
+        <v>346</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>441</v>
+        <v>347</v>
       </c>
       <c r="J33" s="30" t="s">
         <v>143</v>
@@ -12167,7 +12381,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -12184,13 +12398,13 @@
         <v>115</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>436</v>
+        <v>342</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>438</v>
+        <v>344</v>
       </c>
       <c r="J34" s="30" t="s">
         <v>143</v>
@@ -12203,7 +12417,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -12223,10 +12437,10 @@
         <v>143</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>448</v>
+        <v>354</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>449</v>
+        <v>355</v>
       </c>
       <c r="J35" s="30" t="s">
         <v>143</v>
@@ -12239,7 +12453,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -12259,10 +12473,10 @@
         <v>143</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>448</v>
+        <v>354</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>449</v>
+        <v>355</v>
       </c>
       <c r="J36" s="30" t="s">
         <v>143</v>
@@ -12275,7 +12489,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -12295,10 +12509,10 @@
         <v>143</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>450</v>
+        <v>356</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>451</v>
+        <v>357</v>
       </c>
       <c r="J37" s="30" t="s">
         <v>143</v>
@@ -12311,7 +12525,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -12331,10 +12545,10 @@
         <v>143</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>450</v>
+        <v>356</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>451</v>
+        <v>357</v>
       </c>
       <c r="J38" s="30" t="s">
         <v>143</v>
@@ -12347,7 +12561,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -12364,13 +12578,13 @@
         <v>129</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>452</v>
+        <v>358</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="I39" s="30" t="s">
-        <v>454</v>
+        <v>360</v>
       </c>
       <c r="J39" s="30" t="s">
         <v>143</v>
@@ -12383,7 +12597,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -12400,13 +12614,13 @@
         <v>26</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>452</v>
+        <v>358</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="I40" s="30" t="s">
-        <v>454</v>
+        <v>360</v>
       </c>
       <c r="J40" s="30" t="s">
         <v>143</v>
@@ -12419,7 +12633,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -12436,13 +12650,13 @@
         <v>136</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>455</v>
+        <v>361</v>
       </c>
       <c r="I41" s="30" t="s">
-        <v>456</v>
+        <v>362</v>
       </c>
       <c r="J41" s="30" t="s">
         <v>143</v>
@@ -12455,7 +12669,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -12475,10 +12689,10 @@
         <v>181</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>457</v>
+        <v>363</v>
       </c>
       <c r="I42" s="30" t="s">
-        <v>458</v>
+        <v>364</v>
       </c>
       <c r="J42" s="30" t="s">
         <v>143</v>
@@ -12491,7 +12705,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -12508,13 +12722,13 @@
         <v>136</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>429</v>
+        <v>335</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>459</v>
+        <v>365</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>460</v>
+        <v>366</v>
       </c>
       <c r="J43" s="30" t="s">
         <v>143</v>
@@ -12527,7 +12741,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="23" t="s">
         <v>194</v>
       </c>
@@ -12547,10 +12761,10 @@
         <v>143</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>461</v>
+        <v>367</v>
       </c>
       <c r="I44" s="30" t="s">
-        <v>462</v>
+        <v>368</v>
       </c>
       <c r="J44" s="30" t="s">
         <v>143</v>
@@ -12563,7 +12777,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -12583,10 +12797,10 @@
         <v>143</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>463</v>
+        <v>369</v>
       </c>
       <c r="I45" s="30" t="s">
-        <v>464</v>
+        <v>370</v>
       </c>
       <c r="J45" s="30" t="s">
         <v>143</v>
@@ -12599,7 +12813,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="35" t="s">
         <v>195</v>
       </c>
@@ -12622,7 +12836,7 @@
         <v>143</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>465</v>
+        <v>371</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>143</v>
@@ -12635,7 +12849,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="35" t="s">
         <v>133</v>
       </c>
@@ -12658,7 +12872,7 @@
         <v>143</v>
       </c>
       <c r="I47" s="30" t="s">
-        <v>465</v>
+        <v>371</v>
       </c>
       <c r="J47" s="30" t="s">
         <v>143</v>
@@ -13905,22 +14119,22 @@
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="47" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="18"/>
@@ -13934,12 +14148,12 @@
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="44"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
       <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13949,12 +14163,12 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13995,7 +14209,7 @@
       <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -14014,13 +14228,13 @@
         <v>26</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>143</v>
@@ -14034,7 +14248,7 @@
       <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -14051,13 +14265,13 @@
         <v>26</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>347</v>
+        <v>253</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>348</v>
+        <v>254</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>143</v>
@@ -14071,7 +14285,7 @@
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -14088,13 +14302,13 @@
         <v>26</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>352</v>
+        <v>258</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>143</v>
@@ -14108,7 +14322,7 @@
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -14125,13 +14339,13 @@
         <v>26</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>353</v>
+        <v>259</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>354</v>
+        <v>260</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>143</v>
@@ -14145,7 +14359,7 @@
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -14162,13 +14376,13 @@
         <v>41</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>143</v>
@@ -14182,7 +14396,7 @@
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -14199,13 +14413,13 @@
         <v>44</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>347</v>
+        <v>253</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>348</v>
+        <v>254</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>143</v>
@@ -14219,7 +14433,7 @@
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -14236,13 +14450,13 @@
         <v>46</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>352</v>
+        <v>258</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>143</v>
@@ -14256,7 +14470,7 @@
       <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -14273,13 +14487,13 @@
         <v>49</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>353</v>
+        <v>259</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>354</v>
+        <v>260</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>143</v>
@@ -14293,7 +14507,7 @@
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -14310,13 +14524,13 @@
         <v>26</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>356</v>
+        <v>262</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>357</v>
+        <v>263</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>143</v>
@@ -14330,7 +14544,7 @@
       <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -14347,13 +14561,13 @@
         <v>57</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>356</v>
+        <v>262</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>357</v>
+        <v>263</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>143</v>
@@ -14367,7 +14581,7 @@
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -14387,10 +14601,10 @@
         <v>143</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>359</v>
+        <v>265</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="J16" s="30" t="s">
         <v>143</v>
@@ -14404,7 +14618,7 @@
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -14424,10 +14638,10 @@
         <v>143</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>359</v>
+        <v>265</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>143</v>
@@ -14441,7 +14655,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -14461,10 +14675,10 @@
         <v>143</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>362</v>
+        <v>268</v>
       </c>
       <c r="J18" s="30" t="s">
         <v>143</v>
@@ -14478,7 +14692,7 @@
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -14498,10 +14712,10 @@
         <v>143</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>362</v>
+        <v>268</v>
       </c>
       <c r="J19" s="30" t="s">
         <v>143</v>
@@ -14515,7 +14729,7 @@
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -14535,10 +14749,10 @@
         <v>143</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>363</v>
+        <v>269</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>364</v>
+        <v>270</v>
       </c>
       <c r="J20" s="30" t="s">
         <v>143</v>
@@ -14552,7 +14766,7 @@
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -14589,7 +14803,7 @@
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -14609,10 +14823,10 @@
         <v>181</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>365</v>
+        <v>271</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>366</v>
+        <v>272</v>
       </c>
       <c r="J22" s="30" t="s">
         <v>143</v>
@@ -14626,7 +14840,7 @@
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -14646,10 +14860,10 @@
         <v>184</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>367</v>
+        <v>273</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>368</v>
+        <v>274</v>
       </c>
       <c r="J23" s="30" t="s">
         <v>143</v>
@@ -14663,7 +14877,7 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -14683,10 +14897,10 @@
         <v>143</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>369</v>
+        <v>275</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>370</v>
+        <v>276</v>
       </c>
       <c r="J24" s="30" t="s">
         <v>143</v>
@@ -14700,7 +14914,7 @@
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -14723,7 +14937,7 @@
         <v>143</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>371</v>
+        <v>277</v>
       </c>
       <c r="J25" s="30" t="s">
         <v>143</v>
@@ -14737,7 +14951,7 @@
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="19" t="s">
         <v>197</v>
       </c>
@@ -14760,7 +14974,7 @@
         <v>143</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>372</v>
+        <v>278</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>143</v>
@@ -14774,7 +14988,7 @@
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="51" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -14793,13 +15007,13 @@
         <v>26</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>375</v>
+        <v>281</v>
       </c>
       <c r="J27" s="30" t="s">
         <v>143</v>
@@ -14813,7 +15027,7 @@
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -14830,13 +15044,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>376</v>
+        <v>282</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>377</v>
+        <v>283</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="J28" s="30" t="s">
         <v>143</v>
@@ -14850,7 +15064,7 @@
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -14867,13 +15081,13 @@
         <v>26</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>379</v>
+        <v>285</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>380</v>
+        <v>286</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>381</v>
+        <v>287</v>
       </c>
       <c r="J29" s="30" t="s">
         <v>143</v>
@@ -14887,7 +15101,7 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -14904,13 +15118,13 @@
         <v>26</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>384</v>
+        <v>290</v>
       </c>
       <c r="J30" s="30" t="s">
         <v>143</v>
@@ -14924,7 +15138,7 @@
       <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -14941,13 +15155,13 @@
         <v>109</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>384</v>
+        <v>290</v>
       </c>
       <c r="J31" s="30" t="s">
         <v>143</v>
@@ -14961,7 +15175,7 @@
       <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -14978,13 +15192,13 @@
         <v>111</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>379</v>
+        <v>285</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>380</v>
+        <v>286</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>381</v>
+        <v>287</v>
       </c>
       <c r="J32" s="30" t="s">
         <v>143</v>
@@ -14998,7 +15212,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -15015,13 +15229,13 @@
         <v>113</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>376</v>
+        <v>282</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>377</v>
+        <v>283</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="J33" s="30" t="s">
         <v>143</v>
@@ -15035,7 +15249,7 @@
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -15052,13 +15266,13 @@
         <v>115</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>375</v>
+        <v>281</v>
       </c>
       <c r="J34" s="30" t="s">
         <v>143</v>
@@ -15072,7 +15286,7 @@
       <c r="M34" s="18"/>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -15092,10 +15306,10 @@
         <v>143</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>385</v>
+        <v>291</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>386</v>
+        <v>292</v>
       </c>
       <c r="J35" s="30" t="s">
         <v>143</v>
@@ -15109,7 +15323,7 @@
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -15129,10 +15343,10 @@
         <v>143</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>385</v>
+        <v>291</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>386</v>
+        <v>292</v>
       </c>
       <c r="J36" s="30" t="s">
         <v>143</v>
@@ -15146,7 +15360,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -15166,10 +15380,10 @@
         <v>143</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>387</v>
+        <v>293</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>335</v>
+        <v>249</v>
       </c>
       <c r="J37" s="30" t="s">
         <v>143</v>
@@ -15183,7 +15397,7 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -15203,10 +15417,10 @@
         <v>143</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>387</v>
+        <v>293</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>335</v>
+        <v>249</v>
       </c>
       <c r="J38" s="30" t="s">
         <v>143</v>
@@ -15220,7 +15434,7 @@
       <c r="M38" s="18"/>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -15237,13 +15451,13 @@
         <v>129</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>388</v>
+        <v>294</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>389</v>
+        <v>295</v>
       </c>
       <c r="I39" s="30" t="s">
-        <v>390</v>
+        <v>296</v>
       </c>
       <c r="J39" s="30" t="s">
         <v>143</v>
@@ -15257,7 +15471,7 @@
       <c r="M39" s="18"/>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -15274,13 +15488,13 @@
         <v>26</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>388</v>
+        <v>294</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>389</v>
+        <v>295</v>
       </c>
       <c r="I40" s="30" t="s">
-        <v>390</v>
+        <v>296</v>
       </c>
       <c r="J40" s="30" t="s">
         <v>143</v>
@@ -15294,7 +15508,7 @@
       <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -15311,13 +15525,13 @@
         <v>136</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>391</v>
+        <v>297</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>392</v>
+        <v>298</v>
       </c>
       <c r="I41" s="30" t="s">
-        <v>393</v>
+        <v>299</v>
       </c>
       <c r="J41" s="30" t="s">
         <v>143</v>
@@ -15331,7 +15545,7 @@
       <c r="M41" s="18"/>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -15348,13 +15562,13 @@
         <v>136</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>394</v>
+        <v>300</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>395</v>
+        <v>301</v>
       </c>
       <c r="I42" s="30" t="s">
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="J42" s="30" t="s">
         <v>143</v>
@@ -15368,7 +15582,7 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -15388,10 +15602,10 @@
         <v>143</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>397</v>
+        <v>303</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>398</v>
+        <v>304</v>
       </c>
       <c r="J43" s="30" t="s">
         <v>143</v>
@@ -15405,7 +15619,7 @@
       <c r="M43" s="18"/>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="23" t="s">
         <v>194</v>
       </c>
@@ -15425,10 +15639,10 @@
         <v>143</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>399</v>
+        <v>305</v>
       </c>
       <c r="I44" s="30" t="s">
-        <v>400</v>
+        <v>306</v>
       </c>
       <c r="J44" s="30" t="s">
         <v>143</v>
@@ -15442,7 +15656,7 @@
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -15462,10 +15676,10 @@
         <v>143</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="I45" s="30" t="s">
-        <v>402</v>
+        <v>308</v>
       </c>
       <c r="J45" s="30" t="s">
         <v>143</v>
@@ -15479,7 +15693,7 @@
       <c r="M45" s="18"/>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="35" t="s">
         <v>195</v>
       </c>
@@ -15502,7 +15716,7 @@
         <v>143</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>403</v>
+        <v>309</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>143</v>
@@ -15516,7 +15730,7 @@
       <c r="M46" s="18"/>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="35" t="s">
         <v>133</v>
       </c>
@@ -15533,7 +15747,7 @@
         <v>196</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>404</v>
+        <v>310</v>
       </c>
       <c r="H47" s="30" t="s">
         <v>143</v>
@@ -16717,8 +16931,8 @@
   </sheetPr>
   <dimension ref="A1:L1004"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16744,22 +16958,22 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -16767,20 +16981,20 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="44"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -16819,7 +17033,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -16837,15 +17051,27 @@
       <c r="F6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+      <c r="G6" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -16861,15 +17087,27 @@
       <c r="F7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="G7" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -16885,15 +17123,27 @@
       <c r="F8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
+      <c r="G8" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -16909,15 +17159,27 @@
       <c r="F9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="G9" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -16933,15 +17195,27 @@
       <c r="F10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+      <c r="G10" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -16957,15 +17231,27 @@
       <c r="F11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="G11" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -16981,15 +17267,27 @@
       <c r="F12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="G12" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -17005,15 +17303,27 @@
       <c r="F13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="G13" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -17029,15 +17339,27 @@
       <c r="F14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="G14" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -17053,15 +17375,27 @@
       <c r="F15" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="G15" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -17077,15 +17411,27 @@
       <c r="F16" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="G16" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -17101,15 +17447,27 @@
       <c r="F17" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="G17" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -17125,15 +17483,27 @@
       <c r="F18" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="G18" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -17149,15 +17519,27 @@
       <c r="F19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="G19" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -17173,15 +17555,27 @@
       <c r="F20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="G20" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -17205,7 +17599,7 @@
       <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -17221,15 +17615,27 @@
       <c r="F22" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+      <c r="G22" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -17245,15 +17651,27 @@
       <c r="F23" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+      <c r="G23" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -17269,15 +17687,27 @@
       <c r="F24" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
+      <c r="G24" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -17293,15 +17723,27 @@
       <c r="F25" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
+      <c r="G25" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="19" t="s">
         <v>197</v>
       </c>
@@ -17325,7 +17767,7 @@
       <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="51" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -17343,15 +17785,27 @@
       <c r="F27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+      <c r="G27" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -17367,15 +17821,27 @@
       <c r="F28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+      <c r="G28" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -17391,15 +17857,27 @@
       <c r="F29" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+      <c r="G29" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -17415,15 +17893,27 @@
       <c r="F30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+      <c r="G30" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -17439,15 +17929,27 @@
       <c r="F31" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
+      <c r="G31" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K31" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -17463,15 +17965,27 @@
       <c r="F32" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
+      <c r="G32" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="J32" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -17487,15 +18001,27 @@
       <c r="F33" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+      <c r="G33" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="J33" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L33" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -17511,15 +18037,27 @@
       <c r="F34" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
+      <c r="G34" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="J34" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K34" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L34" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -17535,15 +18073,27 @@
       <c r="F35" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
+      <c r="G35" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="J35" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L35" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -17559,15 +18109,27 @@
       <c r="F36" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="G36" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="J36" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K36" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L36" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -17583,15 +18145,27 @@
       <c r="F37" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
+      <c r="G37" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="I37" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="J37" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K37" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L37" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -17607,15 +18181,27 @@
       <c r="F38" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
+      <c r="G38" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="J38" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K38" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L38" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -17631,15 +18217,27 @@
       <c r="F39" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
+      <c r="G39" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="J39" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K39" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L39" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -17655,15 +18253,27 @@
       <c r="F40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
+      <c r="G40" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="I40" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="J40" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K40" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L40" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -17679,15 +18289,27 @@
       <c r="F41" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
+      <c r="G41" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="J41" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K41" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L41" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -17703,15 +18325,27 @@
       <c r="F42" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
+      <c r="G42" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="J42" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L42" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -17727,15 +18361,27 @@
       <c r="F43" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
+      <c r="G43" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="I43" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="J43" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K43" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L43" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="23" t="s">
         <v>194</v>
       </c>
@@ -17759,7 +18405,7 @@
       <c r="L44" s="30"/>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -17775,15 +18421,27 @@
       <c r="F45" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
+      <c r="G45" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="J45" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K45" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L45" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="35" t="s">
         <v>195</v>
       </c>
@@ -17799,15 +18457,27 @@
       <c r="F46" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
+      <c r="G46" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="I46" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="J46" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K46" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L46" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="35" t="s">
         <v>133</v>
       </c>
@@ -17823,12 +18493,24 @@
       <c r="F47" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
+      <c r="G47" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="J47" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K47" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L47" s="39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="33"/>
@@ -19026,22 +19708,22 @@
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -19054,12 +19736,12 @@
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="44"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
@@ -19068,12 +19750,12 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -19112,7 +19794,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -19138,7 +19820,7 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -19162,7 +19844,7 @@
       <c r="L7" s="30"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -19186,7 +19868,7 @@
       <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -19210,7 +19892,7 @@
       <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -19234,7 +19916,7 @@
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -19258,7 +19940,7 @@
       <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -19282,7 +19964,7 @@
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -19306,7 +19988,7 @@
       <c r="L13" s="30"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -19330,7 +20012,7 @@
       <c r="L14" s="30"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -19354,7 +20036,7 @@
       <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -19378,7 +20060,7 @@
       <c r="L16" s="30"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -19402,7 +20084,7 @@
       <c r="L17" s="30"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -19426,7 +20108,7 @@
       <c r="L18" s="30"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -19450,7 +20132,7 @@
       <c r="L19" s="30"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -19474,7 +20156,7 @@
       <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -19498,7 +20180,7 @@
       <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -19522,7 +20204,7 @@
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -19546,7 +20228,7 @@
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -19570,7 +20252,7 @@
       <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -19594,7 +20276,7 @@
       <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="19" t="s">
         <v>197</v>
       </c>
@@ -19618,7 +20300,7 @@
       <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="51" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -19644,7 +20326,7 @@
       <c r="L27" s="30"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -19668,7 +20350,7 @@
       <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -19692,7 +20374,7 @@
       <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -19716,7 +20398,7 @@
       <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -19740,7 +20422,7 @@
       <c r="L31" s="30"/>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -19764,7 +20446,7 @@
       <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -19788,7 +20470,7 @@
       <c r="L33" s="30"/>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -19812,7 +20494,7 @@
       <c r="L34" s="30"/>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -19836,7 +20518,7 @@
       <c r="L35" s="30"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -19860,7 +20542,7 @@
       <c r="L36" s="30"/>
     </row>
     <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -19884,7 +20566,7 @@
       <c r="L37" s="30"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -19908,7 +20590,7 @@
       <c r="L38" s="30"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -19932,7 +20614,7 @@
       <c r="L39" s="30"/>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -19956,7 +20638,7 @@
       <c r="L40" s="30"/>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -19980,7 +20662,7 @@
       <c r="L41" s="30"/>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -20004,7 +20686,7 @@
       <c r="L42" s="30"/>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -20028,7 +20710,7 @@
       <c r="L43" s="30"/>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="23" t="s">
         <v>194</v>
       </c>
@@ -20052,7 +20734,7 @@
       <c r="L44" s="30"/>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -20076,7 +20758,7 @@
       <c r="L45" s="30"/>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="35" t="s">
         <v>195</v>
       </c>
@@ -20100,7 +20782,7 @@
       <c r="L46" s="30"/>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="35" t="s">
         <v>133</v>
       </c>

--- a/SU - Suspension/08 - CAS DE CHARGES/Cas de charde Optimus/Cas de charges Optimus.xlsx
+++ b/SU - Suspension/08 - CAS DE CHARGES/Cas de charde Optimus/Cas de charges Optimus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="9660" tabRatio="857" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="9660" tabRatio="857" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1081,6 +1081,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1092,13 +1096,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1111,23 +1121,54 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1173,48 +1214,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1553,11 +1553,11 @@
     <tableColumn id="2" name="Part 1" dataDxfId="7"/>
     <tableColumn id="3" name="Part 2" dataDxfId="6"/>
     <tableColumn id="4" name="Rx" dataDxfId="5"/>
-    <tableColumn id="5" name="Ry" dataDxfId="1"/>
-    <tableColumn id="6" name="Rz" dataDxfId="0"/>
-    <tableColumn id="7" name="Mx" dataDxfId="4"/>
-    <tableColumn id="8" name="My" dataDxfId="3"/>
-    <tableColumn id="9" name="Mz" dataDxfId="2"/>
+    <tableColumn id="5" name="Ry" dataDxfId="4"/>
+    <tableColumn id="6" name="Rz" dataDxfId="3"/>
+    <tableColumn id="7" name="Mx" dataDxfId="2"/>
+    <tableColumn id="8" name="My" dataDxfId="1"/>
+    <tableColumn id="9" name="Mz" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Left Turn 1G + Freinage 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1857,20 +1857,20 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="46"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
@@ -2936,7 +2936,7 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
@@ -2979,25 +2979,25 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="51" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3010,13 +3010,13 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
@@ -3025,13 +3025,13 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -3073,7 +3073,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -3115,7 +3115,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -3155,7 +3155,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -3195,7 +3195,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -3275,7 +3275,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -3315,7 +3315,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -3355,7 +3355,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -3395,7 +3395,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -3435,7 +3435,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -3475,7 +3475,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -3515,7 +3515,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -3555,7 +3555,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -3595,7 +3595,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -3635,7 +3635,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -3675,7 +3675,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -3715,7 +3715,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -3755,7 +3755,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -3795,7 +3795,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -3835,7 +3835,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -3875,7 +3875,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="s">
         <v>146</v>
       </c>
@@ -3915,7 +3915,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -3957,7 +3957,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -3997,7 +3997,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -4037,7 +4037,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -4077,7 +4077,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -4117,7 +4117,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -4157,7 +4157,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -4197,7 +4197,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -4237,7 +4237,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -4277,7 +4277,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -4317,7 +4317,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -4357,7 +4357,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -4397,7 +4397,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -4437,7 +4437,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -4477,7 +4477,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -4517,7 +4517,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -4557,7 +4557,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -4597,7 +4597,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>143</v>
       </c>
@@ -4637,7 +4637,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -4677,7 +4677,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="34" t="s">
         <v>144</v>
       </c>
@@ -4717,7 +4717,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="34" t="s">
         <v>133</v>
       </c>
@@ -4869,7 +4869,7 @@
       <c r="L55" s="35"/>
     </row>
     <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
@@ -4883,7 +4883,7 @@
       <c r="L56" s="35"/>
     </row>
     <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="35"/>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
@@ -5841,16 +5841,16 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A6:A26"/>
+    <mergeCell ref="A27:A47"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A6:A26"/>
-    <mergeCell ref="A27:A47"/>
   </mergeCells>
   <conditionalFormatting sqref="G52:G54">
     <cfRule type="colorScale" priority="5">
@@ -5959,25 +5959,25 @@
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="51" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5990,13 +5990,13 @@
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
@@ -6005,13 +6005,13 @@
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -6053,7 +6053,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -6092,7 +6092,7 @@
       <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -6129,7 +6129,7 @@
       <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -6166,7 +6166,7 @@
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -6203,7 +6203,7 @@
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -6240,7 +6240,7 @@
       <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -6277,7 +6277,7 @@
       <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -6314,7 +6314,7 @@
       <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -6388,7 +6388,7 @@
       <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -6425,7 +6425,7 @@
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -6462,7 +6462,7 @@
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -6499,7 +6499,7 @@
       <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -6536,7 +6536,7 @@
       <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -6573,7 +6573,7 @@
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -6610,7 +6610,7 @@
       <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -6647,7 +6647,7 @@
       <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -6684,7 +6684,7 @@
       <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -6721,7 +6721,7 @@
       <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -6758,7 +6758,7 @@
       <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -6783,7 +6783,7 @@
       <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="s">
         <v>146</v>
       </c>
@@ -6820,7 +6820,7 @@
       <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -6859,7 +6859,7 @@
       <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -6896,7 +6896,7 @@
       <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -6933,7 +6933,7 @@
       <c r="M29" s="29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -6970,7 +6970,7 @@
       <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -7007,7 +7007,7 @@
       <c r="M31" s="29"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -7044,7 +7044,7 @@
       <c r="M32" s="29"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -7081,7 +7081,7 @@
       <c r="M33" s="29"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -7118,7 +7118,7 @@
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -7155,7 +7155,7 @@
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -7192,7 +7192,7 @@
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -7229,7 +7229,7 @@
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -7266,7 +7266,7 @@
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -7303,7 +7303,7 @@
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -7340,7 +7340,7 @@
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -7377,7 +7377,7 @@
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -7414,7 +7414,7 @@
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>143</v>
       </c>
@@ -7488,7 +7488,7 @@
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -7525,7 +7525,7 @@
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="34" t="s">
         <v>144</v>
       </c>
@@ -7562,7 +7562,7 @@
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="34" t="s">
         <v>133</v>
       </c>
@@ -7690,25 +7690,25 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="51" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7721,13 +7721,13 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
@@ -7736,13 +7736,13 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -7784,7 +7784,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -7826,7 +7826,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -7866,7 +7866,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -7906,7 +7906,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -7946,7 +7946,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -7986,7 +7986,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -8026,7 +8026,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -8066,7 +8066,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -8106,7 +8106,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -8146,7 +8146,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -8186,7 +8186,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -8226,7 +8226,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -8266,7 +8266,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -8306,7 +8306,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -8346,7 +8346,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -8386,7 +8386,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -8426,7 +8426,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -8466,7 +8466,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -8506,7 +8506,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -8546,7 +8546,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -8586,7 +8586,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="s">
         <v>146</v>
       </c>
@@ -8614,7 +8614,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -8656,7 +8656,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -8696,7 +8696,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -8736,7 +8736,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -8776,7 +8776,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -8816,7 +8816,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -8856,7 +8856,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -8896,7 +8896,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -8936,7 +8936,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -8976,7 +8976,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -9016,7 +9016,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -9056,7 +9056,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -9096,7 +9096,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -9136,7 +9136,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -9176,7 +9176,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -9216,7 +9216,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -9256,7 +9256,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -9296,7 +9296,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>143</v>
       </c>
@@ -9336,7 +9336,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -9376,7 +9376,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="34" t="s">
         <v>144</v>
       </c>
@@ -9416,7 +9416,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="34" t="s">
         <v>133</v>
       </c>
@@ -10704,25 +10704,25 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="51" t="s">
         <v>151</v>
       </c>
     </row>
@@ -10735,13 +10735,13 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
@@ -10750,13 +10750,13 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -10798,7 +10798,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -10840,7 +10840,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -10880,7 +10880,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -10920,7 +10920,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -10960,7 +10960,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -11000,7 +11000,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -11040,7 +11040,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -11080,7 +11080,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -11120,7 +11120,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -11160,7 +11160,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -11200,7 +11200,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -11240,7 +11240,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -11280,7 +11280,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -11320,7 +11320,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -11360,7 +11360,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -11400,7 +11400,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -11440,7 +11440,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -11480,7 +11480,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -11520,7 +11520,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -11560,7 +11560,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -11600,7 +11600,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="s">
         <v>146</v>
       </c>
@@ -11640,7 +11640,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -11682,7 +11682,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -11722,7 +11722,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -11762,7 +11762,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -11802,7 +11802,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -11842,7 +11842,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -11882,7 +11882,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -11922,7 +11922,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -11962,7 +11962,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -12002,7 +12002,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -12042,7 +12042,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -12082,7 +12082,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -12122,7 +12122,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -12162,7 +12162,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -12202,7 +12202,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -12242,7 +12242,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -12282,7 +12282,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -12322,7 +12322,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>143</v>
       </c>
@@ -12362,7 +12362,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -12402,7 +12402,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="34" t="s">
         <v>144</v>
       </c>
@@ -12442,7 +12442,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="34" t="s">
         <v>133</v>
       </c>
@@ -13717,25 +13717,25 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="51" t="s">
         <v>151</v>
       </c>
     </row>
@@ -13748,13 +13748,13 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
@@ -13763,13 +13763,13 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -13811,7 +13811,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -13853,7 +13853,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -13893,7 +13893,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -13933,7 +13933,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -13973,7 +13973,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -14013,7 +14013,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -14053,7 +14053,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -14093,7 +14093,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -14133,7 +14133,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -14173,7 +14173,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -14213,7 +14213,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -14253,7 +14253,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -14293,7 +14293,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -14333,7 +14333,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -14373,7 +14373,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -14413,7 +14413,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -14453,7 +14453,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -14493,7 +14493,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -14533,7 +14533,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -14573,7 +14573,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -14613,7 +14613,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="s">
         <v>146</v>
       </c>
@@ -14653,7 +14653,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -14695,7 +14695,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -14735,7 +14735,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -14775,7 +14775,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -14815,7 +14815,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -14855,7 +14855,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -14895,7 +14895,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -14935,7 +14935,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -14975,7 +14975,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -15015,7 +15015,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -15055,7 +15055,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -15095,7 +15095,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -15135,7 +15135,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -15175,7 +15175,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -15215,7 +15215,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -15255,7 +15255,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -15295,7 +15295,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -15335,7 +15335,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>143</v>
       </c>
@@ -15375,7 +15375,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -15415,7 +15415,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="34" t="s">
         <v>144</v>
       </c>
@@ -15455,7 +15455,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="34" t="s">
         <v>133</v>
       </c>
@@ -16660,7 +16660,7 @@
   </sheetPr>
   <dimension ref="A1:M1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G6" sqref="G6:I25"/>
     </sheetView>
   </sheetViews>
@@ -16687,25 +16687,25 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="51" t="s">
         <v>151</v>
       </c>
     </row>
@@ -16713,22 +16713,22 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -16770,7 +16770,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -16779,525 +16779,525 @@
       <c r="C6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="58"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="59"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="58"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="59"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="45"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="59"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="59"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="58"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="59"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="59"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="58"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="59"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="45"/>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="58"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="59"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="58"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="59"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="58"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="59"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="45"/>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="s">
         <v>146</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="58"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -17306,522 +17306,522 @@
       <c r="C27" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="59"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="45"/>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="58"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="59"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="45"/>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="58"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="56" t="s">
+      <c r="D31" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="59"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="45"/>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="58"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="59"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="45"/>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="56" t="s">
+      <c r="E34" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="58"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="56" t="s">
+      <c r="F35" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="59"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="45"/>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="56" t="s">
+      <c r="D36" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="56" t="s">
+      <c r="E36" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="56" t="s">
+      <c r="F36" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="58"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="44"/>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="56" t="s">
+      <c r="D37" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="56" t="s">
+      <c r="E37" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="F37" s="56" t="s">
+      <c r="F37" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="59"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="45"/>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="56" t="s">
+      <c r="F38" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="58"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="44"/>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="56" t="s">
+      <c r="E39" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F39" s="56" t="s">
+      <c r="F39" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="59"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="45"/>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="56" t="s">
+      <c r="D40" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="F40" s="56" t="s">
+      <c r="F40" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="58"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="44"/>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="D41" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="59"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="45"/>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="56" t="s">
+      <c r="E42" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="56" t="s">
+      <c r="F42" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="58"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="44"/>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="56" t="s">
+      <c r="E43" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="59"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="45"/>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>143</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="56" t="s">
+      <c r="D44" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="56" t="s">
+      <c r="E44" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="56" t="s">
+      <c r="F44" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="58"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="44"/>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="56" t="s">
+      <c r="D45" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="56" t="s">
+      <c r="E45" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="F45" s="56" t="s">
+      <c r="F45" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="59"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="45"/>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="34" t="s">
         <v>144</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D46" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="56" t="s">
+      <c r="E46" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="56" t="s">
+      <c r="F46" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="58"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="44"/>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="34" t="s">
         <v>133</v>
       </c>
       <c r="C47" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="56" t="s">
+      <c r="D47" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="56" t="s">
+      <c r="E47" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="56" t="s">
+      <c r="F47" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="59"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="45"/>
     </row>
     <row r="48" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="32"/>
@@ -19020,25 +19020,25 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="51" t="s">
         <v>151</v>
       </c>
     </row>
@@ -19051,13 +19051,13 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
@@ -19066,13 +19066,13 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -19114,7 +19114,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -19144,7 +19144,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -19172,7 +19172,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -19200,7 +19200,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -19228,7 +19228,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -19256,7 +19256,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -19284,7 +19284,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -19312,7 +19312,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -19340,7 +19340,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -19368,7 +19368,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -19396,7 +19396,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -19424,7 +19424,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -19452,7 +19452,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -19480,7 +19480,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -19508,7 +19508,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -19536,7 +19536,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -19564,7 +19564,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -19592,7 +19592,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -19620,7 +19620,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -19648,7 +19648,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -19676,7 +19676,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="s">
         <v>146</v>
       </c>
@@ -19704,7 +19704,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -19734,7 +19734,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -19762,7 +19762,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -19790,7 +19790,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -19818,7 +19818,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -19846,7 +19846,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -19874,7 +19874,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -19902,7 +19902,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -19930,7 +19930,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -19958,7 +19958,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -19986,7 +19986,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -20014,7 +20014,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -20042,7 +20042,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -20070,7 +20070,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -20098,7 +20098,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -20126,7 +20126,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -20154,7 +20154,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -20182,7 +20182,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>143</v>
       </c>
@@ -20210,7 +20210,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -20238,7 +20238,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="34" t="s">
         <v>144</v>
       </c>
@@ -20266,7 +20266,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="34" t="s">
         <v>133</v>
       </c>

--- a/SU - Suspension/08 - CAS DE CHARGES/Cas de charde Optimus/Cas de charges Optimus.xlsx
+++ b/SU - Suspension/08 - CAS DE CHARGES/Cas de charde Optimus/Cas de charges Optimus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="9660" tabRatio="857" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="9660" tabRatio="857" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -892,6 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -903,13 +904,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -922,13 +929,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1665,20 +1665,20 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
@@ -2787,25 +2787,25 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="51" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2818,13 +2818,13 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
@@ -2833,13 +2833,13 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -2881,7 +2881,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -2923,7 +2923,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -2963,7 +2963,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -3003,7 +3003,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -3043,7 +3043,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -3083,7 +3083,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -3123,7 +3123,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -3163,7 +3163,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -3203,7 +3203,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -3243,7 +3243,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -3283,7 +3283,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -3323,7 +3323,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -3363,7 +3363,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -3403,7 +3403,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -3443,7 +3443,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -3483,7 +3483,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -3523,7 +3523,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -3563,7 +3563,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -3603,7 +3603,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -3643,7 +3643,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -3683,7 +3683,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="s">
         <v>146</v>
       </c>
@@ -3723,7 +3723,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -3765,7 +3765,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -3805,7 +3805,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -3845,7 +3845,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -3885,7 +3885,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -3925,7 +3925,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -3965,7 +3965,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -4005,7 +4005,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -4045,7 +4045,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -4085,7 +4085,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -4125,7 +4125,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -4165,7 +4165,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -4205,7 +4205,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -4245,7 +4245,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -4285,7 +4285,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -4325,7 +4325,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -4365,7 +4365,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -4405,7 +4405,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>143</v>
       </c>
@@ -4445,7 +4445,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -4485,7 +4485,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="34" t="s">
         <v>144</v>
       </c>
@@ -4525,7 +4525,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="34" t="s">
         <v>133</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="L55" s="35"/>
     </row>
     <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
@@ -4691,7 +4691,7 @@
       <c r="L56" s="35"/>
     </row>
     <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="35"/>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
@@ -5649,16 +5649,16 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A6:A26"/>
+    <mergeCell ref="A27:A47"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A6:A26"/>
-    <mergeCell ref="A27:A47"/>
   </mergeCells>
   <conditionalFormatting sqref="G52:G54">
     <cfRule type="colorScale" priority="5">
@@ -5767,25 +5767,25 @@
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="51" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5798,13 +5798,13 @@
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
@@ -5813,13 +5813,13 @@
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -5861,7 +5861,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -5903,7 +5903,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -5943,7 +5943,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -5983,7 +5983,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -6023,7 +6023,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -6063,7 +6063,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -6103,7 +6103,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -6143,7 +6143,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -6183,7 +6183,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -6223,7 +6223,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -6263,7 +6263,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -6303,7 +6303,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -6343,7 +6343,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -6383,7 +6383,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -6423,7 +6423,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -6463,7 +6463,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -6503,7 +6503,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -6543,7 +6543,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -6583,7 +6583,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -6623,7 +6623,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -6651,7 +6651,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="s">
         <v>146</v>
       </c>
@@ -6691,7 +6691,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -6733,7 +6733,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -6773,7 +6773,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -6813,7 +6813,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -6853,7 +6853,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -6893,7 +6893,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -6933,7 +6933,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -6973,7 +6973,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -7013,7 +7013,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -7053,7 +7053,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -7093,7 +7093,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -7133,7 +7133,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -7173,7 +7173,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -7213,7 +7213,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -7253,7 +7253,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -7293,7 +7293,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -7333,7 +7333,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -7373,7 +7373,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>143</v>
       </c>
@@ -7413,7 +7413,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -7453,7 +7453,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="34" t="s">
         <v>144</v>
       </c>
@@ -7493,7 +7493,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="34" t="s">
         <v>133</v>
       </c>
@@ -7624,25 +7624,25 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="51" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7655,13 +7655,13 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
@@ -7670,13 +7670,13 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -7718,7 +7718,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -7760,7 +7760,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -7800,7 +7800,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -7840,7 +7840,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -7880,7 +7880,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -7920,7 +7920,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -7960,7 +7960,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -8000,7 +8000,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -8040,7 +8040,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -8080,7 +8080,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -8120,7 +8120,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -8160,7 +8160,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -8200,7 +8200,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -8240,7 +8240,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -8280,7 +8280,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -8320,7 +8320,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -8360,7 +8360,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -8400,7 +8400,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -8440,7 +8440,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -8480,7 +8480,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -8520,7 +8520,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="s">
         <v>146</v>
       </c>
@@ -8548,7 +8548,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -8590,7 +8590,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -8630,7 +8630,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -8670,7 +8670,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -8710,7 +8710,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -8750,7 +8750,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -8790,7 +8790,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -8830,7 +8830,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -8870,7 +8870,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -8910,7 +8910,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -8950,7 +8950,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -8990,7 +8990,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -9030,7 +9030,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -9070,7 +9070,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -9110,7 +9110,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -9150,7 +9150,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -9190,7 +9190,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -9230,7 +9230,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>143</v>
       </c>
@@ -9270,7 +9270,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -9310,7 +9310,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="34" t="s">
         <v>144</v>
       </c>
@@ -9350,7 +9350,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="34" t="s">
         <v>133</v>
       </c>
@@ -10638,25 +10638,25 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="51" t="s">
         <v>151</v>
       </c>
     </row>
@@ -10669,13 +10669,13 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
@@ -10684,13 +10684,13 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -10732,7 +10732,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -10774,7 +10774,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -10814,7 +10814,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -10854,7 +10854,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -10894,7 +10894,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -10934,7 +10934,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -10974,7 +10974,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -11014,7 +11014,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -11054,7 +11054,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -11094,7 +11094,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -11134,7 +11134,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -11174,7 +11174,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -11214,7 +11214,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -11254,7 +11254,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -11294,7 +11294,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -11334,7 +11334,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -11374,7 +11374,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -11414,7 +11414,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -11454,7 +11454,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -11494,7 +11494,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -11534,7 +11534,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="s">
         <v>146</v>
       </c>
@@ -11574,7 +11574,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -11616,7 +11616,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -11656,7 +11656,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -11696,7 +11696,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -11736,7 +11736,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -11776,7 +11776,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -11816,7 +11816,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -11856,7 +11856,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -11896,7 +11896,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -11936,7 +11936,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -11976,7 +11976,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -12016,7 +12016,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -12056,7 +12056,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -12096,7 +12096,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -12136,7 +12136,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -12176,7 +12176,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -12216,7 +12216,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -12256,7 +12256,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>143</v>
       </c>
@@ -12296,7 +12296,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -12336,7 +12336,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="34" t="s">
         <v>144</v>
       </c>
@@ -12376,7 +12376,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="34" t="s">
         <v>133</v>
       </c>
@@ -13607,7 +13607,7 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -13651,25 +13651,25 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="51" t="s">
         <v>151</v>
       </c>
     </row>
@@ -13682,13 +13682,13 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
@@ -13697,13 +13697,13 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -13745,7 +13745,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -13763,22 +13763,22 @@
       <c r="F6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="45">
         <v>-176.37200000000001</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="45">
         <v>-66.53</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="45">
         <v>-54.991</v>
       </c>
-      <c r="J6" s="59">
-        <v>0</v>
-      </c>
-      <c r="K6" s="59">
-        <v>0</v>
-      </c>
-      <c r="L6" s="59">
+      <c r="J6" s="45">
+        <v>0</v>
+      </c>
+      <c r="K6" s="45">
+        <v>0</v>
+      </c>
+      <c r="L6" s="45">
         <v>0</v>
       </c>
       <c r="M6" s="41">
@@ -13787,7 +13787,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -13803,22 +13803,22 @@
       <c r="F7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="45">
         <v>113.792</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="45">
         <v>195.36600000000001</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="45">
         <v>161.483</v>
       </c>
-      <c r="J7" s="59">
-        <v>0</v>
-      </c>
-      <c r="K7" s="59">
-        <v>0</v>
-      </c>
-      <c r="L7" s="59">
+      <c r="J7" s="45">
+        <v>0</v>
+      </c>
+      <c r="K7" s="45">
+        <v>0</v>
+      </c>
+      <c r="L7" s="45">
         <v>0</v>
       </c>
       <c r="M7" s="41">
@@ -13827,7 +13827,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -13843,22 +13843,22 @@
       <c r="F8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="45">
         <v>125.67400000000001</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="45">
         <v>504.17899999999997</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="45">
         <v>147.70599999999999</v>
       </c>
-      <c r="J8" s="59">
-        <v>0</v>
-      </c>
-      <c r="K8" s="59">
-        <v>0</v>
-      </c>
-      <c r="L8" s="59">
+      <c r="J8" s="45">
+        <v>0</v>
+      </c>
+      <c r="K8" s="45">
+        <v>0</v>
+      </c>
+      <c r="L8" s="45">
         <v>0</v>
       </c>
       <c r="M8" s="41">
@@ -13867,7 +13867,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -13883,22 +13883,22 @@
       <c r="F9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="45">
         <v>-120.72199999999999</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="45">
         <v>-91.066999999999993</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="45">
         <v>-26.678999999999998</v>
       </c>
-      <c r="J9" s="59">
-        <v>0</v>
-      </c>
-      <c r="K9" s="59">
-        <v>0</v>
-      </c>
-      <c r="L9" s="59">
+      <c r="J9" s="45">
+        <v>0</v>
+      </c>
+      <c r="K9" s="45">
+        <v>0</v>
+      </c>
+      <c r="L9" s="45">
         <v>0</v>
       </c>
       <c r="M9" s="41">
@@ -13907,7 +13907,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -13923,22 +13923,22 @@
       <c r="F10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="45">
         <v>-176.37200000000001</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="45">
         <v>-66.53</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="45">
         <v>-54.991</v>
       </c>
-      <c r="J10" s="59">
-        <v>0</v>
-      </c>
-      <c r="K10" s="59">
-        <v>0</v>
-      </c>
-      <c r="L10" s="59">
+      <c r="J10" s="45">
+        <v>0</v>
+      </c>
+      <c r="K10" s="45">
+        <v>0</v>
+      </c>
+      <c r="L10" s="45">
         <v>0</v>
       </c>
       <c r="M10" s="41">
@@ -13947,7 +13947,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -13963,22 +13963,22 @@
       <c r="F11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="45">
         <v>113.792</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="45">
         <v>195.36600000000001</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="45">
         <v>161.483</v>
       </c>
-      <c r="J11" s="59">
-        <v>0</v>
-      </c>
-      <c r="K11" s="59">
-        <v>0</v>
-      </c>
-      <c r="L11" s="59">
+      <c r="J11" s="45">
+        <v>0</v>
+      </c>
+      <c r="K11" s="45">
+        <v>0</v>
+      </c>
+      <c r="L11" s="45">
         <v>0</v>
       </c>
       <c r="M11" s="41">
@@ -13987,7 +13987,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -14003,22 +14003,22 @@
       <c r="F12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="45">
         <v>125.67400000000001</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="45">
         <v>504.17899999999997</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="45">
         <v>147.70599999999999</v>
       </c>
-      <c r="J12" s="59">
-        <v>0</v>
-      </c>
-      <c r="K12" s="59">
-        <v>0</v>
-      </c>
-      <c r="L12" s="59">
+      <c r="J12" s="45">
+        <v>0</v>
+      </c>
+      <c r="K12" s="45">
+        <v>0</v>
+      </c>
+      <c r="L12" s="45">
         <v>0</v>
       </c>
       <c r="M12" s="41">
@@ -14027,7 +14027,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -14043,22 +14043,22 @@
       <c r="F13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="45">
         <v>-120.72199999999999</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="45">
         <v>-91.066999999999993</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="45">
         <v>-26.678999999999998</v>
       </c>
-      <c r="J13" s="59">
-        <v>0</v>
-      </c>
-      <c r="K13" s="59">
-        <v>0</v>
-      </c>
-      <c r="L13" s="59">
+      <c r="J13" s="45">
+        <v>0</v>
+      </c>
+      <c r="K13" s="45">
+        <v>0</v>
+      </c>
+      <c r="L13" s="45">
         <v>0</v>
       </c>
       <c r="M13" s="41">
@@ -14067,7 +14067,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -14083,22 +14083,22 @@
       <c r="F14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="45">
         <v>57.628999999999998</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="45">
         <v>161.476</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="45">
         <v>47.307000000000002</v>
       </c>
-      <c r="J14" s="59">
-        <v>0</v>
-      </c>
-      <c r="K14" s="59">
-        <v>0</v>
-      </c>
-      <c r="L14" s="59">
+      <c r="J14" s="45">
+        <v>0</v>
+      </c>
+      <c r="K14" s="45">
+        <v>0</v>
+      </c>
+      <c r="L14" s="45">
         <v>0</v>
       </c>
       <c r="M14" s="41">
@@ -14107,7 +14107,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -14123,22 +14123,22 @@
       <c r="F15" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="45">
         <v>57.628999999999998</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="45">
         <v>161.476</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="45">
         <v>47.307000000000002</v>
       </c>
-      <c r="J15" s="59">
-        <v>0</v>
-      </c>
-      <c r="K15" s="59">
-        <v>0</v>
-      </c>
-      <c r="L15" s="59">
+      <c r="J15" s="45">
+        <v>0</v>
+      </c>
+      <c r="K15" s="45">
+        <v>0</v>
+      </c>
+      <c r="L15" s="45">
         <v>0</v>
       </c>
       <c r="M15" s="41">
@@ -14147,7 +14147,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -14163,22 +14163,22 @@
       <c r="F16" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="59">
-        <v>0</v>
-      </c>
-      <c r="H16" s="59">
+      <c r="G16" s="45">
+        <v>0</v>
+      </c>
+      <c r="H16" s="45">
         <v>-703.42399999999998</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I16" s="45">
         <v>667.62800000000004</v>
       </c>
-      <c r="J16" s="59">
-        <v>0</v>
-      </c>
-      <c r="K16" s="59">
-        <v>0</v>
-      </c>
-      <c r="L16" s="59">
+      <c r="J16" s="45">
+        <v>0</v>
+      </c>
+      <c r="K16" s="45">
+        <v>0</v>
+      </c>
+      <c r="L16" s="45">
         <v>0</v>
       </c>
       <c r="M16" s="41">
@@ -14187,7 +14187,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -14203,22 +14203,22 @@
       <c r="F17" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="59">
-        <v>0</v>
-      </c>
-      <c r="H17" s="59">
+      <c r="G17" s="45">
+        <v>0</v>
+      </c>
+      <c r="H17" s="45">
         <v>-703.42399999999998</v>
       </c>
-      <c r="I17" s="59">
+      <c r="I17" s="45">
         <v>667.62800000000004</v>
       </c>
-      <c r="J17" s="59">
-        <v>0</v>
-      </c>
-      <c r="K17" s="59">
-        <v>0</v>
-      </c>
-      <c r="L17" s="59">
+      <c r="J17" s="45">
+        <v>0</v>
+      </c>
+      <c r="K17" s="45">
+        <v>0</v>
+      </c>
+      <c r="L17" s="45">
         <v>0</v>
       </c>
       <c r="M17" s="41">
@@ -14227,7 +14227,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -14243,22 +14243,22 @@
       <c r="F18" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="59">
-        <v>0</v>
-      </c>
-      <c r="H18" s="59">
+      <c r="G18" s="45">
+        <v>0</v>
+      </c>
+      <c r="H18" s="45">
         <v>-831.85199999999998</v>
       </c>
-      <c r="I18" s="59">
+      <c r="I18" s="45">
         <v>-355.96100000000001</v>
       </c>
-      <c r="J18" s="59">
-        <v>0</v>
-      </c>
-      <c r="K18" s="59">
-        <v>0</v>
-      </c>
-      <c r="L18" s="59">
+      <c r="J18" s="45">
+        <v>0</v>
+      </c>
+      <c r="K18" s="45">
+        <v>0</v>
+      </c>
+      <c r="L18" s="45">
         <v>0</v>
       </c>
       <c r="M18" s="41">
@@ -14267,7 +14267,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -14283,22 +14283,22 @@
       <c r="F19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="59">
-        <v>0</v>
-      </c>
-      <c r="H19" s="59">
+      <c r="G19" s="45">
+        <v>0</v>
+      </c>
+      <c r="H19" s="45">
         <v>-831.85199999999998</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="45">
         <v>-355.96100000000001</v>
       </c>
-      <c r="J19" s="59">
-        <v>0</v>
-      </c>
-      <c r="K19" s="59">
-        <v>0</v>
-      </c>
-      <c r="L19" s="59">
+      <c r="J19" s="45">
+        <v>0</v>
+      </c>
+      <c r="K19" s="45">
+        <v>0</v>
+      </c>
+      <c r="L19" s="45">
         <v>0</v>
       </c>
       <c r="M19" s="41">
@@ -14307,7 +14307,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -14323,22 +14323,22 @@
       <c r="F20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="59">
-        <v>0</v>
-      </c>
-      <c r="H20" s="59">
+      <c r="G20" s="45">
+        <v>0</v>
+      </c>
+      <c r="H20" s="45">
         <v>128.42699999999999</v>
       </c>
-      <c r="I20" s="59">
+      <c r="I20" s="45">
         <v>1023.5890000000001</v>
       </c>
-      <c r="J20" s="59">
-        <v>0</v>
-      </c>
-      <c r="K20" s="59">
-        <v>0</v>
-      </c>
-      <c r="L20" s="59">
+      <c r="J20" s="45">
+        <v>0</v>
+      </c>
+      <c r="K20" s="45">
+        <v>0</v>
+      </c>
+      <c r="L20" s="45">
         <v>0</v>
       </c>
       <c r="M20" s="41">
@@ -14347,7 +14347,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -14363,22 +14363,22 @@
       <c r="F21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="59">
-        <v>0</v>
-      </c>
-      <c r="H21" s="59">
+      <c r="G21" s="45">
+        <v>0</v>
+      </c>
+      <c r="H21" s="45">
         <v>1E-3</v>
       </c>
-      <c r="I21" s="59">
+      <c r="I21" s="45">
         <v>-0.01</v>
       </c>
-      <c r="J21" s="59">
-        <v>0</v>
-      </c>
-      <c r="K21" s="59">
-        <v>0</v>
-      </c>
-      <c r="L21" s="59">
+      <c r="J21" s="45">
+        <v>0</v>
+      </c>
+      <c r="K21" s="45">
+        <v>0</v>
+      </c>
+      <c r="L21" s="45">
         <v>0</v>
       </c>
       <c r="M21" s="41">
@@ -14387,7 +14387,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -14403,22 +14403,22 @@
       <c r="F22" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="59">
+      <c r="G22" s="45">
         <v>2E-3</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="45">
         <v>-140.70599999999999</v>
       </c>
-      <c r="I22" s="59">
+      <c r="I22" s="45">
         <v>1476.3810000000001</v>
       </c>
-      <c r="J22" s="59">
-        <v>0</v>
-      </c>
-      <c r="K22" s="59">
-        <v>0</v>
-      </c>
-      <c r="L22" s="59">
+      <c r="J22" s="45">
+        <v>0</v>
+      </c>
+      <c r="K22" s="45">
+        <v>0</v>
+      </c>
+      <c r="L22" s="45">
         <v>0</v>
       </c>
       <c r="M22" s="41">
@@ -14427,7 +14427,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -14443,22 +14443,22 @@
       <c r="F23" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="59">
+      <c r="G23" s="45">
         <v>-2E-3</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="45">
         <v>51.692999999999998</v>
       </c>
-      <c r="I23" s="59">
+      <c r="I23" s="45">
         <v>-542.4</v>
       </c>
-      <c r="J23" s="59">
-        <v>0</v>
-      </c>
-      <c r="K23" s="59">
-        <v>0</v>
-      </c>
-      <c r="L23" s="59">
+      <c r="J23" s="45">
+        <v>0</v>
+      </c>
+      <c r="K23" s="45">
+        <v>0</v>
+      </c>
+      <c r="L23" s="45">
         <v>0</v>
       </c>
       <c r="M23" s="41">
@@ -14467,7 +14467,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -14483,22 +14483,22 @@
       <c r="F24" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="59">
-        <v>0</v>
-      </c>
-      <c r="H24" s="59">
+      <c r="G24" s="45">
+        <v>0</v>
+      </c>
+      <c r="H24" s="45">
         <v>89.012</v>
       </c>
-      <c r="I24" s="59">
+      <c r="I24" s="45">
         <v>8.4830000000000005</v>
       </c>
-      <c r="J24" s="59">
-        <v>0</v>
-      </c>
-      <c r="K24" s="59">
-        <v>0</v>
-      </c>
-      <c r="L24" s="59">
+      <c r="J24" s="45">
+        <v>0</v>
+      </c>
+      <c r="K24" s="45">
+        <v>0</v>
+      </c>
+      <c r="L24" s="45">
         <v>0</v>
       </c>
       <c r="M24" s="41">
@@ -14507,7 +14507,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -14523,22 +14523,22 @@
       <c r="F25" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="59">
-        <v>0</v>
-      </c>
-      <c r="H25" s="59">
-        <v>0</v>
-      </c>
-      <c r="I25" s="59">
+      <c r="G25" s="45">
+        <v>0</v>
+      </c>
+      <c r="H25" s="45">
+        <v>0</v>
+      </c>
+      <c r="I25" s="45">
         <v>942.45299999999997</v>
       </c>
-      <c r="J25" s="59">
-        <v>0</v>
-      </c>
-      <c r="K25" s="59">
-        <v>0</v>
-      </c>
-      <c r="L25" s="59">
+      <c r="J25" s="45">
+        <v>0</v>
+      </c>
+      <c r="K25" s="45">
+        <v>0</v>
+      </c>
+      <c r="L25" s="45">
         <v>0</v>
       </c>
       <c r="M25" s="41">
@@ -14547,7 +14547,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="s">
         <v>146</v>
       </c>
@@ -14563,22 +14563,22 @@
       <c r="F26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="59">
-        <v>0</v>
-      </c>
-      <c r="H26" s="59">
-        <v>0</v>
-      </c>
-      <c r="I26" s="59">
+      <c r="G26" s="45">
+        <v>0</v>
+      </c>
+      <c r="H26" s="45">
+        <v>0</v>
+      </c>
+      <c r="I26" s="45">
         <v>942.47299999999996</v>
       </c>
-      <c r="J26" s="59">
-        <v>0</v>
-      </c>
-      <c r="K26" s="59">
-        <v>0</v>
-      </c>
-      <c r="L26" s="59">
+      <c r="J26" s="45">
+        <v>0</v>
+      </c>
+      <c r="K26" s="45">
+        <v>0</v>
+      </c>
+      <c r="L26" s="45">
         <v>0</v>
       </c>
       <c r="M26" s="41">
@@ -14587,7 +14587,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -14605,22 +14605,22 @@
       <c r="F27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="59">
+      <c r="G27" s="45">
         <v>363.67200000000003</v>
       </c>
-      <c r="H27" s="59">
+      <c r="H27" s="45">
         <v>566.18299999999999</v>
       </c>
-      <c r="I27" s="59">
+      <c r="I27" s="45">
         <v>174.79599999999999</v>
       </c>
-      <c r="J27" s="59">
-        <v>0</v>
-      </c>
-      <c r="K27" s="59">
-        <v>0</v>
-      </c>
-      <c r="L27" s="59">
+      <c r="J27" s="45">
+        <v>0</v>
+      </c>
+      <c r="K27" s="45">
+        <v>0</v>
+      </c>
+      <c r="L27" s="45">
         <v>0</v>
       </c>
       <c r="M27" s="41">
@@ -14629,7 +14629,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -14645,22 +14645,22 @@
       <c r="F28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="59">
+      <c r="G28" s="45">
         <v>122.187</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H28" s="45">
         <v>-190.125</v>
       </c>
-      <c r="I28" s="59">
+      <c r="I28" s="45">
         <v>-58.697000000000003</v>
       </c>
-      <c r="J28" s="59">
-        <v>0</v>
-      </c>
-      <c r="K28" s="59">
-        <v>0</v>
-      </c>
-      <c r="L28" s="59">
+      <c r="J28" s="45">
+        <v>0</v>
+      </c>
+      <c r="K28" s="45">
+        <v>0</v>
+      </c>
+      <c r="L28" s="45">
         <v>0</v>
       </c>
       <c r="M28" s="41">
@@ -14669,7 +14669,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -14685,22 +14685,22 @@
       <c r="F29" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="59">
+      <c r="G29" s="45">
         <v>-759.28200000000004</v>
       </c>
-      <c r="H29" s="59">
+      <c r="H29" s="45">
         <v>1885.855</v>
       </c>
-      <c r="I29" s="59">
+      <c r="I29" s="45">
         <v>177.83</v>
       </c>
-      <c r="J29" s="59">
-        <v>0</v>
-      </c>
-      <c r="K29" s="59">
-        <v>0</v>
-      </c>
-      <c r="L29" s="59">
+      <c r="J29" s="45">
+        <v>0</v>
+      </c>
+      <c r="K29" s="45">
+        <v>0</v>
+      </c>
+      <c r="L29" s="45">
         <v>0</v>
       </c>
       <c r="M29" s="41">
@@ -14709,7 +14709,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -14725,22 +14725,22 @@
       <c r="F30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="59">
+      <c r="G30" s="45">
         <v>-466.851</v>
       </c>
-      <c r="H30" s="59">
+      <c r="H30" s="45">
         <v>-1208.4749999999999</v>
       </c>
-      <c r="I30" s="59">
+      <c r="I30" s="45">
         <v>-113.955</v>
       </c>
-      <c r="J30" s="59">
-        <v>0</v>
-      </c>
-      <c r="K30" s="59">
-        <v>0</v>
-      </c>
-      <c r="L30" s="59">
+      <c r="J30" s="45">
+        <v>0</v>
+      </c>
+      <c r="K30" s="45">
+        <v>0</v>
+      </c>
+      <c r="L30" s="45">
         <v>0</v>
       </c>
       <c r="M30" s="41">
@@ -14749,7 +14749,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -14765,22 +14765,22 @@
       <c r="F31" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="59">
+      <c r="G31" s="45">
         <v>-466.851</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H31" s="45">
         <v>-1208.4749999999999</v>
       </c>
-      <c r="I31" s="59">
+      <c r="I31" s="45">
         <v>-113.955</v>
       </c>
-      <c r="J31" s="59">
-        <v>0</v>
-      </c>
-      <c r="K31" s="59">
-        <v>0</v>
-      </c>
-      <c r="L31" s="59">
+      <c r="J31" s="45">
+        <v>0</v>
+      </c>
+      <c r="K31" s="45">
+        <v>0</v>
+      </c>
+      <c r="L31" s="45">
         <v>0</v>
       </c>
       <c r="M31" s="41">
@@ -14789,7 +14789,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -14805,22 +14805,22 @@
       <c r="F32" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="59">
+      <c r="G32" s="45">
         <v>-759.28200000000004</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="45">
         <v>1885.855</v>
       </c>
-      <c r="I32" s="59">
+      <c r="I32" s="45">
         <v>177.83</v>
       </c>
-      <c r="J32" s="59">
-        <v>0</v>
-      </c>
-      <c r="K32" s="59">
-        <v>0</v>
-      </c>
-      <c r="L32" s="59">
+      <c r="J32" s="45">
+        <v>0</v>
+      </c>
+      <c r="K32" s="45">
+        <v>0</v>
+      </c>
+      <c r="L32" s="45">
         <v>0</v>
       </c>
       <c r="M32" s="41">
@@ -14829,7 +14829,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -14845,22 +14845,22 @@
       <c r="F33" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="59">
+      <c r="G33" s="45">
         <v>122.187</v>
       </c>
-      <c r="H33" s="59">
+      <c r="H33" s="45">
         <v>-190.125</v>
       </c>
-      <c r="I33" s="59">
+      <c r="I33" s="45">
         <v>-58.697000000000003</v>
       </c>
-      <c r="J33" s="59">
-        <v>0</v>
-      </c>
-      <c r="K33" s="59">
-        <v>0</v>
-      </c>
-      <c r="L33" s="59">
+      <c r="J33" s="45">
+        <v>0</v>
+      </c>
+      <c r="K33" s="45">
+        <v>0</v>
+      </c>
+      <c r="L33" s="45">
         <v>0</v>
       </c>
       <c r="M33" s="41">
@@ -14869,7 +14869,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -14885,22 +14885,22 @@
       <c r="F34" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="59">
+      <c r="G34" s="45">
         <v>363.67200000000003</v>
       </c>
-      <c r="H34" s="59">
+      <c r="H34" s="45">
         <v>566.18299999999999</v>
       </c>
-      <c r="I34" s="59">
+      <c r="I34" s="45">
         <v>174.79599999999999</v>
       </c>
-      <c r="J34" s="59">
-        <v>0</v>
-      </c>
-      <c r="K34" s="59">
-        <v>0</v>
-      </c>
-      <c r="L34" s="59">
+      <c r="J34" s="45">
+        <v>0</v>
+      </c>
+      <c r="K34" s="45">
+        <v>0</v>
+      </c>
+      <c r="L34" s="45">
         <v>0</v>
       </c>
       <c r="M34" s="41">
@@ -14909,7 +14909,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -14925,22 +14925,22 @@
       <c r="F35" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="59">
-        <v>0</v>
-      </c>
-      <c r="H35" s="59">
+      <c r="G35" s="45">
+        <v>0</v>
+      </c>
+      <c r="H35" s="45">
         <v>-532.197</v>
       </c>
-      <c r="I35" s="59">
+      <c r="I35" s="45">
         <v>492.31599999999997</v>
       </c>
-      <c r="J35" s="59">
-        <v>0</v>
-      </c>
-      <c r="K35" s="59">
-        <v>0</v>
-      </c>
-      <c r="L35" s="59">
+      <c r="J35" s="45">
+        <v>0</v>
+      </c>
+      <c r="K35" s="45">
+        <v>0</v>
+      </c>
+      <c r="L35" s="45">
         <v>0</v>
       </c>
       <c r="M35" s="41">
@@ -14949,7 +14949,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -14965,22 +14965,22 @@
       <c r="F36" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="59">
-        <v>0</v>
-      </c>
-      <c r="H36" s="59">
+      <c r="G36" s="45">
+        <v>0</v>
+      </c>
+      <c r="H36" s="45">
         <v>-532.197</v>
       </c>
-      <c r="I36" s="59">
+      <c r="I36" s="45">
         <v>492.31599999999997</v>
       </c>
-      <c r="J36" s="59">
-        <v>0</v>
-      </c>
-      <c r="K36" s="59">
-        <v>0</v>
-      </c>
-      <c r="L36" s="59">
+      <c r="J36" s="45">
+        <v>0</v>
+      </c>
+      <c r="K36" s="45">
+        <v>0</v>
+      </c>
+      <c r="L36" s="45">
         <v>0</v>
       </c>
       <c r="M36" s="41">
@@ -14989,7 +14989,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -15005,22 +15005,22 @@
       <c r="F37" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="59">
-        <v>0</v>
-      </c>
-      <c r="H37" s="59">
+      <c r="G37" s="45">
+        <v>0</v>
+      </c>
+      <c r="H37" s="45">
         <v>-648.88400000000001</v>
       </c>
-      <c r="I37" s="59">
+      <c r="I37" s="45">
         <v>-66.599999999999994</v>
       </c>
-      <c r="J37" s="59">
-        <v>0</v>
-      </c>
-      <c r="K37" s="59">
-        <v>0</v>
-      </c>
-      <c r="L37" s="59">
+      <c r="J37" s="45">
+        <v>0</v>
+      </c>
+      <c r="K37" s="45">
+        <v>0</v>
+      </c>
+      <c r="L37" s="45">
         <v>0</v>
       </c>
       <c r="M37" s="41">
@@ -15029,7 +15029,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -15045,22 +15045,22 @@
       <c r="F38" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="59">
-        <v>0</v>
-      </c>
-      <c r="H38" s="59">
+      <c r="G38" s="45">
+        <v>0</v>
+      </c>
+      <c r="H38" s="45">
         <v>-648.88400000000001</v>
       </c>
-      <c r="I38" s="59">
+      <c r="I38" s="45">
         <v>-66.599999999999994</v>
       </c>
-      <c r="J38" s="59">
-        <v>0</v>
-      </c>
-      <c r="K38" s="59">
-        <v>0</v>
-      </c>
-      <c r="L38" s="59">
+      <c r="J38" s="45">
+        <v>0</v>
+      </c>
+      <c r="K38" s="45">
+        <v>0</v>
+      </c>
+      <c r="L38" s="45">
         <v>0</v>
       </c>
       <c r="M38" s="41">
@@ -15069,7 +15069,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -15085,22 +15085,22 @@
       <c r="F39" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="59">
+      <c r="G39" s="45">
         <v>-35.048000000000002</v>
       </c>
-      <c r="H39" s="59">
+      <c r="H39" s="45">
         <v>-521.24099999999999</v>
       </c>
-      <c r="I39" s="59">
+      <c r="I39" s="45">
         <v>-64.753</v>
       </c>
-      <c r="J39" s="59">
-        <v>0</v>
-      </c>
-      <c r="K39" s="59">
-        <v>0</v>
-      </c>
-      <c r="L39" s="59">
+      <c r="J39" s="45">
+        <v>0</v>
+      </c>
+      <c r="K39" s="45">
+        <v>0</v>
+      </c>
+      <c r="L39" s="45">
         <v>0</v>
       </c>
       <c r="M39" s="41">
@@ -15109,7 +15109,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -15125,22 +15125,22 @@
       <c r="F40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="59">
+      <c r="G40" s="45">
         <v>-35.048000000000002</v>
       </c>
-      <c r="H40" s="59">
+      <c r="H40" s="45">
         <v>-521.24099999999999</v>
       </c>
-      <c r="I40" s="59">
+      <c r="I40" s="45">
         <v>-64.753</v>
       </c>
-      <c r="J40" s="59">
-        <v>0</v>
-      </c>
-      <c r="K40" s="59">
-        <v>0</v>
-      </c>
-      <c r="L40" s="59">
+      <c r="J40" s="45">
+        <v>0</v>
+      </c>
+      <c r="K40" s="45">
+        <v>0</v>
+      </c>
+      <c r="L40" s="45">
         <v>0</v>
       </c>
       <c r="M40" s="41">
@@ -15149,7 +15149,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -15165,22 +15165,22 @@
       <c r="F41" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="59">
+      <c r="G41" s="45">
         <v>125.798</v>
       </c>
-      <c r="H41" s="59">
+      <c r="H41" s="45">
         <v>26.651</v>
       </c>
-      <c r="I41" s="59">
+      <c r="I41" s="45">
         <v>-570.60900000000004</v>
       </c>
-      <c r="J41" s="59">
-        <v>0</v>
-      </c>
-      <c r="K41" s="59">
-        <v>0</v>
-      </c>
-      <c r="L41" s="59">
+      <c r="J41" s="45">
+        <v>0</v>
+      </c>
+      <c r="K41" s="45">
+        <v>0</v>
+      </c>
+      <c r="L41" s="45">
         <v>0</v>
       </c>
       <c r="M41" s="41">
@@ -15189,7 +15189,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -15205,22 +15205,22 @@
       <c r="F42" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="59">
+      <c r="G42" s="45">
         <v>-901.11800000000005</v>
       </c>
-      <c r="H42" s="59">
+      <c r="H42" s="45">
         <v>-152.78800000000001</v>
       </c>
-      <c r="I42" s="59">
+      <c r="I42" s="45">
         <v>3271.0639999999999</v>
       </c>
-      <c r="J42" s="59">
-        <v>0</v>
-      </c>
-      <c r="K42" s="59">
-        <v>0</v>
-      </c>
-      <c r="L42" s="59">
+      <c r="J42" s="45">
+        <v>0</v>
+      </c>
+      <c r="K42" s="45">
+        <v>0</v>
+      </c>
+      <c r="L42" s="45">
         <v>0</v>
       </c>
       <c r="M42" s="41">
@@ -15229,7 +15229,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -15245,22 +15245,22 @@
       <c r="F43" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="59">
+      <c r="G43" s="45">
         <v>-1E-3</v>
       </c>
-      <c r="H43" s="59">
+      <c r="H43" s="45">
         <v>28.376000000000001</v>
       </c>
-      <c r="I43" s="59">
+      <c r="I43" s="45">
         <v>1.325</v>
       </c>
-      <c r="J43" s="59">
-        <v>0</v>
-      </c>
-      <c r="K43" s="59">
-        <v>0</v>
-      </c>
-      <c r="L43" s="59">
+      <c r="J43" s="45">
+        <v>0</v>
+      </c>
+      <c r="K43" s="45">
+        <v>0</v>
+      </c>
+      <c r="L43" s="45">
         <v>0</v>
       </c>
       <c r="M43" s="41">
@@ -15269,7 +15269,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>143</v>
       </c>
@@ -15285,22 +15285,22 @@
       <c r="F44" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="59">
-        <v>0</v>
-      </c>
-      <c r="H44" s="59">
+      <c r="G44" s="45">
+        <v>0</v>
+      </c>
+      <c r="H44" s="45">
         <v>97.760999999999996</v>
       </c>
-      <c r="I44" s="59">
+      <c r="I44" s="45">
         <v>-2094.2429999999999</v>
       </c>
-      <c r="J44" s="59">
-        <v>0</v>
-      </c>
-      <c r="K44" s="59">
-        <v>0</v>
-      </c>
-      <c r="L44" s="59">
+      <c r="J44" s="45">
+        <v>0</v>
+      </c>
+      <c r="K44" s="45">
+        <v>0</v>
+      </c>
+      <c r="L44" s="45">
         <v>0</v>
       </c>
       <c r="M44" s="41">
@@ -15309,7 +15309,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -15325,22 +15325,22 @@
       <c r="F45" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="59">
-        <v>0</v>
-      </c>
-      <c r="H45" s="59">
+      <c r="G45" s="45">
+        <v>0</v>
+      </c>
+      <c r="H45" s="45">
         <v>116.687</v>
       </c>
-      <c r="I45" s="59">
+      <c r="I45" s="45">
         <v>558.91600000000005</v>
       </c>
-      <c r="J45" s="59">
-        <v>0</v>
-      </c>
-      <c r="K45" s="59">
-        <v>0</v>
-      </c>
-      <c r="L45" s="59">
+      <c r="J45" s="45">
+        <v>0</v>
+      </c>
+      <c r="K45" s="45">
+        <v>0</v>
+      </c>
+      <c r="L45" s="45">
         <v>0</v>
       </c>
       <c r="M45" s="41">
@@ -15349,7 +15349,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="34" t="s">
         <v>144</v>
       </c>
@@ -15365,22 +15365,22 @@
       <c r="F46" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="59">
-        <v>0</v>
-      </c>
-      <c r="H46" s="59">
-        <v>0</v>
-      </c>
-      <c r="I46" s="59">
+      <c r="G46" s="45">
+        <v>0</v>
+      </c>
+      <c r="H46" s="45">
+        <v>0</v>
+      </c>
+      <c r="I46" s="45">
         <v>607.53700000000003</v>
       </c>
-      <c r="J46" s="59">
-        <v>0</v>
-      </c>
-      <c r="K46" s="59">
-        <v>0</v>
-      </c>
-      <c r="L46" s="59">
+      <c r="J46" s="45">
+        <v>0</v>
+      </c>
+      <c r="K46" s="45">
+        <v>0</v>
+      </c>
+      <c r="L46" s="45">
         <v>0</v>
       </c>
       <c r="M46" s="41">
@@ -15389,7 +15389,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="34" t="s">
         <v>133</v>
       </c>
@@ -15405,22 +15405,22 @@
       <c r="F47" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="59">
-        <v>0</v>
-      </c>
-      <c r="H47" s="59">
-        <v>0</v>
-      </c>
-      <c r="I47" s="59">
+      <c r="G47" s="45">
+        <v>0</v>
+      </c>
+      <c r="H47" s="45">
+        <v>0</v>
+      </c>
+      <c r="I47" s="45">
         <v>607.53700000000003</v>
       </c>
-      <c r="J47" s="59">
-        <v>0</v>
-      </c>
-      <c r="K47" s="59">
-        <v>0</v>
-      </c>
-      <c r="L47" s="59">
+      <c r="J47" s="45">
+        <v>0</v>
+      </c>
+      <c r="K47" s="45">
+        <v>0</v>
+      </c>
+      <c r="L47" s="45">
         <v>0</v>
       </c>
       <c r="M47" s="41">
@@ -16594,8 +16594,8 @@
   </sheetPr>
   <dimension ref="A1:M1004"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16621,25 +16621,25 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="51" t="s">
         <v>151</v>
       </c>
     </row>
@@ -16647,22 +16647,22 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -16704,7 +16704,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -16722,31 +16722,31 @@
       <c r="F6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="43">
-        <v>-1425.213</v>
-      </c>
-      <c r="H6" s="43">
-        <v>-537.60699999999997</v>
-      </c>
-      <c r="I6" s="43">
-        <v>-444.36900000000003</v>
-      </c>
-      <c r="J6" s="43">
-        <v>0</v>
-      </c>
-      <c r="K6" s="43">
-        <v>0</v>
-      </c>
-      <c r="L6" s="43">
+      <c r="G6" s="45">
+        <v>-1425.21</v>
+      </c>
+      <c r="H6" s="45">
+        <v>-537.60599999999999</v>
+      </c>
+      <c r="I6" s="45">
+        <v>-444.36799999999999</v>
+      </c>
+      <c r="J6" s="45">
+        <v>0</v>
+      </c>
+      <c r="K6" s="45">
+        <v>0</v>
+      </c>
+      <c r="L6" s="45">
         <v>0</v>
       </c>
       <c r="M6" s="44">
         <f>SQRT(G6*G6+H6*H6+I6*I6)</f>
-        <v>1586.7316061574497</v>
+        <v>1586.7282926701723</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -16762,31 +16762,31 @@
       <c r="F7" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="43">
-        <v>1314.6020000000001</v>
-      </c>
-      <c r="H7" s="43">
+      <c r="G7" s="29">
+        <v>1314.6010000000001</v>
+      </c>
+      <c r="H7" s="29">
         <v>2257.009</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="29">
         <v>1865.5709999999999</v>
       </c>
-      <c r="J7" s="43">
-        <v>0</v>
-      </c>
-      <c r="K7" s="43">
-        <v>0</v>
-      </c>
-      <c r="L7" s="43">
+      <c r="J7" s="29">
+        <v>0</v>
+      </c>
+      <c r="K7" s="29">
+        <v>0</v>
+      </c>
+      <c r="L7" s="29">
         <v>0</v>
       </c>
       <c r="M7" s="44">
         <f t="shared" ref="M7:M47" si="0">SQRT(G7*G7+H7*H7+I7*I7)</f>
-        <v>3209.7699606865913</v>
+        <v>3209.7695511240368</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -16802,31 +16802,31 @@
       <c r="F8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="43">
-        <v>-960.62300000000005</v>
-      </c>
-      <c r="H8" s="43">
-        <v>-3853.8389999999999</v>
-      </c>
-      <c r="I8" s="43">
-        <v>-1129.0360000000001</v>
-      </c>
-      <c r="J8" s="43">
-        <v>0</v>
-      </c>
-      <c r="K8" s="43">
-        <v>0</v>
-      </c>
-      <c r="L8" s="43">
+      <c r="G8" s="29">
+        <v>-960.62</v>
+      </c>
+      <c r="H8" s="29">
+        <v>-3853.8310000000001</v>
+      </c>
+      <c r="I8" s="29">
+        <v>-1129.0329999999999</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0</v>
+      </c>
+      <c r="K8" s="29">
+        <v>0</v>
+      </c>
+      <c r="L8" s="29">
         <v>0</v>
       </c>
       <c r="M8" s="44">
         <f t="shared" si="0"/>
-        <v>4129.1153865381384</v>
+        <v>4129.1064016382525</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -16842,31 +16842,31 @@
       <c r="F9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="43">
-        <v>1483.058</v>
-      </c>
-      <c r="H9" s="43">
-        <v>1118.749</v>
-      </c>
-      <c r="I9" s="43">
-        <v>327.75299999999999</v>
-      </c>
-      <c r="J9" s="43">
-        <v>0</v>
-      </c>
-      <c r="K9" s="43">
-        <v>0</v>
-      </c>
-      <c r="L9" s="43">
+      <c r="G9" s="29">
+        <v>1483.0540000000001</v>
+      </c>
+      <c r="H9" s="29">
+        <v>1118.7460000000001</v>
+      </c>
+      <c r="I9" s="29">
+        <v>327.75200000000001</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0</v>
+      </c>
+      <c r="K9" s="29">
+        <v>0</v>
+      </c>
+      <c r="L9" s="29">
         <v>0</v>
       </c>
       <c r="M9" s="44">
         <f t="shared" si="0"/>
-        <v>1886.394016470048</v>
+        <v>1886.3889187906084</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -16882,31 +16882,31 @@
       <c r="F10" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="43">
-        <v>-1425.213</v>
-      </c>
-      <c r="H10" s="43">
-        <v>-537.60699999999997</v>
-      </c>
-      <c r="I10" s="43">
-        <v>-444.36900000000003</v>
-      </c>
-      <c r="J10" s="43">
-        <v>0</v>
-      </c>
-      <c r="K10" s="43">
-        <v>0</v>
-      </c>
-      <c r="L10" s="43">
+      <c r="G10" s="29">
+        <v>-1425.21</v>
+      </c>
+      <c r="H10" s="29">
+        <v>-537.60599999999999</v>
+      </c>
+      <c r="I10" s="29">
+        <v>-444.36799999999999</v>
+      </c>
+      <c r="J10" s="29">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29">
+        <v>0</v>
+      </c>
+      <c r="L10" s="29">
         <v>0</v>
       </c>
       <c r="M10" s="44">
         <f t="shared" si="0"/>
-        <v>1586.7316061574497</v>
+        <v>1586.7282926701723</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -16922,31 +16922,31 @@
       <c r="F11" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="43">
-        <v>1314.6020000000001</v>
-      </c>
-      <c r="H11" s="43">
+      <c r="G11" s="29">
+        <v>1314.6010000000001</v>
+      </c>
+      <c r="H11" s="29">
         <v>2257.009</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="29">
         <v>1865.5709999999999</v>
       </c>
-      <c r="J11" s="43">
-        <v>0</v>
-      </c>
-      <c r="K11" s="43">
-        <v>0</v>
-      </c>
-      <c r="L11" s="43">
+      <c r="J11" s="29">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29">
+        <v>0</v>
+      </c>
+      <c r="L11" s="29">
         <v>0</v>
       </c>
       <c r="M11" s="44">
         <f t="shared" si="0"/>
-        <v>3209.7699606865913</v>
+        <v>3209.7695511240368</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -16962,31 +16962,31 @@
       <c r="F12" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="43">
-        <v>-960.62300000000005</v>
-      </c>
-      <c r="H12" s="43">
-        <v>-3853.8389999999999</v>
-      </c>
-      <c r="I12" s="43">
-        <v>-1129.0360000000001</v>
-      </c>
-      <c r="J12" s="43">
-        <v>0</v>
-      </c>
-      <c r="K12" s="43">
-        <v>0</v>
-      </c>
-      <c r="L12" s="43">
+      <c r="G12" s="29">
+        <v>-960.62</v>
+      </c>
+      <c r="H12" s="29">
+        <v>-3853.8310000000001</v>
+      </c>
+      <c r="I12" s="29">
+        <v>-1129.0329999999999</v>
+      </c>
+      <c r="J12" s="29">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29">
+        <v>0</v>
+      </c>
+      <c r="L12" s="29">
         <v>0</v>
       </c>
       <c r="M12" s="44">
         <f t="shared" si="0"/>
-        <v>4129.1153865381384</v>
+        <v>4129.1064016382525</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -17002,31 +17002,31 @@
       <c r="F13" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="43">
-        <v>1483.058</v>
-      </c>
-      <c r="H13" s="43">
-        <v>1118.749</v>
-      </c>
-      <c r="I13" s="43">
-        <v>327.75299999999999</v>
-      </c>
-      <c r="J13" s="43">
-        <v>0</v>
-      </c>
-      <c r="K13" s="43">
-        <v>0</v>
-      </c>
-      <c r="L13" s="43">
+      <c r="G13" s="29">
+        <v>1483.0540000000001</v>
+      </c>
+      <c r="H13" s="29">
+        <v>1118.7460000000001</v>
+      </c>
+      <c r="I13" s="29">
+        <v>327.75200000000001</v>
+      </c>
+      <c r="J13" s="29">
+        <v>0</v>
+      </c>
+      <c r="K13" s="29">
+        <v>0</v>
+      </c>
+      <c r="L13" s="29">
         <v>0</v>
       </c>
       <c r="M13" s="44">
         <f t="shared" si="0"/>
-        <v>1886.394016470048</v>
+        <v>1886.3889187906084</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -17042,31 +17042,31 @@
       <c r="F14" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="43">
-        <v>-411.82299999999998</v>
-      </c>
-      <c r="H14" s="43">
-        <v>-1153.921</v>
-      </c>
-      <c r="I14" s="43">
-        <v>-338.05700000000002</v>
-      </c>
-      <c r="J14" s="43">
-        <v>0</v>
-      </c>
-      <c r="K14" s="43">
-        <v>0</v>
-      </c>
-      <c r="L14" s="43">
+      <c r="G14" s="29">
+        <v>-411.82600000000002</v>
+      </c>
+      <c r="H14" s="29">
+        <v>-1153.9280000000001</v>
+      </c>
+      <c r="I14" s="29">
+        <v>-338.05900000000003</v>
+      </c>
+      <c r="J14" s="29">
+        <v>0</v>
+      </c>
+      <c r="K14" s="29">
+        <v>0</v>
+      </c>
+      <c r="L14" s="29">
         <v>0</v>
       </c>
       <c r="M14" s="44">
         <f t="shared" si="0"/>
-        <v>1270.989532930543</v>
+        <v>1270.9973921849723</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -17082,31 +17082,31 @@
       <c r="F15" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="43">
-        <v>-411.82299999999998</v>
-      </c>
-      <c r="H15" s="43">
-        <v>-1153.921</v>
-      </c>
-      <c r="I15" s="43">
-        <v>-338.05700000000002</v>
-      </c>
-      <c r="J15" s="43">
-        <v>0</v>
-      </c>
-      <c r="K15" s="43">
-        <v>0</v>
-      </c>
-      <c r="L15" s="43">
+      <c r="G15" s="29">
+        <v>-411.82600000000002</v>
+      </c>
+      <c r="H15" s="29">
+        <v>-1153.9280000000001</v>
+      </c>
+      <c r="I15" s="29">
+        <v>-338.05900000000003</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0</v>
+      </c>
+      <c r="K15" s="29">
+        <v>0</v>
+      </c>
+      <c r="L15" s="29">
         <v>0</v>
       </c>
       <c r="M15" s="44">
         <f t="shared" si="0"/>
-        <v>1270.989532930543</v>
+        <v>1270.9973921849723</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -17122,22 +17122,22 @@
       <c r="F16" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="43">
-        <v>0</v>
-      </c>
-      <c r="H16" s="43">
+      <c r="G16" s="29">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
         <v>-602.41300000000001</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="29">
         <v>571.75699999999995</v>
       </c>
-      <c r="J16" s="43">
-        <v>0</v>
-      </c>
-      <c r="K16" s="43">
-        <v>0</v>
-      </c>
-      <c r="L16" s="43">
+      <c r="J16" s="29">
+        <v>0</v>
+      </c>
+      <c r="K16" s="29">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29">
         <v>0</v>
       </c>
       <c r="M16" s="44">
@@ -17146,7 +17146,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -17162,22 +17162,22 @@
       <c r="F17" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="43">
-        <v>0</v>
-      </c>
-      <c r="H17" s="43">
+      <c r="G17" s="29">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29">
         <v>-602.41300000000001</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="29">
         <v>571.75699999999995</v>
       </c>
-      <c r="J17" s="43">
-        <v>0</v>
-      </c>
-      <c r="K17" s="43">
-        <v>0</v>
-      </c>
-      <c r="L17" s="43">
+      <c r="J17" s="29">
+        <v>0</v>
+      </c>
+      <c r="K17" s="29">
+        <v>0</v>
+      </c>
+      <c r="L17" s="29">
         <v>0</v>
       </c>
       <c r="M17" s="44">
@@ -17186,7 +17186,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -17202,22 +17202,22 @@
       <c r="F18" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="43">
-        <v>0</v>
-      </c>
-      <c r="H18" s="43">
+      <c r="G18" s="29">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29">
         <v>-712.399</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="29">
         <v>-304.846</v>
       </c>
-      <c r="J18" s="43">
-        <v>0</v>
-      </c>
-      <c r="K18" s="43">
-        <v>0</v>
-      </c>
-      <c r="L18" s="43">
+      <c r="J18" s="29">
+        <v>0</v>
+      </c>
+      <c r="K18" s="29">
+        <v>0</v>
+      </c>
+      <c r="L18" s="29">
         <v>0</v>
       </c>
       <c r="M18" s="44">
@@ -17226,7 +17226,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -17242,22 +17242,22 @@
       <c r="F19" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="43">
-        <v>0</v>
-      </c>
-      <c r="H19" s="43">
+      <c r="G19" s="29">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29">
         <v>-712.399</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="29">
         <v>-304.846</v>
       </c>
-      <c r="J19" s="43">
-        <v>0</v>
-      </c>
-      <c r="K19" s="43">
-        <v>0</v>
-      </c>
-      <c r="L19" s="43">
+      <c r="J19" s="29">
+        <v>0</v>
+      </c>
+      <c r="K19" s="29">
+        <v>0</v>
+      </c>
+      <c r="L19" s="29">
         <v>0</v>
       </c>
       <c r="M19" s="44">
@@ -17266,7 +17266,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -17282,31 +17282,31 @@
       <c r="F20" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="43">
-        <v>0</v>
-      </c>
-      <c r="H20" s="43">
-        <v>109.985</v>
-      </c>
-      <c r="I20" s="43">
-        <v>876.60199999999998</v>
-      </c>
-      <c r="J20" s="43">
-        <v>0</v>
-      </c>
-      <c r="K20" s="43">
-        <v>0</v>
-      </c>
-      <c r="L20" s="43">
+      <c r="G20" s="29">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29">
+        <v>109.986</v>
+      </c>
+      <c r="I20" s="29">
+        <v>876.60299999999995</v>
+      </c>
+      <c r="J20" s="29">
+        <v>0</v>
+      </c>
+      <c r="K20" s="29">
+        <v>0</v>
+      </c>
+      <c r="L20" s="29">
         <v>0</v>
       </c>
       <c r="M20" s="44">
         <f t="shared" si="0"/>
-        <v>883.4748251246325</v>
+        <v>883.47594183712772</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -17322,19 +17322,31 @@
       <c r="F21" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
+      <c r="G21" s="29">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="I21" s="29">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="J21" s="29">
+        <v>0</v>
+      </c>
+      <c r="K21" s="29">
+        <v>0</v>
+      </c>
+      <c r="L21" s="29">
+        <v>0</v>
+      </c>
       <c r="M21" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.0553851381374156E-3</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -17350,31 +17362,31 @@
       <c r="F22" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="43">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-      <c r="H22" s="43">
+      <c r="G22" s="29">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="H22" s="29">
         <v>1070.115</v>
       </c>
-      <c r="I22" s="43">
-        <v>-11228.333000000001</v>
-      </c>
-      <c r="J22" s="43">
-        <v>0</v>
-      </c>
-      <c r="K22" s="43">
-        <v>0</v>
-      </c>
-      <c r="L22" s="43">
+      <c r="I22" s="29">
+        <v>-11228.329</v>
+      </c>
+      <c r="J22" s="29">
+        <v>0</v>
+      </c>
+      <c r="K22" s="29">
+        <v>0</v>
+      </c>
+      <c r="L22" s="29">
         <v>0</v>
       </c>
       <c r="M22" s="44">
         <f t="shared" si="0"/>
-        <v>11279.211323236656</v>
+        <v>11279.207341253506</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -17390,31 +17402,31 @@
       <c r="F23" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="43">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="H23" s="43">
+      <c r="G23" s="29">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H23" s="29">
         <v>-1175.6890000000001</v>
       </c>
-      <c r="I23" s="43">
-        <v>12336.079</v>
-      </c>
-      <c r="J23" s="43">
-        <v>0</v>
-      </c>
-      <c r="K23" s="43">
-        <v>0</v>
-      </c>
-      <c r="L23" s="43">
+      <c r="I23" s="29">
+        <v>12336.084000000001</v>
+      </c>
+      <c r="J23" s="29">
+        <v>0</v>
+      </c>
+      <c r="K23" s="29">
+        <v>0</v>
+      </c>
+      <c r="L23" s="29">
         <v>0</v>
       </c>
       <c r="M23" s="44">
         <f t="shared" si="0"/>
-        <v>12391.976828620927</v>
+        <v>12391.981806042892</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -17430,31 +17442,31 @@
       <c r="F24" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="43">
-        <v>0</v>
-      </c>
-      <c r="H24" s="43">
-        <v>-2666.4490000000001</v>
-      </c>
-      <c r="I24" s="43">
+      <c r="G24" s="29">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29">
+        <v>-2666.4479999999999</v>
+      </c>
+      <c r="I24" s="29">
         <v>-254.126</v>
       </c>
-      <c r="J24" s="43">
-        <v>0</v>
-      </c>
-      <c r="K24" s="43">
-        <v>0</v>
-      </c>
-      <c r="L24" s="43">
+      <c r="J24" s="29">
+        <v>0</v>
+      </c>
+      <c r="K24" s="29">
+        <v>0</v>
+      </c>
+      <c r="L24" s="29">
         <v>0</v>
       </c>
       <c r="M24" s="44">
         <f t="shared" si="0"/>
-        <v>2678.5313687685275</v>
+        <v>2678.5303732793473</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -17470,22 +17482,22 @@
       <c r="F25" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="43">
-        <v>0</v>
-      </c>
-      <c r="H25" s="43">
-        <v>0</v>
-      </c>
-      <c r="I25" s="43">
+      <c r="G25" s="29">
+        <v>0</v>
+      </c>
+      <c r="H25" s="29">
+        <v>0</v>
+      </c>
+      <c r="I25" s="29">
         <v>853.62</v>
       </c>
-      <c r="J25" s="43">
-        <v>0</v>
-      </c>
-      <c r="K25" s="43">
-        <v>0</v>
-      </c>
-      <c r="L25" s="43">
+      <c r="J25" s="29">
+        <v>0</v>
+      </c>
+      <c r="K25" s="29">
+        <v>0</v>
+      </c>
+      <c r="L25" s="29">
         <v>0</v>
       </c>
       <c r="M25" s="44">
@@ -17494,7 +17506,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="s">
         <v>146</v>
       </c>
@@ -17522,7 +17534,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -17540,31 +17552,31 @@
       <c r="F27" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="29">
         <v>281.62599999999998</v>
       </c>
-      <c r="H27" s="43">
-        <v>438.44900000000001</v>
-      </c>
-      <c r="I27" s="43">
+      <c r="H27" s="29">
+        <v>438.44799999999998</v>
+      </c>
+      <c r="I27" s="29">
         <v>135.36099999999999</v>
       </c>
-      <c r="J27" s="43">
-        <v>0</v>
-      </c>
-      <c r="K27" s="43">
-        <v>0</v>
-      </c>
-      <c r="L27" s="43">
+      <c r="J27" s="29">
+        <v>0</v>
+      </c>
+      <c r="K27" s="29">
+        <v>0</v>
+      </c>
+      <c r="L27" s="29">
         <v>0</v>
       </c>
       <c r="M27" s="44">
         <f t="shared" si="0"/>
-        <v>538.39885753779231</v>
+        <v>538.39804318087931</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -17580,22 +17592,22 @@
       <c r="F28" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="29">
         <v>-328.34500000000003</v>
       </c>
-      <c r="H28" s="43">
+      <c r="H28" s="29">
         <v>510.911</v>
       </c>
-      <c r="I28" s="43">
+      <c r="I28" s="29">
         <v>157.732</v>
       </c>
-      <c r="J28" s="43">
-        <v>0</v>
-      </c>
-      <c r="K28" s="43">
-        <v>0</v>
-      </c>
-      <c r="L28" s="43">
+      <c r="J28" s="29">
+        <v>0</v>
+      </c>
+      <c r="K28" s="29">
+        <v>0</v>
+      </c>
+      <c r="L28" s="29">
         <v>0</v>
       </c>
       <c r="M28" s="44">
@@ -17604,7 +17616,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -17620,22 +17632,22 @@
       <c r="F29" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="29">
         <v>16.902000000000001</v>
       </c>
-      <c r="H29" s="43">
+      <c r="H29" s="29">
         <v>-41.98</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="29">
         <v>-3.9590000000000001</v>
       </c>
-      <c r="J29" s="43">
-        <v>0</v>
-      </c>
-      <c r="K29" s="43">
-        <v>0</v>
-      </c>
-      <c r="L29" s="43">
+      <c r="J29" s="29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="29">
         <v>0</v>
       </c>
       <c r="M29" s="44">
@@ -17644,7 +17656,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -17660,22 +17672,22 @@
       <c r="F30" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="29">
         <v>28.945</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="29">
         <v>74.924999999999997</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="29">
         <v>7.0650000000000004</v>
       </c>
-      <c r="J30" s="43">
-        <v>0</v>
-      </c>
-      <c r="K30" s="43">
-        <v>0</v>
-      </c>
-      <c r="L30" s="43">
+      <c r="J30" s="29">
+        <v>0</v>
+      </c>
+      <c r="K30" s="29">
+        <v>0</v>
+      </c>
+      <c r="L30" s="29">
         <v>0</v>
       </c>
       <c r="M30" s="44">
@@ -17684,7 +17696,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -17700,22 +17712,22 @@
       <c r="F31" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="29">
         <v>28.945</v>
       </c>
-      <c r="H31" s="43">
+      <c r="H31" s="29">
         <v>74.924999999999997</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="29">
         <v>7.0650000000000004</v>
       </c>
-      <c r="J31" s="43">
-        <v>0</v>
-      </c>
-      <c r="K31" s="43">
-        <v>0</v>
-      </c>
-      <c r="L31" s="43">
+      <c r="J31" s="29">
+        <v>0</v>
+      </c>
+      <c r="K31" s="29">
+        <v>0</v>
+      </c>
+      <c r="L31" s="29">
         <v>0</v>
       </c>
       <c r="M31" s="44">
@@ -17724,7 +17736,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -17740,22 +17752,22 @@
       <c r="F32" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="43">
+      <c r="G32" s="29">
         <v>16.902000000000001</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="29">
         <v>-41.98</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="29">
         <v>-3.9590000000000001</v>
       </c>
-      <c r="J32" s="43">
-        <v>0</v>
-      </c>
-      <c r="K32" s="43">
-        <v>0</v>
-      </c>
-      <c r="L32" s="43">
+      <c r="J32" s="29">
+        <v>0</v>
+      </c>
+      <c r="K32" s="29">
+        <v>0</v>
+      </c>
+      <c r="L32" s="29">
         <v>0</v>
       </c>
       <c r="M32" s="44">
@@ -17764,7 +17776,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -17780,22 +17792,22 @@
       <c r="F33" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G33" s="29">
         <v>-328.34500000000003</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="29">
         <v>510.911</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="29">
         <v>157.732</v>
       </c>
-      <c r="J33" s="43">
-        <v>0</v>
-      </c>
-      <c r="K33" s="43">
-        <v>0</v>
-      </c>
-      <c r="L33" s="43">
+      <c r="J33" s="29">
+        <v>0</v>
+      </c>
+      <c r="K33" s="29">
+        <v>0</v>
+      </c>
+      <c r="L33" s="29">
         <v>0</v>
       </c>
       <c r="M33" s="44">
@@ -17804,7 +17816,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -17820,31 +17832,31 @@
       <c r="F34" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="43">
+      <c r="G34" s="29">
         <v>281.62599999999998</v>
       </c>
-      <c r="H34" s="43">
-        <v>438.44900000000001</v>
-      </c>
-      <c r="I34" s="43">
+      <c r="H34" s="29">
+        <v>438.44799999999998</v>
+      </c>
+      <c r="I34" s="29">
         <v>135.36099999999999</v>
       </c>
-      <c r="J34" s="43">
-        <v>0</v>
-      </c>
-      <c r="K34" s="43">
-        <v>0</v>
-      </c>
-      <c r="L34" s="43">
+      <c r="J34" s="29">
+        <v>0</v>
+      </c>
+      <c r="K34" s="29">
+        <v>0</v>
+      </c>
+      <c r="L34" s="29">
         <v>0</v>
       </c>
       <c r="M34" s="44">
         <f t="shared" si="0"/>
-        <v>538.39885753779231</v>
+        <v>538.39804318087931</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -17860,22 +17872,22 @@
       <c r="F35" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="43">
-        <v>0</v>
-      </c>
-      <c r="H35" s="43">
+      <c r="G35" s="29">
+        <v>0</v>
+      </c>
+      <c r="H35" s="29">
         <v>-1325.527</v>
       </c>
-      <c r="I35" s="43">
+      <c r="I35" s="29">
         <v>1226.1949999999999</v>
       </c>
-      <c r="J35" s="43">
-        <v>0</v>
-      </c>
-      <c r="K35" s="43">
-        <v>0</v>
-      </c>
-      <c r="L35" s="43">
+      <c r="J35" s="29">
+        <v>0</v>
+      </c>
+      <c r="K35" s="29">
+        <v>0</v>
+      </c>
+      <c r="L35" s="29">
         <v>0</v>
       </c>
       <c r="M35" s="44">
@@ -17884,7 +17896,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -17900,22 +17912,22 @@
       <c r="F36" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="43">
-        <v>0</v>
-      </c>
-      <c r="H36" s="43">
+      <c r="G36" s="29">
+        <v>0</v>
+      </c>
+      <c r="H36" s="29">
         <v>-1325.527</v>
       </c>
-      <c r="I36" s="43">
+      <c r="I36" s="29">
         <v>1226.1949999999999</v>
       </c>
-      <c r="J36" s="43">
-        <v>0</v>
-      </c>
-      <c r="K36" s="43">
-        <v>0</v>
-      </c>
-      <c r="L36" s="43">
+      <c r="J36" s="29">
+        <v>0</v>
+      </c>
+      <c r="K36" s="29">
+        <v>0</v>
+      </c>
+      <c r="L36" s="29">
         <v>0</v>
       </c>
       <c r="M36" s="44">
@@ -17924,7 +17936,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -17940,22 +17952,22 @@
       <c r="F37" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G37" s="43">
-        <v>0</v>
-      </c>
-      <c r="H37" s="43">
+      <c r="G37" s="29">
+        <v>0</v>
+      </c>
+      <c r="H37" s="29">
         <v>-1616.155</v>
       </c>
-      <c r="I37" s="43">
+      <c r="I37" s="29">
         <v>-165.88</v>
       </c>
-      <c r="J37" s="43">
-        <v>0</v>
-      </c>
-      <c r="K37" s="43">
-        <v>0</v>
-      </c>
-      <c r="L37" s="43">
+      <c r="J37" s="29">
+        <v>0</v>
+      </c>
+      <c r="K37" s="29">
+        <v>0</v>
+      </c>
+      <c r="L37" s="29">
         <v>0</v>
       </c>
       <c r="M37" s="44">
@@ -17964,7 +17976,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -17980,22 +17992,22 @@
       <c r="F38" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="43">
-        <v>0</v>
-      </c>
-      <c r="H38" s="43">
+      <c r="G38" s="29">
+        <v>0</v>
+      </c>
+      <c r="H38" s="29">
         <v>-1616.155</v>
       </c>
-      <c r="I38" s="43">
+      <c r="I38" s="29">
         <v>-165.88</v>
       </c>
-      <c r="J38" s="43">
-        <v>0</v>
-      </c>
-      <c r="K38" s="43">
-        <v>0</v>
-      </c>
-      <c r="L38" s="43">
+      <c r="J38" s="29">
+        <v>0</v>
+      </c>
+      <c r="K38" s="29">
+        <v>0</v>
+      </c>
+      <c r="L38" s="29">
         <v>0</v>
       </c>
       <c r="M38" s="44">
@@ -18004,7 +18016,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -18020,22 +18032,22 @@
       <c r="F39" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="43">
+      <c r="G39" s="29">
         <v>0.877</v>
       </c>
-      <c r="H39" s="43">
+      <c r="H39" s="29">
         <v>13.044</v>
       </c>
-      <c r="I39" s="43">
+      <c r="I39" s="29">
         <v>1.62</v>
       </c>
-      <c r="J39" s="43">
-        <v>0</v>
-      </c>
-      <c r="K39" s="43">
-        <v>0</v>
-      </c>
-      <c r="L39" s="43">
+      <c r="J39" s="29">
+        <v>0</v>
+      </c>
+      <c r="K39" s="29">
+        <v>0</v>
+      </c>
+      <c r="L39" s="29">
         <v>0</v>
       </c>
       <c r="M39" s="44">
@@ -18044,7 +18056,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -18060,22 +18072,22 @@
       <c r="F40" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="43">
+      <c r="G40" s="29">
         <v>0.877</v>
       </c>
-      <c r="H40" s="43">
+      <c r="H40" s="29">
         <v>13.044</v>
       </c>
-      <c r="I40" s="43">
+      <c r="I40" s="29">
         <v>1.62</v>
       </c>
-      <c r="J40" s="43">
-        <v>0</v>
-      </c>
-      <c r="K40" s="43">
-        <v>0</v>
-      </c>
-      <c r="L40" s="43">
+      <c r="J40" s="29">
+        <v>0</v>
+      </c>
+      <c r="K40" s="29">
+        <v>0</v>
+      </c>
+      <c r="L40" s="29">
         <v>0</v>
       </c>
       <c r="M40" s="44">
@@ -18084,7 +18096,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -18100,31 +18112,31 @@
       <c r="F41" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="29">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="H41" s="43">
+      <c r="H41" s="29">
         <v>-44.874000000000002</v>
       </c>
-      <c r="I41" s="43">
-        <v>960.928</v>
-      </c>
-      <c r="J41" s="43">
-        <v>0</v>
-      </c>
-      <c r="K41" s="43">
-        <v>0</v>
-      </c>
-      <c r="L41" s="43">
+      <c r="I41" s="29">
+        <v>960.92899999999997</v>
+      </c>
+      <c r="J41" s="29">
+        <v>0</v>
+      </c>
+      <c r="K41" s="29">
+        <v>0</v>
+      </c>
+      <c r="L41" s="29">
         <v>0</v>
       </c>
       <c r="M41" s="44">
         <f t="shared" si="0"/>
-        <v>961.9752060573079</v>
+        <v>961.97620496870911</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -18140,31 +18152,31 @@
       <c r="F42" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="43">
+      <c r="G42" s="29">
         <v>-2E-3</v>
       </c>
-      <c r="H42" s="43">
+      <c r="H42" s="29">
         <v>-26.859000000000002</v>
       </c>
-      <c r="I42" s="43">
-        <v>575.15700000000004</v>
-      </c>
-      <c r="J42" s="43">
-        <v>0</v>
-      </c>
-      <c r="K42" s="43">
-        <v>0</v>
-      </c>
-      <c r="L42" s="43">
+      <c r="I42" s="29">
+        <v>575.15499999999997</v>
+      </c>
+      <c r="J42" s="29">
+        <v>0</v>
+      </c>
+      <c r="K42" s="29">
+        <v>0</v>
+      </c>
+      <c r="L42" s="29">
         <v>0</v>
       </c>
       <c r="M42" s="44">
         <f t="shared" si="0"/>
-        <v>575.78379669282117</v>
+        <v>575.78179887002329</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -18180,31 +18192,31 @@
       <c r="F43" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="43">
+      <c r="G43" s="29">
         <v>0.01</v>
       </c>
-      <c r="H43" s="43">
-        <v>-258.44400000000002</v>
-      </c>
-      <c r="I43" s="43">
+      <c r="H43" s="29">
+        <v>-258.44499999999999</v>
+      </c>
+      <c r="I43" s="29">
         <v>-12.069000000000001</v>
       </c>
-      <c r="J43" s="43">
-        <v>0</v>
-      </c>
-      <c r="K43" s="43">
-        <v>0</v>
-      </c>
-      <c r="L43" s="43">
+      <c r="J43" s="29">
+        <v>0</v>
+      </c>
+      <c r="K43" s="29">
+        <v>0</v>
+      </c>
+      <c r="L43" s="29">
         <v>0</v>
       </c>
       <c r="M43" s="44">
         <f t="shared" si="0"/>
-        <v>258.72565005619373</v>
+        <v>258.72664896759284</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>143</v>
       </c>
@@ -18220,19 +18232,31 @@
       <c r="F44" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
+      <c r="G44" s="29">
+        <v>0</v>
+      </c>
+      <c r="H44" s="29">
+        <v>0</v>
+      </c>
+      <c r="I44" s="29">
+        <v>0</v>
+      </c>
+      <c r="J44" s="29">
+        <v>0</v>
+      </c>
+      <c r="K44" s="29">
+        <v>0</v>
+      </c>
+      <c r="L44" s="29">
+        <v>0</v>
+      </c>
       <c r="M44" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -18248,31 +18272,31 @@
       <c r="F45" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="43">
-        <v>0</v>
-      </c>
-      <c r="H45" s="43">
-        <v>290.62799999999999</v>
-      </c>
-      <c r="I45" s="43">
+      <c r="G45" s="29">
+        <v>0</v>
+      </c>
+      <c r="H45" s="29">
+        <v>290.62900000000002</v>
+      </c>
+      <c r="I45" s="29">
         <v>1392.075</v>
       </c>
-      <c r="J45" s="43">
-        <v>0</v>
-      </c>
-      <c r="K45" s="43">
-        <v>0</v>
-      </c>
-      <c r="L45" s="43">
+      <c r="J45" s="29">
+        <v>0</v>
+      </c>
+      <c r="K45" s="29">
+        <v>0</v>
+      </c>
+      <c r="L45" s="29">
         <v>0</v>
       </c>
       <c r="M45" s="44">
         <f t="shared" si="0"/>
-        <v>1422.0891111350934</v>
+        <v>1422.0893155023703</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="34" t="s">
         <v>144</v>
       </c>
@@ -18288,31 +18312,31 @@
       <c r="F46" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="43">
-        <v>0</v>
-      </c>
-      <c r="H46" s="43">
-        <v>0</v>
-      </c>
-      <c r="I46" s="43">
-        <v>722.36500000000001</v>
-      </c>
-      <c r="J46" s="43">
-        <v>0</v>
-      </c>
-      <c r="K46" s="43">
-        <v>0</v>
-      </c>
-      <c r="L46" s="43">
+      <c r="G46" s="29">
+        <v>0</v>
+      </c>
+      <c r="H46" s="29">
+        <v>0</v>
+      </c>
+      <c r="I46" s="29">
+        <v>722.36400000000003</v>
+      </c>
+      <c r="J46" s="29">
+        <v>0</v>
+      </c>
+      <c r="K46" s="29">
+        <v>0</v>
+      </c>
+      <c r="L46" s="29">
         <v>0</v>
       </c>
       <c r="M46" s="44">
         <f t="shared" si="0"/>
-        <v>722.36500000000001</v>
+        <v>722.36400000000003</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="34" t="s">
         <v>133</v>
       </c>
@@ -18328,27 +18352,27 @@
       <c r="F47" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="43">
-        <v>0</v>
-      </c>
-      <c r="H47" s="43">
-        <v>0</v>
-      </c>
-      <c r="I47" s="43">
-        <v>1524.0160000000001</v>
-      </c>
-      <c r="J47" s="43">
-        <v>0</v>
-      </c>
-      <c r="K47" s="43">
-        <v>0</v>
-      </c>
-      <c r="L47" s="43">
+      <c r="G47" s="29">
+        <v>0</v>
+      </c>
+      <c r="H47" s="29">
+        <v>0</v>
+      </c>
+      <c r="I47" s="29">
+        <v>1524.0150000000001</v>
+      </c>
+      <c r="J47" s="29">
+        <v>0</v>
+      </c>
+      <c r="K47" s="29">
+        <v>0</v>
+      </c>
+      <c r="L47" s="29">
         <v>0</v>
       </c>
       <c r="M47" s="44">
         <f t="shared" si="0"/>
-        <v>1524.0160000000001</v>
+        <v>1524.0150000000001</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19505,8 +19529,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19548,25 +19572,25 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="51" t="s">
         <v>151</v>
       </c>
     </row>
@@ -19579,13 +19603,13 @@
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
@@ -19594,13 +19618,13 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -19642,7 +19666,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -19684,7 +19708,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
@@ -19724,7 +19748,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
@@ -19764,7 +19788,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
@@ -19804,7 +19828,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
@@ -19844,7 +19868,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="19" t="s">
         <v>42</v>
       </c>
@@ -19884,7 +19908,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="19" t="s">
         <v>45</v>
       </c>
@@ -19924,7 +19948,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
@@ -19964,7 +19988,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>52</v>
       </c>
@@ -20004,7 +20028,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
@@ -20044,7 +20068,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
@@ -20084,7 +20108,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
@@ -20124,7 +20148,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="24" t="s">
         <v>66</v>
       </c>
@@ -20164,7 +20188,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>71</v>
       </c>
@@ -20204,7 +20228,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>77</v>
       </c>
@@ -20244,7 +20268,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="23" t="s">
         <v>85</v>
       </c>
@@ -20260,19 +20284,31 @@
       <c r="F21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="G21" s="29">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29">
+        <v>0</v>
+      </c>
+      <c r="I21" s="29">
+        <v>0</v>
+      </c>
+      <c r="J21" s="29">
+        <v>0</v>
+      </c>
+      <c r="K21" s="29">
+        <v>0</v>
+      </c>
+      <c r="L21" s="29">
+        <v>0</v>
+      </c>
       <c r="M21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="23" t="s">
         <v>90</v>
       </c>
@@ -20312,7 +20348,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
@@ -20352,7 +20388,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="23" t="s">
         <v>96</v>
       </c>
@@ -20392,7 +20428,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="19" t="s">
         <v>81</v>
       </c>
@@ -20408,19 +20444,31 @@
       <c r="F25" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="G25" s="19">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0</v>
+      </c>
+      <c r="I25" s="19">
+        <v>0</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0</v>
+      </c>
+      <c r="K25" s="19">
+        <v>0</v>
+      </c>
+      <c r="L25" s="19">
+        <v>0</v>
+      </c>
       <c r="M25" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="s">
         <v>146</v>
       </c>
@@ -20443,7 +20491,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="29">
-        <v>868.95299999999997</v>
+        <v>861.4</v>
       </c>
       <c r="J26" s="29">
         <v>0</v>
@@ -20456,11 +20504,11 @@
       </c>
       <c r="M26" s="19">
         <f t="shared" si="0"/>
-        <v>868.95299999999997</v>
+        <v>861.4</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="57" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -20479,13 +20527,13 @@
         <v>26</v>
       </c>
       <c r="G27" s="29">
-        <v>-23.443000000000001</v>
+        <v>98.971999999999994</v>
       </c>
       <c r="H27" s="29">
-        <v>-36.497</v>
+        <v>154.08500000000001</v>
       </c>
       <c r="I27" s="29">
-        <v>-11.268000000000001</v>
+        <v>47.57</v>
       </c>
       <c r="J27" s="29">
         <v>0</v>
@@ -20498,11 +20546,11 @@
       </c>
       <c r="M27" s="19">
         <f t="shared" si="0"/>
-        <v>44.817107023992527</v>
+        <v>189.21032981578992</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
@@ -20519,13 +20567,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="29">
-        <v>28.12</v>
+        <v>-118.559</v>
       </c>
       <c r="H28" s="29">
-        <v>-43.755000000000003</v>
+        <v>184.48</v>
       </c>
       <c r="I28" s="29">
-        <v>-13.509</v>
+        <v>56.954000000000001</v>
       </c>
       <c r="J28" s="29">
         <v>0</v>
@@ -20538,11 +20586,11 @@
       </c>
       <c r="M28" s="19">
         <f t="shared" si="0"/>
-        <v>53.737580016223291</v>
+        <v>226.5675726952116</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="21" t="s">
         <v>103</v>
       </c>
@@ -20559,13 +20607,13 @@
         <v>26</v>
       </c>
       <c r="G29" s="29">
-        <v>10.72</v>
+        <v>-42.819000000000003</v>
       </c>
       <c r="H29" s="29">
-        <v>-26.625</v>
+        <v>106.352</v>
       </c>
       <c r="I29" s="29">
-        <v>-2.5110000000000001</v>
+        <v>10.029</v>
       </c>
       <c r="J29" s="29">
         <v>0</v>
@@ -20578,11 +20626,11 @@
       </c>
       <c r="M29" s="19">
         <f t="shared" si="0"/>
-        <v>28.811701546420338</v>
+        <v>115.08603523451488</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
@@ -20599,13 +20647,13 @@
         <v>26</v>
       </c>
       <c r="G30" s="29">
-        <v>-15.827999999999999</v>
+        <v>64.123999999999995</v>
       </c>
       <c r="H30" s="29">
-        <v>-40.970999999999997</v>
+        <v>165.99</v>
       </c>
       <c r="I30" s="29">
-        <v>-3.863</v>
+        <v>15.651999999999999</v>
       </c>
       <c r="J30" s="29">
         <v>0</v>
@@ -20618,11 +20666,11 @@
       </c>
       <c r="M30" s="19">
         <f t="shared" si="0"/>
-        <v>44.091622719060815</v>
+        <v>178.63245108322283</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="19" t="s">
         <v>107</v>
       </c>
@@ -20639,13 +20687,13 @@
         <v>109</v>
       </c>
       <c r="G31" s="29">
-        <v>-15.827999999999999</v>
+        <v>64.123999999999995</v>
       </c>
       <c r="H31" s="29">
-        <v>-40.970999999999997</v>
+        <v>165.99</v>
       </c>
       <c r="I31" s="29">
-        <v>-3.863</v>
+        <v>15.651999999999999</v>
       </c>
       <c r="J31" s="29">
         <v>0</v>
@@ -20658,11 +20706,11 @@
       </c>
       <c r="M31" s="19">
         <f t="shared" si="0"/>
-        <v>44.091622719060815</v>
+        <v>178.63245108322283</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="19" t="s">
         <v>110</v>
       </c>
@@ -20679,13 +20727,13 @@
         <v>111</v>
       </c>
       <c r="G32" s="29">
-        <v>10.72</v>
+        <v>-42.819000000000003</v>
       </c>
       <c r="H32" s="29">
-        <v>-26.625</v>
+        <v>106.352</v>
       </c>
       <c r="I32" s="29">
-        <v>-2.5110000000000001</v>
+        <v>10.029</v>
       </c>
       <c r="J32" s="29">
         <v>0</v>
@@ -20698,11 +20746,11 @@
       </c>
       <c r="M32" s="19">
         <f t="shared" si="0"/>
-        <v>28.811701546420338</v>
+        <v>115.08603523451488</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="19" t="s">
         <v>112</v>
       </c>
@@ -20719,13 +20767,13 @@
         <v>113</v>
       </c>
       <c r="G33" s="29">
-        <v>28.12</v>
+        <v>-118.559</v>
       </c>
       <c r="H33" s="29">
-        <v>-43.755000000000003</v>
+        <v>184.48</v>
       </c>
       <c r="I33" s="29">
-        <v>-13.509</v>
+        <v>56.954000000000001</v>
       </c>
       <c r="J33" s="29">
         <v>0</v>
@@ -20738,11 +20786,11 @@
       </c>
       <c r="M33" s="19">
         <f t="shared" si="0"/>
-        <v>53.737580016223291</v>
+        <v>226.5675726952116</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="19" t="s">
         <v>114</v>
       </c>
@@ -20759,13 +20807,13 @@
         <v>115</v>
       </c>
       <c r="G34" s="29">
-        <v>-23.443000000000001</v>
+        <v>98.971999999999994</v>
       </c>
       <c r="H34" s="29">
-        <v>-36.497</v>
+        <v>154.08500000000001</v>
       </c>
       <c r="I34" s="29">
-        <v>-11.268000000000001</v>
+        <v>47.57</v>
       </c>
       <c r="J34" s="29">
         <v>0</v>
@@ -20778,11 +20826,11 @@
       </c>
       <c r="M34" s="19">
         <f t="shared" si="0"/>
-        <v>44.817107023992527</v>
+        <v>189.21032981578992</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="23" t="s">
         <v>116</v>
       </c>
@@ -20802,10 +20850,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="29">
-        <v>140.32599999999999</v>
+        <v>-586.40300000000002</v>
       </c>
       <c r="I35" s="29">
-        <v>-129.81100000000001</v>
+        <v>542.45899999999995</v>
       </c>
       <c r="J35" s="29">
         <v>0</v>
@@ -20818,11 +20866,11 @@
       </c>
       <c r="M35" s="19">
         <f t="shared" si="0"/>
-        <v>191.16035676101882</v>
+        <v>798.83054842062722</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="24" t="s">
         <v>119</v>
       </c>
@@ -20842,10 +20890,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="29">
-        <v>140.32599999999999</v>
+        <v>-586.40300000000002</v>
       </c>
       <c r="I36" s="29">
-        <v>-129.81100000000001</v>
+        <v>542.45899999999995</v>
       </c>
       <c r="J36" s="29">
         <v>0</v>
@@ -20858,11 +20906,11 @@
       </c>
       <c r="M36" s="19">
         <f t="shared" si="0"/>
-        <v>191.16035676101882</v>
+        <v>798.83054842062722</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="24" t="s">
         <v>123</v>
       </c>
@@ -20882,10 +20930,10 @@
         <v>0</v>
       </c>
       <c r="H37" s="29">
-        <v>171.09399999999999</v>
+        <v>-714.97400000000005</v>
       </c>
       <c r="I37" s="29">
-        <v>17.561</v>
+        <v>-73.384</v>
       </c>
       <c r="J37" s="29">
         <v>0</v>
@@ -20898,11 +20946,11 @@
       </c>
       <c r="M37" s="19">
         <f t="shared" si="0"/>
-        <v>171.99286484328354</v>
+        <v>718.73015251344509</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="21" t="s">
         <v>126</v>
       </c>
@@ -20922,10 +20970,10 @@
         <v>0</v>
       </c>
       <c r="H38" s="29">
-        <v>171.09399999999999</v>
+        <v>-714.97400000000005</v>
       </c>
       <c r="I38" s="29">
-        <v>17.561</v>
+        <v>-73.384</v>
       </c>
       <c r="J38" s="29">
         <v>0</v>
@@ -20938,11 +20986,11 @@
       </c>
       <c r="M38" s="19">
         <f t="shared" si="0"/>
-        <v>171.99286484328354</v>
+        <v>718.73015251344509</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="23" t="s">
         <v>128</v>
       </c>
@@ -20959,13 +21007,13 @@
         <v>129</v>
       </c>
       <c r="G39" s="29">
-        <v>0.432</v>
+        <v>-1.722</v>
       </c>
       <c r="H39" s="29">
-        <v>6.4219999999999997</v>
+        <v>-25.603000000000002</v>
       </c>
       <c r="I39" s="29">
-        <v>0.79800000000000004</v>
+        <v>-3.181</v>
       </c>
       <c r="J39" s="29">
         <v>0</v>
@@ -20978,11 +21026,11 @@
       </c>
       <c r="M39" s="19">
         <f t="shared" si="0"/>
-        <v>6.4857930895149591</v>
+        <v>25.857255345453819</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="21" t="s">
         <v>130</v>
       </c>
@@ -20999,13 +21047,13 @@
         <v>26</v>
       </c>
       <c r="G40" s="29">
-        <v>0.432</v>
+        <v>-1.722</v>
       </c>
       <c r="H40" s="29">
-        <v>6.4219999999999997</v>
+        <v>-25.603000000000002</v>
       </c>
       <c r="I40" s="29">
-        <v>0.79800000000000004</v>
+        <v>-3.181</v>
       </c>
       <c r="J40" s="29">
         <v>0</v>
@@ -21018,11 +21066,11 @@
       </c>
       <c r="M40" s="19">
         <f t="shared" si="0"/>
-        <v>6.4857930895149591</v>
+        <v>25.857255345453819</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="23" t="s">
         <v>134</v>
       </c>
@@ -21039,13 +21087,13 @@
         <v>136</v>
       </c>
       <c r="G41" s="29">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H41" s="29">
-        <v>-3.0819999999999999</v>
+        <v>11.64</v>
       </c>
       <c r="I41" s="29">
-        <v>65.989999999999995</v>
+        <v>-249.262</v>
       </c>
       <c r="J41" s="29">
         <v>0</v>
@@ -21058,11 +21106,11 @@
       </c>
       <c r="M41" s="19">
         <f t="shared" si="0"/>
-        <v>66.061931730763064</v>
+        <v>249.53363349456521</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="23" t="s">
         <v>137</v>
       </c>
@@ -21079,13 +21127,13 @@
         <v>136</v>
       </c>
       <c r="G42" s="29">
-        <v>1E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="H42" s="29">
-        <v>10.542</v>
+        <v>-42.838999999999999</v>
       </c>
       <c r="I42" s="29">
-        <v>-225.75399999999999</v>
+        <v>917.34</v>
       </c>
       <c r="J42" s="29">
         <v>0</v>
@@ -21098,11 +21146,11 @@
       </c>
       <c r="M42" s="19">
         <f t="shared" si="0"/>
-        <v>226.0000050464601</v>
+        <v>918.33972773151879</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>138</v>
       </c>
@@ -21119,13 +21167,13 @@
         <v>136</v>
       </c>
       <c r="G43" s="29">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
       <c r="H43" s="29">
-        <v>-8.5609999999999999</v>
+        <v>30.097999999999999</v>
       </c>
       <c r="I43" s="29">
-        <v>-0.4</v>
+        <v>1.4059999999999999</v>
       </c>
       <c r="J43" s="29">
         <v>0</v>
@@ -21138,11 +21186,11 @@
       </c>
       <c r="M43" s="19">
         <f t="shared" si="0"/>
-        <v>8.5703396082069006</v>
+        <v>30.130822109594025</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>143</v>
       </c>
@@ -21158,19 +21206,31 @@
       <c r="F44" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
+      <c r="G44" s="29">
+        <v>0</v>
+      </c>
+      <c r="H44" s="29">
+        <v>0</v>
+      </c>
+      <c r="I44" s="29">
+        <v>0</v>
+      </c>
+      <c r="J44" s="29">
+        <v>0</v>
+      </c>
+      <c r="K44" s="29">
+        <v>0</v>
+      </c>
+      <c r="L44" s="29">
+        <v>0</v>
+      </c>
       <c r="M44" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -21190,10 +21250,10 @@
         <v>0</v>
       </c>
       <c r="H45" s="29">
-        <v>-30.766999999999999</v>
+        <v>128.571</v>
       </c>
       <c r="I45" s="29">
-        <v>-147.37200000000001</v>
+        <v>615.84299999999996</v>
       </c>
       <c r="J45" s="29">
         <v>0</v>
@@ -21206,11 +21266,11 @@
       </c>
       <c r="M45" s="19">
         <f t="shared" si="0"/>
-        <v>150.54937619598431</v>
+        <v>629.12089672017726</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="34" t="s">
         <v>144</v>
       </c>
@@ -21233,7 +21293,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="29">
-        <v>2391.21</v>
+        <v>1569.116</v>
       </c>
       <c r="J46" s="29">
         <v>0</v>
@@ -21246,11 +21306,11 @@
       </c>
       <c r="M46" s="19">
         <f t="shared" si="0"/>
-        <v>2391.21</v>
+        <v>1569.116</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="34" t="s">
         <v>133</v>
       </c>
@@ -21273,7 +21333,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="29">
-        <v>-160.16300000000001</v>
+        <v>669.48400000000004</v>
       </c>
       <c r="J47" s="29">
         <v>0</v>
@@ -21286,7 +21346,7 @@
       </c>
       <c r="M47" s="19">
         <f t="shared" si="0"/>
-        <v>160.16300000000001</v>
+        <v>669.48400000000004</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22409,7 +22469,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G24 G45 G26:G43">
+  <conditionalFormatting sqref="G27:G43 G45 G6:G25">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
